--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A8C74-2B7C-7340-BA1E-177BA151D800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430F19E-EF93-334D-8D4C-F1B309DD7C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25420" yWindow="3680" windowWidth="14380" windowHeight="16940" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19460" windowHeight="15980" activeTab="2" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="39">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -87,10 +109,76 @@
     <t>cc</t>
   </si>
   <si>
-    <t>amu</t>
-  </si>
-  <si>
     <t>pure ZrF4</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>linest</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Lx0</t>
+  </si>
+  <si>
+    <t>g/cc</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Lx</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Vol fit</t>
+  </si>
+  <si>
+    <t>Energy Fit</t>
+  </si>
+  <si>
+    <t>E/mol</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Tmelt</t>
+  </si>
+  <si>
+    <t>pure KF</t>
   </si>
 </sst>
 </file>
@@ -442,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A985E8-79FA-4D42-BF2D-9644AD06AAA6}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -576,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -649,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -710,7 +798,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -722,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -782,33 +870,104 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
       <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.86</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <f>G26*E$2+G27*E$3</f>
+        <v>5800</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <f>F26/G28</f>
+        <v>58</v>
+      </c>
+      <c r="I26">
+        <f>F26*(1.66E-24)</f>
+        <v>9.628E-21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f>SUM(D26:D27)</f>
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G26:G27)</f>
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <f>G27/G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F33">
         <f>(0.00000015)^3</f>
         <v>3.3749999999999996E-21</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <f>I16/F28</f>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f>I16/F33</f>
         <v>2.6274725925925928</v>
       </c>
     </row>
@@ -819,62 +978,2277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="e">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>9.628E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>16.75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="e">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>16.75</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G20" si="0">F15^3</f>
+        <v>4699.421875</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>2.0487626470011273</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
+        <v>17.587500000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>5440.1682480468771</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
+        <v>1.7697982049464434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>18.425000000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>6254.9305156250011</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.5392657002262411</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f>$L$5/(I18*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">LINEST(E16:E23,G16:G23^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="e">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>8.8677199999999999E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">LINEST(E16:E23,C16:C23^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="e">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.96</v>
+      </c>
+      <c r="C16">
+        <v>-527.84212601333297</v>
+      </c>
+      <c r="D16">
+        <v>23.9372557777778</v>
+      </c>
+      <c r="E16">
+        <v>8.47206444444444</v>
+      </c>
+      <c r="F16">
+        <f>$F$10*B16</f>
+        <v>15.36</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G23" si="0">F16^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H16">
+        <f>$B$8/G16/(1E-24)</f>
+        <v>2.4470245396649397</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.98</v>
+      </c>
+      <c r="C18">
+        <v>-525.92149071333301</v>
+      </c>
+      <c r="D18">
+        <v>23.891061333333301</v>
+      </c>
+      <c r="E18">
+        <v>2.7732222222222198</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F23" si="1">$F$10*B18</f>
+        <v>15.68</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H23" si="2">$B$8/G18/(1E-24)</f>
+        <v>2.3002434180539151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>-523.81104607333305</v>
+      </c>
+      <c r="D20">
+        <v>24.041715111111099</v>
+      </c>
+      <c r="E20">
+        <v>-1.9249666666666601</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.1649707031250003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>-521.49088338000001</v>
+      </c>
+      <c r="D21">
+        <v>23.771260444444401</v>
+      </c>
+      <c r="E21">
+        <v>-4.7992933333333303</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>16.32</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4346.7079679999997</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2.0401002471947067</v>
+      </c>
+      <c r="J21">
+        <f>I21^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f>$L$5/(I21*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21">
+        <f>L21/L23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.96</v>
+      </c>
+      <c r="F29">
+        <f>$F$10*B29</f>
+        <v>15.36</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G36" si="3">F29^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H29">
+        <f>$B$8/G29/(1E-24)</f>
+        <v>2.4470245396649397</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.98</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F36" si="4">$F$10*B31</f>
+        <v>15.68</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G36" si="5">F31^3</f>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H36" si="6">$B$8/G31/(1E-24)</f>
+        <v>2.3002434180539151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F36" si="7">$F$10*B33</f>
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G36" si="8">F33^3</f>
+        <v>4096</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>2.1649707031250003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1.02</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>16.32</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>4346.7079679999997</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>2.0401002471947067</v>
+      </c>
+      <c r="J34">
+        <f>I34^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" t="e">
+        <f>$L$5/(I34*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34">
+        <f>L34/L36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0.96</v>
+      </c>
+      <c r="F42">
+        <f>$F$10*B42</f>
+        <v>15.36</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G49" si="9">F42^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H42">
+        <f>$B$8/G42/(1E-24)</f>
+        <v>2.4470245396649397</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.98</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F49" si="10">$F$10*B44</f>
+        <v>15.68</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G49" si="11">F44^3</f>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H49" si="12">$B$8/G44/(1E-24)</f>
+        <v>2.3002434180539151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:F49" si="13">$F$10*B46</f>
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G49" si="14">F46^3</f>
+        <v>4096</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>2.1649707031250003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1.02</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="13"/>
+        <v>16.32</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="14"/>
+        <v>4346.7079679999997</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>2.0401002471947067</v>
+      </c>
+      <c r="J47">
+        <f>I47^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" t="e">
+        <f>$L$5/(I47*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47">
+        <f>L47/L49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="e">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1.0499167999999999E-20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="e">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.92</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>14.72</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G20" si="0">F15^3</f>
+        <v>3189.5060480000002</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>3.2917849478867014</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
+        <v>15.04</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3402.0720639999995</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
+        <v>3.086109818513239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.96</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>15.36</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2.8972184216534651</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.98</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15.68</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.7234330906977537</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f>$L$5/(I18*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2.5632734374999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>16.32</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4346.7079679999997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.4154298097074278</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="e">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>9.6529000000000012E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>16.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="e">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.92</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>15.180000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G20" si="0">F15^3</f>
+        <v>3497.9638320000013</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>2.7595768463051389</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
+        <v>15.51</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3731.0871510000002</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
+        <v>2.5871547914427158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.96</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>15.84</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2.4288029144238021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.98</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>16.169999999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>4227.9521129999985</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.2831147898576032</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f>$L$5/(I18*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>4492.125</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2.1488493752956566</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>16.830000000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4767.0789870000017</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.0249087599185609</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E16:E21,G16:G21^{1,2})</f>
+        <v>-4.3586736970768098E-7</v>
+      </c>
+      <c r="K6">
+        <v>3.9195689385032109E-3</v>
+      </c>
+      <c r="L6">
+        <v>-12.866106521674533</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="e">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>9.2727600000000011E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>16.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E16:E21,C16:C21^{1,2})</f>
+        <v>0.1845476125768464</v>
+      </c>
+      <c r="K10">
+        <v>259.46980589163547</v>
+      </c>
+      <c r="L10">
+        <v>91197.743110110721</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-698.08414657911271</v>
+      </c>
+      <c r="L11">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-707.89343432072769</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.92</v>
+      </c>
+      <c r="C16">
+        <v>-704.11478880222205</v>
+      </c>
+      <c r="D16">
+        <v>21.124663111111101</v>
+      </c>
+      <c r="E16">
+        <v>-4.6433177777777797</v>
+      </c>
+      <c r="F16">
+        <f>$F$10*B16</f>
+        <v>15.180000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G21" si="0">F16^3</f>
+        <v>3497.9638320000013</v>
+      </c>
+      <c r="H16">
+        <f>$B$8/G16/(1E-24)</f>
+        <v>2.6509021949201212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>-704.67602835777802</v>
+      </c>
+      <c r="D17">
+        <v>21.251774000000001</v>
+      </c>
+      <c r="E17">
+        <v>-3.8909199999999902</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F21" si="1">$F$10*B17</f>
+        <v>15.51</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3731.0871510000002</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H21" si="2">$B$8/G17/(1E-24)</f>
+        <v>2.4852702777298381</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.96</v>
+      </c>
+      <c r="C18">
+        <v>-703.65232172000003</v>
+      </c>
+      <c r="D18">
+        <v>21.123183111111199</v>
+      </c>
+      <c r="E18">
+        <v>-4.7849688888888897</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15.84</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.3331544419555215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+      <c r="C19">
+        <v>-703.65560546222196</v>
+      </c>
+      <c r="D19">
+        <v>20.871239111111102</v>
+      </c>
+      <c r="E19">
+        <v>-3.27068222222222</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>16.169999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>4227.9521129999985</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2.1932036485201327</v>
+      </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>-702.41288556888901</v>
+      </c>
+      <c r="D20">
+        <v>21.121504666666599</v>
+      </c>
+      <c r="E20">
+        <v>-4.75240666666667</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4492.125</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.0642257283579601</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>-701.41922365806602</v>
+      </c>
+      <c r="D21">
+        <v>21.058604149278999</v>
+      </c>
+      <c r="E21">
+        <v>-3.8555443596268</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>16.830000000000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4767.0789870000017</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.9451660073783454</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.85</v>
+      </c>
+      <c r="F26">
+        <f>$F$10*B26</f>
+        <v>14.025</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G31" si="3">F26^3</f>
+        <v>2758.726265625</v>
+      </c>
+      <c r="H26">
+        <f>$B$8/G26/(1E-24)</f>
+        <v>3.3612468607497825</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F31" si="4">$F$10*B27</f>
+        <v>14.85</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>3274.7591249999996</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H31" si="5">$B$8/G27/(1E-24)</f>
+        <v>2.8315853612592048</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.96</v>
+      </c>
+      <c r="C28">
+        <v>-700.26759092444399</v>
+      </c>
+      <c r="D28">
+        <v>23.057676000000001</v>
+      </c>
+      <c r="E28">
+        <v>-4.7049066666666599</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>15.84</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>2.3331544419555215</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.98</v>
+      </c>
+      <c r="C29">
+        <v>-698.24734504888897</v>
+      </c>
+      <c r="D29">
+        <v>23.555422666666701</v>
+      </c>
+      <c r="E29">
+        <v>-3.7891400000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>16.169999999999998</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>4227.9521129999985</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>2.1932036485201327</v>
+      </c>
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>$L$5/(I29*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29">
+        <f>L29/L31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>-699.09802912888802</v>
+      </c>
+      <c r="D30">
+        <v>23.316123999999999</v>
+      </c>
+      <c r="E30">
+        <v>-4.3113777777777802</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>4492.125</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>2.0642257283579601</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.02</v>
+      </c>
+      <c r="C31">
+        <v>-698.23944461333394</v>
+      </c>
+      <c r="D31">
+        <v>23.091235777777801</v>
+      </c>
+      <c r="E31">
+        <v>-4.24552444444444</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>16.830000000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>4767.0789870000017</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>1.9451660073783454</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.92</v>
+      </c>
+      <c r="F36">
+        <f>$F$10*B36</f>
+        <v>15.180000000000001</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G41" si="6">F36^3</f>
+        <v>3497.9638320000013</v>
+      </c>
+      <c r="H36">
+        <f>$B$8/G36/(1E-24)</f>
+        <v>2.6509021949201212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.94</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F41" si="7">$F$10*B37</f>
+        <v>15.51</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>3731.0871510000002</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H41" si="8">$B$8/G37/(1E-24)</f>
+        <v>2.4852702777298381</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.96</v>
+      </c>
+      <c r="C38">
+        <v>-697.81043135111202</v>
+      </c>
+      <c r="D38">
+        <v>24.808108222222199</v>
+      </c>
+      <c r="E38">
+        <v>-4.4054755555555598</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>15.84</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>2.3331544419555215</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.98</v>
+      </c>
+      <c r="C39">
+        <v>-697.21463307555598</v>
+      </c>
+      <c r="D39">
+        <v>25.041166</v>
+      </c>
+      <c r="E39">
+        <v>-3.6433733333333298</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>16.169999999999998</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>4227.9521129999985</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>2.1932036485201327</v>
+      </c>
+      <c r="J39">
+        <f>I39^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" t="e">
+        <f>$L$5/(I39*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39">
+        <f>L39/L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>-695.77106770444402</v>
+      </c>
+      <c r="D40">
+        <v>24.856652222222301</v>
+      </c>
+      <c r="E40">
+        <v>-4.2554333333333298</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>16.5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>4492.125</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>2.0642257283579601</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.02</v>
+      </c>
+      <c r="C41">
+        <v>-695.50907819999998</v>
+      </c>
+      <c r="D41">
+        <v>24.747146222222199</v>
+      </c>
+      <c r="E41">
+        <v>-4.0057444444444403</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>16.830000000000002</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>4767.0789870000017</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>1.9451660073783454</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430F19E-EF93-334D-8D4C-F1B309DD7C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F5C7E-610D-2D43-BB58-E97219A31AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19460" windowHeight="15980" activeTab="2" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="1" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -231,6 +231,2845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KF!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-445.19777370666702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-443.31618056888902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-441.73150932888899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-439.02563223333402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-438.58167227777801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-436.90976323555498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KF!$E$15:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.54782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3224555555555497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8583911111111098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8638355555555601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26592666666666698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.41933111111111199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-685C-8440-8F30-EF27C1AE8454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577997695"/>
+        <c:axId val="577833151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577997695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577833151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577833151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577997695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10308386910351802"/>
+                  <c:y val="-0.38839566929133856"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KF-14ZrF4'!$G$15:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3511.8079999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3623.8786559999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3738.3086079999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3855.1224319999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3914.4309760000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3974.3447039999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4034.8666880000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KF-14ZrF4'!$E$15:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.2376111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.47206444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4389200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7732222222222198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25029777777778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96986444444444497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.47470888888888901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9249666666666601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA11-D94E-861C-403D261E14CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577952815"/>
+        <c:axId val="578003247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577952815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578003247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578003247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577952815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10308386910351802"/>
+                  <c:y val="-0.38839566929133856"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KF-14ZrF4'!$C$15:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-528.25467925555597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-527.84212601333297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-527.18377083111102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-525.92149071333301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-525.56425348222206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-525.34512331333406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-524.15501022222304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-523.81104607333305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KF-14ZrF4'!$E$15:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.2376111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.47206444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4389200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7732222222222198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25029777777778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96986444444444497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.47470888888888901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9249666666666601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A917-0548-A230-33D79D30CBE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577952815"/>
+        <c:axId val="578003247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577952815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578003247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578003247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577952815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B04EFAF-BD5F-5B93-9805-AD8D36CD0312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB219E8-C6BC-9C59-135E-32CB3CF716ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81ACDBC-142C-2241-B7ED-2E0C74DB474E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,7 +3372,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,13 +3817,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -1022,9 +3864,15 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <v>1.0870611249123012E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.12734670319219482</v>
+      </c>
+      <c r="L6">
+        <v>371.75662794701884</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1034,13 +3882,13 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>6190.0051344870026</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>5524.7641893142254</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1072,9 +3920,15 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <v>0.16652447093387465</v>
+      </c>
+      <c r="K10">
+        <v>145.36664826771252</v>
+      </c>
+      <c r="L10">
+        <v>31724.342804411899</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -1083,16 +3937,16 @@
       </c>
       <c r="K11" t="e">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="L11" t="e">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -1139,6 +3993,15 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>-445.19777370666702</v>
+      </c>
+      <c r="D15">
+        <v>33.800981999999998</v>
+      </c>
+      <c r="E15">
+        <v>13.54782</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
         <v>16.75</v>
@@ -1154,54 +4017,87 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>-443.31618056888902</v>
+      </c>
+      <c r="D16">
+        <v>33.267946444444398</v>
+      </c>
+      <c r="E16">
+        <v>6.3224555555555497</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>17.587500000000002</v>
+        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <v>17.085000000000001</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>5440.1682480468771</v>
+        <f t="shared" ref="G16:G22" si="2">F16^3</f>
+        <v>4987.0640891250014</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
-        <v>1.7697982049464434</v>
+        <f t="shared" ref="H16:H22" si="3">$B$8/G16/(1E-24)</f>
+        <v>1.9305948004548843</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1.1000000000000001</v>
+        <v>1.03</v>
+      </c>
+      <c r="C17">
+        <v>-441.73150932888899</v>
+      </c>
+      <c r="D17">
+        <v>33.530259999999998</v>
+      </c>
+      <c r="E17">
+        <v>4.8583911111111098</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>18.425000000000001</v>
+        <v>17.252500000000001</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>6254.9305156250011</v>
+        <f t="shared" si="2"/>
+        <v>5135.1851672031253</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>1.5392657002262411</v>
+        <f t="shared" si="3"/>
+        <v>1.874908048397383</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.04</v>
+      </c>
+      <c r="C18">
+        <v>-439.02563223333402</v>
+      </c>
+      <c r="D18">
+        <v>33.7999333333333</v>
+      </c>
+      <c r="E18">
+        <v>2.8638355555555601</v>
+      </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5286.2104880000024</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>1.8213425329649864</v>
+      </c>
+      <c r="I18">
+        <v>5524.7641893142254</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
-        <v>0</v>
+        <v>17.678194806102677</v>
       </c>
       <c r="K18" t="e">
         <f>$L$5/(I18*(10^-24))</f>
@@ -1213,31 +4109,55 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>-438.58167227777801</v>
+      </c>
+      <c r="D19">
+        <v>33.121001555555601</v>
+      </c>
+      <c r="E19">
+        <v>0.26592666666666698</v>
+      </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.587500000000002</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5440.1682480468771</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>1.7697982049464434</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.06</v>
+      </c>
+      <c r="C20">
+        <v>-436.90976323555498</v>
+      </c>
+      <c r="D20">
+        <v>33.502898000000002</v>
+      </c>
+      <c r="E20">
+        <v>-0.41933111111111199</v>
+      </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>$F$10*B20</f>
+        <v>17.755000000000003</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5597.0866438750027</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.7201806247784466</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
@@ -1246,20 +4166,68 @@
         <v>100</v>
       </c>
     </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.07</v>
+      </c>
+      <c r="F21">
+        <f>$F$10*B21</f>
+        <v>17.922499999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>5756.9938720156242</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1.6724005990003024</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22">
+        <v>-430.006449853334</v>
+      </c>
+      <c r="D22">
+        <v>33.268334444444399</v>
+      </c>
+      <c r="E22">
+        <v>-4.3604466666666699</v>
+      </c>
+      <c r="F22">
+        <f>$F$10*B22</f>
+        <v>18.425000000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>6254.9305156250011</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>1.5392657002262411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -1297,9 +4265,15 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E16:E23,G16:G23^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E15:E22,G15:G22^{1,2})</f>
+        <v>2.3359030669788643E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.20375854214977837</v>
+      </c>
+      <c r="L6">
+        <v>441.1923909363407</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1309,13 +4283,13 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>4728.618388683687</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>3994.2839025192211</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1347,22 +4321,28 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E16:E23,C16:C23^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E15:E22,C15:C22^{1,2})</f>
+        <v>0.64089796584491054</v>
+      </c>
+      <c r="K10">
+        <v>671.15504951038633</v>
+      </c>
+      <c r="L10">
+        <v>175708.91049842749</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-522.21681183789099</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>-524.99364174123252</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -1414,6 +4394,27 @@
       <c r="B15">
         <v>0.95</v>
       </c>
+      <c r="C15">
+        <v>-528.25467925555597</v>
+      </c>
+      <c r="D15">
+        <v>24.0418186666667</v>
+      </c>
+      <c r="E15">
+        <v>14.2376111111111</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>15.2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="0">F15^3</f>
+        <v>3511.8079999999995</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>2.5251152682606799</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -1433,7 +4434,7 @@
         <v>15.36</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G23" si="0">F16^3</f>
+        <f t="shared" ref="G16:G23" si="1">F16^3</f>
         <v>3623.8786559999999</v>
       </c>
       <c r="H16">
@@ -1445,6 +4446,27 @@
       <c r="B17">
         <v>0.97</v>
       </c>
+      <c r="C17">
+        <v>-527.18377083111102</v>
+      </c>
+      <c r="D17">
+        <v>24.066739999999999</v>
+      </c>
+      <c r="E17">
+        <v>6.4389200000000004</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F22" si="2">$F$10*B17</f>
+        <v>15.52</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G22" si="3">F17^3</f>
+        <v>3738.3086079999998</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H22" si="4">$B$8/G17/(1E-24)</f>
+        <v>2.3721209054338193</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -1460,471 +4482,700 @@
         <v>2.7732222222222198</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F23" si="1">$F$10*B18</f>
+        <f t="shared" si="2"/>
         <v>15.68</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3855.1224319999997</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H23" si="2">$B$8/G18/(1E-24)</f>
+        <f t="shared" si="4"/>
         <v>2.3002434180539151</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>0.99</v>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C19">
+        <v>-525.56425348222206</v>
+      </c>
+      <c r="D19">
+        <v>24.092456666666699</v>
+      </c>
+      <c r="E19">
+        <v>1.25029777777778</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>15.76</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>3914.4309760000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>2.2653918422292807</v>
+      </c>
+      <c r="I19">
+        <v>3994.2839025192211</v>
+      </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>15.866445465692877</v>
+      </c>
+      <c r="K19">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>2.2201025806921408</v>
+      </c>
+      <c r="L19">
+        <v>-524.99364174123298</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>-7.4999091677319001</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C20">
-        <v>-523.81104607333305</v>
+        <v>-525.34512331333406</v>
       </c>
       <c r="D20">
-        <v>24.041715111111099</v>
+        <v>24.265241777777799</v>
       </c>
       <c r="E20">
-        <v>-1.9249666666666601</v>
+        <v>0.96986444444444497</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>15.84</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>4096</v>
+        <f t="shared" si="3"/>
+        <v>3974.3447039999996</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>2.1649707031250003</v>
+        <f t="shared" si="4"/>
+        <v>2.2312407857011092</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
+        <v>0.995</v>
+      </c>
+      <c r="C21">
+        <v>-524.15501022222304</v>
+      </c>
+      <c r="D21">
+        <v>24.065220888888899</v>
+      </c>
+      <c r="E21">
+        <v>-0.47470888888888901</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>15.92</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>4034.8666880000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>2.1977727359303527</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>-523.81104607333305</v>
+      </c>
+      <c r="D22">
+        <v>24.041715111111099</v>
+      </c>
+      <c r="E22">
+        <v>-1.9249666666666601</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>2.1649707031250003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1.02</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>-521.49088338000001</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>23.771260444444401</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>-4.7992933333333303</v>
       </c>
-      <c r="F21">
+      <c r="F23">
+        <f t="shared" ref="F23" si="5">$F$10*B23</f>
+        <v>16.32</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>16.32</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
         <v>4346.7079679999997</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
+      <c r="H23">
+        <f t="shared" ref="H23" si="6">$B$8/G23/(1E-24)</f>
         <v>2.0401002471947067</v>
       </c>
-      <c r="J21">
-        <f>I21^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" t="e">
-        <f>$L$5/(I21*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M21">
-        <f>L21/L23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>33</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J29" t="s">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K29" t="s">
         <v>32</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L29" t="s">
         <v>34</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M29" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>0.96</v>
-      </c>
-      <c r="F29">
-        <f>$F$10*B29</f>
-        <v>15.36</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G36" si="3">F29^3</f>
-        <v>3623.8786559999999</v>
-      </c>
-      <c r="H29">
-        <f>$B$8/G29/(1E-24)</f>
-        <v>2.4470245396649397</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>0.97</v>
+        <v>0.96</v>
+      </c>
+      <c r="C30">
+        <v>-525.45463531999997</v>
+      </c>
+      <c r="D30">
+        <v>26.361683777777799</v>
+      </c>
+      <c r="E30">
+        <v>10.8266288888889</v>
+      </c>
+      <c r="F30">
+        <f>$F$10*B30</f>
+        <v>15.36</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="7">F30^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H30">
+        <f>$B$8/G30/(1E-24)</f>
+        <v>2.4470245396649397</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>0.98</v>
+        <v>0.97</v>
+      </c>
+      <c r="C31">
+        <v>-524.46697975333302</v>
+      </c>
+      <c r="D31">
+        <v>26.1851522222222</v>
+      </c>
+      <c r="E31">
+        <v>6.86597777777778</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F36" si="4">$F$10*B31</f>
-        <v>15.68</v>
+        <f t="shared" ref="F31:F37" si="8">$F$10*B31</f>
+        <v>15.52</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G36" si="5">F31^3</f>
-        <v>3855.1224319999997</v>
+        <f t="shared" ref="G31:G37" si="9">F31^3</f>
+        <v>3738.3086079999998</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H36" si="6">$B$8/G31/(1E-24)</f>
-        <v>2.3002434180539151</v>
+        <f t="shared" ref="H31:H37" si="10">$B$8/G31/(1E-24)</f>
+        <v>2.3721209054338193</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>0.99</v>
+        <v>0.98</v>
+      </c>
+      <c r="C32">
+        <v>-524.47880021555602</v>
+      </c>
+      <c r="D32">
+        <v>26.180476444444398</v>
+      </c>
+      <c r="E32">
+        <v>4.0373111111111104</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>15.68</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>2.3002434180539151</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>1</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F36" si="7">$F$10*B33</f>
-        <v>16</v>
+        <f t="shared" ref="F33" si="11">$F$10*B33</f>
+        <v>15.76</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G36" si="8">F33^3</f>
-        <v>4096</v>
+        <f t="shared" ref="G33" si="12">F33^3</f>
+        <v>3914.4309760000001</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
-        <v>2.1649707031250003</v>
+        <f t="shared" si="10"/>
+        <v>2.2653918422292807</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>1.02</v>
+        <v>0.99</v>
+      </c>
+      <c r="C34">
+        <v>-522.44468174666702</v>
+      </c>
+      <c r="D34">
+        <v>26.290647111111099</v>
+      </c>
+      <c r="E34">
+        <v>2.0696022222222199</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
-        <v>16.32</v>
+        <f t="shared" si="8"/>
+        <v>15.84</v>
       </c>
       <c r="G34">
+        <f t="shared" si="9"/>
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>2.2312407857011092</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.995</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="8"/>
-        <v>4346.7079679999997</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
-        <v>2.0401002471947067</v>
-      </c>
-      <c r="J34">
-        <f>I34^(1/3)</f>
+        <v>15.92</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>4034.8666880000001</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>2.1977727359303527</v>
+      </c>
+      <c r="J35">
+        <f>I35^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K34" t="e">
-        <f>$L$5/(I34*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M34">
-        <f>L34/L36</f>
+      <c r="K35" t="e">
+        <f>$B$8/(I35*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35">
+        <f>L35/L37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>-521.40108918666601</v>
+      </c>
+      <c r="D36">
+        <v>26.053430888888901</v>
+      </c>
+      <c r="E36">
+        <v>-0.46448444444444298</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F36">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G36">
+        <f t="shared" si="9"/>
+        <v>4096</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>2.1649707031250003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" t="s">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>4157.7477119999985</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>2.132818202125681</v>
+      </c>
+      <c r="K37" t="s">
         <v>8</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>0.95</v>
+        <v>1.02</v>
+      </c>
+      <c r="C38">
+        <v>-519.23876108444495</v>
+      </c>
+      <c r="D38">
+        <v>26.287757111111102</v>
+      </c>
+      <c r="E38">
+        <v>-3.5029422222222202</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F36:F38" si="13">$F$10*B38</f>
+        <v>16.32</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G36:G38" si="14">F38^3</f>
+        <v>4346.7079679999997</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H32:H38" si="15">$B$8/G38/(1E-24)</f>
+        <v>2.0401002471947067</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>0.96</v>
-      </c>
-      <c r="F42">
-        <f>$F$10*B42</f>
-        <v>15.36</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ref="G42:G49" si="9">F42^3</f>
-        <v>3623.8786559999999</v>
-      </c>
-      <c r="H42">
-        <f>$B$8/G42/(1E-24)</f>
-        <v>2.4470245396649397</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>0.97</v>
+      <c r="H43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>0.98</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44:F49" si="10">$F$10*B44</f>
-        <v>15.68</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ref="G44:G49" si="11">F44^3</f>
-        <v>3855.1224319999997</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ref="H44:H49" si="12">$B$8/G44/(1E-24)</f>
-        <v>2.3002434180539151</v>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>0.99</v>
+        <v>0.96</v>
+      </c>
+      <c r="C45">
+        <v>-523.37667997999995</v>
+      </c>
+      <c r="D45">
+        <v>28.074015111111098</v>
+      </c>
+      <c r="E45">
+        <v>12.820624444444499</v>
+      </c>
+      <c r="F45">
+        <f>$F$10*B45</f>
+        <v>15.36</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45" si="16">F45^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H45">
+        <f>$B$8/G45/(1E-24)</f>
+        <v>2.4470245396649397</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>1</v>
+        <v>0.97</v>
+      </c>
+      <c r="C46">
+        <v>-522.04771110888805</v>
+      </c>
+      <c r="D46">
+        <v>28.5797197777778</v>
+      </c>
+      <c r="E46">
+        <v>9.2870533333333292</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F49" si="13">$F$10*B46</f>
-        <v>16</v>
+        <f t="shared" ref="F46:F52" si="17">$F$10*B46</f>
+        <v>15.52</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G49" si="14">F46^3</f>
-        <v>4096</v>
+        <f t="shared" ref="G46:G52" si="18">F46^3</f>
+        <v>3738.3086079999998</v>
       </c>
       <c r="H46">
-        <f t="shared" si="12"/>
-        <v>2.1649707031250003</v>
+        <f t="shared" ref="H46:H52" si="19">$B$8/G46/(1E-24)</f>
+        <v>2.3721209054338193</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>1.02</v>
+        <v>0.98</v>
+      </c>
+      <c r="C47">
+        <v>-521.28418319555499</v>
+      </c>
+      <c r="D47">
+        <v>28.730115333333298</v>
+      </c>
+      <c r="E47">
+        <v>6.1875311111111104</v>
       </c>
       <c r="F47">
-        <f t="shared" si="13"/>
-        <v>16.32</v>
+        <f t="shared" si="17"/>
+        <v>15.68</v>
       </c>
       <c r="G47">
-        <f t="shared" si="14"/>
-        <v>4346.7079679999997</v>
+        <f t="shared" si="18"/>
+        <v>3855.1224319999997</v>
       </c>
       <c r="H47">
-        <f t="shared" si="12"/>
-        <v>2.0401002471947067</v>
-      </c>
-      <c r="J47">
-        <f>I47^(1/3)</f>
+        <f t="shared" si="19"/>
+        <v>2.3002434180539151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.99</v>
+      </c>
+      <c r="C48">
+        <v>-519.98656403111102</v>
+      </c>
+      <c r="D48">
+        <v>28.2896246666667</v>
+      </c>
+      <c r="E48">
+        <v>3.53874222222223</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="17"/>
+        <v>15.84</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="18"/>
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="19"/>
+        <v>2.2312407857011092</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0.995</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="17"/>
+        <v>15.92</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="18"/>
+        <v>4034.8666880000001</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="19"/>
+        <v>2.1977727359303527</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>-519.41449992000003</v>
+      </c>
+      <c r="D50">
+        <v>28.180623333333301</v>
+      </c>
+      <c r="E50">
+        <v>1.3138777777777799</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="18"/>
+        <v>4096</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="19"/>
+        <v>2.1649707031250003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="17"/>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="18"/>
+        <v>4157.7477119999985</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="19"/>
+        <v>2.132818202125681</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1.01</v>
+      </c>
+      <c r="C52">
+        <v>-519.01832318444497</v>
+      </c>
+      <c r="D52">
+        <v>28.218963111111101</v>
+      </c>
+      <c r="E52">
+        <v>-1.0133333333333301</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="17"/>
+        <v>16.16</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="18"/>
+        <v>4220.1128959999996</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="19"/>
+        <v>2.1012992350051105</v>
+      </c>
+      <c r="J52">
+        <f>I52^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K47" t="e">
-        <f>$L$5/(I47*(10^-24))</f>
+      <c r="K52" t="e">
+        <f>$L$5/(I52*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M47">
-        <f>L47/L49</f>
+      <c r="M52">
+        <f>L52/L54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H48" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H49" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" t="s">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
         <v>8</v>
       </c>
-      <c r="L49">
+      <c r="L54">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1933,7 +5184,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2044,7 +5295,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2089,70 +5340,97 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>14.72</v>
+        <v>13.6</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G20" si="0">F15^3</f>
-        <v>3189.5060480000002</v>
+        <v>2515.4559999999997</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>3.2917849478867014</v>
+        <v>4.1738627111744355</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.94</v>
+        <v>0.9</v>
+      </c>
+      <c r="C16">
+        <v>-738.15021110666703</v>
+      </c>
+      <c r="D16">
+        <v>30.875274444444401</v>
+      </c>
+      <c r="E16">
+        <v>40.525320000000001</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>15.04</v>
+        <v>14.4</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>3402.0720639999995</v>
+        <v>2985.9840000000004</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
-        <v>3.086109818513239</v>
+        <v>3.5161501200274339</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.96</v>
+        <v>0.95</v>
+      </c>
+      <c r="C17">
+        <v>-738.18883640222202</v>
+      </c>
+      <c r="D17">
+        <v>30.8369173333333</v>
+      </c>
+      <c r="E17">
+        <v>11.716013333333301</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>15.36</v>
+        <v>15.2</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>3623.8786559999999</v>
+        <v>3511.8079999999995</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2.8972184216534651</v>
+        <v>2.9896759731739322</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>0.98</v>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>-734.14406826666595</v>
+      </c>
+      <c r="D18">
+        <v>30.729821777777801</v>
+      </c>
+      <c r="E18">
+        <v>-0.85568666666666604</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>15.68</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>3855.1224319999997</v>
+        <v>4096</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>2.7234330906977537</v>
+        <v>2.5632734374999999</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
@@ -2168,37 +5446,31 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>2.5632734374999999</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.02</v>
-      </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>16.32</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>4346.7079679999997</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>2.4154298097074278</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
@@ -2216,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2303,7 +5575,7 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -2377,15 +5649,15 @@
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>15.180000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G20" si="0">F15^3</f>
-        <v>3497.9638320000013</v>
+        <v>2628.0720000000006</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>2.7595768463051389</v>
+        <v>3.6729967824321399</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -2394,15 +5666,15 @@
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>15.51</v>
+        <v>14.1</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>3731.0871510000002</v>
+        <v>2803.221</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
-        <v>2.5871547914427158</v>
+        <v>3.4435030274102552</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -2411,15 +5683,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>15.84</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>3974.3447039999996</v>
+        <v>2985.983999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2.4288029144238021</v>
+        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -2428,15 +5700,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>16.169999999999998</v>
+        <v>14.7</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4227.9521129999985</v>
+        <v>3176.5229999999997</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>2.2831147898576032</v>
+        <v>3.0388257853004697</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
@@ -2457,15 +5729,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>4492.125</v>
+        <v>3375</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>2.1488493752956566</v>
+        <v>2.8601185185185192</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -2474,15 +5746,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>16.830000000000002</v>
+        <v>15.3</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>4767.0789870000017</v>
+        <v>3581.5770000000007</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>2.0249087599185609</v>
+        <v>2.695153559451605</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
@@ -2498,10 +5770,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,15 +5814,9 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E16:E21,G16:G21^{1,2})</f>
-        <v>-4.3586736970768098E-7</v>
-      </c>
-      <c r="K6">
-        <v>3.9195689385032109E-3</v>
-      </c>
-      <c r="L6">
-        <v>-12.866106521674533</v>
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">LINEST(E16:E21,G16:G21^{1,2})</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -2562,11 +5828,11 @@
       </c>
       <c r="K7" t="e">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L7" t="e">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -2598,28 +5864,22 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E16:E21,C16:C21^{1,2})</f>
-        <v>0.1845476125768464</v>
-      </c>
-      <c r="K10">
-        <v>259.46980589163547</v>
-      </c>
-      <c r="L10">
-        <v>91197.743110110721</v>
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">LINEST(E16:E21,C16:C21^{1,2})</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="e">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-698.08414657911271</v>
-      </c>
-      <c r="L11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-707.89343432072769</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -2669,22 +5929,13 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.92</v>
       </c>
-      <c r="C16">
-        <v>-704.11478880222205</v>
-      </c>
-      <c r="D16">
-        <v>21.124663111111101</v>
-      </c>
-      <c r="E16">
-        <v>-4.6433177777777797</v>
-      </c>
       <c r="F16">
         <f>$F$10*B16</f>
         <v>15.180000000000001</v>
@@ -2702,15 +5953,6 @@
       <c r="B17">
         <v>0.94</v>
       </c>
-      <c r="C17">
-        <v>-704.67602835777802</v>
-      </c>
-      <c r="D17">
-        <v>21.251774000000001</v>
-      </c>
-      <c r="E17">
-        <v>-3.8909199999999902</v>
-      </c>
       <c r="F17">
         <f t="shared" ref="F17:F21" si="1">$F$10*B17</f>
         <v>15.51</v>
@@ -2728,15 +5970,6 @@
       <c r="B18">
         <v>0.96</v>
       </c>
-      <c r="C18">
-        <v>-703.65232172000003</v>
-      </c>
-      <c r="D18">
-        <v>21.123183111111199</v>
-      </c>
-      <c r="E18">
-        <v>-4.7849688888888897</v>
-      </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>15.84</v>
@@ -2754,15 +5987,6 @@
       <c r="B19">
         <v>0.98</v>
       </c>
-      <c r="C19">
-        <v>-703.65560546222196</v>
-      </c>
-      <c r="D19">
-        <v>20.871239111111102</v>
-      </c>
-      <c r="E19">
-        <v>-3.27068222222222</v>
-      </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>16.169999999999998</v>
@@ -2792,15 +6016,6 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>-702.41288556888901</v>
-      </c>
-      <c r="D20">
-        <v>21.121504666666599</v>
-      </c>
-      <c r="E20">
-        <v>-4.75240666666667</v>
-      </c>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>16.5</v>
@@ -2818,15 +6033,6 @@
       <c r="B21">
         <v>1.02</v>
       </c>
-      <c r="C21">
-        <v>-701.41922365806602</v>
-      </c>
-      <c r="D21">
-        <v>21.058604149278999</v>
-      </c>
-      <c r="E21">
-        <v>-3.8555443596268</v>
-      </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>16.830000000000002</v>
@@ -2843,408 +6049,6 @@
         <v>8</v>
       </c>
       <c r="L21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.85</v>
-      </c>
-      <c r="F26">
-        <f>$F$10*B26</f>
-        <v>14.025</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G31" si="3">F26^3</f>
-        <v>2758.726265625</v>
-      </c>
-      <c r="H26">
-        <f>$B$8/G26/(1E-24)</f>
-        <v>3.3612468607497825</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.9</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F31" si="4">$F$10*B27</f>
-        <v>14.85</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>3274.7591249999996</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H31" si="5">$B$8/G27/(1E-24)</f>
-        <v>2.8315853612592048</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.96</v>
-      </c>
-      <c r="C28">
-        <v>-700.26759092444399</v>
-      </c>
-      <c r="D28">
-        <v>23.057676000000001</v>
-      </c>
-      <c r="E28">
-        <v>-4.7049066666666599</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>15.84</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>3974.3447039999996</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
-        <v>2.3331544419555215</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>0.98</v>
-      </c>
-      <c r="C29">
-        <v>-698.24734504888897</v>
-      </c>
-      <c r="D29">
-        <v>23.555422666666701</v>
-      </c>
-      <c r="E29">
-        <v>-3.7891400000000002</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>16.169999999999998</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>4227.9521129999985</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
-        <v>2.1932036485201327</v>
-      </c>
-      <c r="J29">
-        <f>I29^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" t="e">
-        <f>$L$5/(I29*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29">
-        <f>L29/L31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>-699.09802912888802</v>
-      </c>
-      <c r="D30">
-        <v>23.316123999999999</v>
-      </c>
-      <c r="E30">
-        <v>-4.3113777777777802</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="4"/>
-        <v>16.5</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>4492.125</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>2.0642257283579601</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>1.02</v>
-      </c>
-      <c r="C31">
-        <v>-698.23944461333394</v>
-      </c>
-      <c r="D31">
-        <v>23.091235777777801</v>
-      </c>
-      <c r="E31">
-        <v>-4.24552444444444</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
-        <v>16.830000000000002</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>4767.0789870000017</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
-        <v>1.9451660073783454</v>
-      </c>
-      <c r="K31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>0.92</v>
-      </c>
-      <c r="F36">
-        <f>$F$10*B36</f>
-        <v>15.180000000000001</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:G41" si="6">F36^3</f>
-        <v>3497.9638320000013</v>
-      </c>
-      <c r="H36">
-        <f>$B$8/G36/(1E-24)</f>
-        <v>2.6509021949201212</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>0.94</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37:F41" si="7">$F$10*B37</f>
-        <v>15.51</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
-        <v>3731.0871510000002</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H41" si="8">$B$8/G37/(1E-24)</f>
-        <v>2.4852702777298381</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>0.96</v>
-      </c>
-      <c r="C38">
-        <v>-697.81043135111202</v>
-      </c>
-      <c r="D38">
-        <v>24.808108222222199</v>
-      </c>
-      <c r="E38">
-        <v>-4.4054755555555598</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
-        <v>15.84</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
-        <v>3974.3447039999996</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="8"/>
-        <v>2.3331544419555215</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>0.98</v>
-      </c>
-      <c r="C39">
-        <v>-697.21463307555598</v>
-      </c>
-      <c r="D39">
-        <v>25.041166</v>
-      </c>
-      <c r="E39">
-        <v>-3.6433733333333298</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="7"/>
-        <v>16.169999999999998</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
-        <v>4227.9521129999985</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
-        <v>2.1932036485201327</v>
-      </c>
-      <c r="J39">
-        <f>I39^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" t="e">
-        <f>$L$5/(I39*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M39">
-        <f>L39/L41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-695.77106770444402</v>
-      </c>
-      <c r="D40">
-        <v>24.856652222222301</v>
-      </c>
-      <c r="E40">
-        <v>-4.2554333333333298</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>16.5</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>4492.125</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="8"/>
-        <v>2.0642257283579601</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>1.02</v>
-      </c>
-      <c r="C41">
-        <v>-695.50907819999998</v>
-      </c>
-      <c r="D41">
-        <v>24.747146222222199</v>
-      </c>
-      <c r="E41">
-        <v>-4.0057444444444403</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="7"/>
-        <v>16.830000000000002</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
-        <v>4767.0789870000017</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="8"/>
-        <v>1.9451660073783454</v>
-      </c>
-      <c r="K41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41">
         <v>30</v>
       </c>
     </row>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F5C7E-610D-2D43-BB58-E97219A31AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A4CC0-81F4-914D-9196-3A6B47D57598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="1" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="3" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3819,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4007,7 +4007,7 @@
         <v>16.75</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G20" si="0">F15^3</f>
+        <f t="shared" ref="G15" si="0">F15^3</f>
         <v>4699.421875</v>
       </c>
       <c r="H15">
@@ -4029,7 +4029,7 @@
         <v>6.3224555555555497</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <f t="shared" ref="F16:F19" si="1">$F$10*B16</f>
         <v>17.085000000000001</v>
       </c>
       <c r="G16">
@@ -4906,15 +4906,15 @@
         <v>-3.5029422222222202</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F36:F38" si="13">$F$10*B38</f>
+        <f t="shared" ref="F38" si="13">$F$10*B38</f>
         <v>16.32</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G36:G38" si="14">F38^3</f>
+        <f t="shared" ref="G38" si="14">F38^3</f>
         <v>4346.7079679999997</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H32:H38" si="15">$B$8/G38/(1E-24)</f>
+        <f t="shared" ref="H38" si="15">$B$8/G38/(1E-24)</f>
         <v>2.0401002471947067</v>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A4CC0-81F4-914D-9196-3A6B47D57598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D462A47-8738-4748-9C04-2122B57CA935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="3" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="39">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -3820,7 +3820,7 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3865,14 +3865,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E15:E20,G15:G20^{1,2})</f>
-        <v>1.0870611249123012E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E15:E21,G15:G21^{1,2})</f>
+        <v>8.613447868446438E-6</v>
       </c>
       <c r="K6">
-        <v>-0.12734670319219482</v>
+        <v>-0.10446933740266881</v>
       </c>
       <c r="L6">
-        <v>371.75662794701884</v>
+        <v>313.96297767585992</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -3884,11 +3884,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>6190.0051344870026</v>
+        <v>6634.9310771564196</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>5524.7641893142254</v>
+        <v>5493.7006854354622</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -3921,27 +3921,27 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E15:E20,C15:C20^{1,2})</f>
-        <v>0.16652447093387465</v>
+        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
+        <v>0.10511559262018591</v>
       </c>
       <c r="K10">
-        <v>145.36664826771252</v>
+        <v>91.123197101902093</v>
       </c>
       <c r="L10">
-        <v>31724.342804411899</v>
+        <v>19746.256059849064</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-428.98213962382243</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#NUM!</v>
+        <v>-437.90349390114346</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -4093,19 +4093,22 @@
         <v>1.8213425329649864</v>
       </c>
       <c r="I18">
-        <v>5524.7641893142254</v>
+        <v>5493.7006854354622</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
-        <v>17.678194806102677</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
-        <v>#VALUE!</v>
+        <v>17.645000079558272</v>
+      </c>
+      <c r="K18">
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>1.7525527055969974</v>
+      </c>
+      <c r="L18">
+        <v>-437.90349390114346</v>
       </c>
       <c r="M18">
         <f>L18/L20</f>
-        <v>0</v>
+        <v>-4.3790349390114347</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -4169,6 +4172,15 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1.07</v>
+      </c>
+      <c r="C21">
+        <v>-435.49356181777802</v>
+      </c>
+      <c r="D21">
+        <v>33.078903555555598</v>
+      </c>
+      <c r="E21">
+        <v>-2.3288533333333299</v>
       </c>
       <c r="F21">
         <f>$F$10*B21</f>
@@ -4218,15 +4230,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
-  <dimension ref="B2:M54"/>
+  <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
@@ -4266,14 +4278,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E15:E22,G15:G22^{1,2})</f>
-        <v>2.3359030669788643E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E45:E52,G45:G52^{1,2})</f>
+        <v>1.3265557157005496E-5</v>
       </c>
       <c r="K6">
-        <v>-0.20375854214977837</v>
+        <v>-0.12742722749434823</v>
       </c>
       <c r="L6">
-        <v>441.1923909363407</v>
+        <v>300.34070824054487</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -4285,11 +4297,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4728.618388683687</v>
+        <v>5456.8068480435768</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3994.2839025192211</v>
+        <v>4149.0639032692943</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4322,14 +4334,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E15:E22,C15:C22^{1,2})</f>
-        <v>0.64089796584491054</v>
+        <f t="array" ref="J10:L10">LINEST(E45:E52,C45:C52^{1,2})</f>
+        <v>-6.375624473831451E-2</v>
       </c>
       <c r="K10">
-        <v>671.15504951038633</v>
+        <v>-69.468790608281438</v>
       </c>
       <c r="L10">
-        <v>175708.91049842749</v>
+        <v>-18881.23674964111</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -4338,11 +4350,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-522.21681183789099</v>
+        <v>-570.48393752005552</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-524.99364174123252</v>
+        <v>-519.11584824859972</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -4775,6 +4787,15 @@
       <c r="B33">
         <v>0.98499999999999999</v>
       </c>
+      <c r="C33">
+        <v>-523.56711291111196</v>
+      </c>
+      <c r="D33">
+        <v>26.176381111111102</v>
+      </c>
+      <c r="E33">
+        <v>2.9937155555555601</v>
+      </c>
       <c r="F33">
         <f t="shared" ref="F33" si="11">$F$10*B33</f>
         <v>15.76</v>
@@ -4818,6 +4839,15 @@
       <c r="B35">
         <v>0.995</v>
       </c>
+      <c r="C35">
+        <v>-522.14655775999995</v>
+      </c>
+      <c r="D35">
+        <v>26.196605111111101</v>
+      </c>
+      <c r="E35">
+        <v>0.86381333333333299</v>
+      </c>
       <c r="F35">
         <f t="shared" si="8"/>
         <v>15.92</v>
@@ -4830,17 +4860,23 @@
         <f t="shared" si="10"/>
         <v>2.1977727359303527</v>
       </c>
+      <c r="I35">
+        <v>4081.634573182117</v>
+      </c>
       <c r="J35">
         <f>I35^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" t="e">
+        <v>15.98127310718343</v>
+      </c>
+      <c r="K35">
         <f>$B$8/(I35*(10^-24))</f>
-        <v>#DIV/0!</v>
+        <v>2.1725903779491365</v>
+      </c>
+      <c r="L35">
+        <v>-521.80565933729838</v>
       </c>
       <c r="M35">
         <f>L35/L37</f>
-        <v>0</v>
+        <v>-7.4543665619614057</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -4873,6 +4909,15 @@
       <c r="B37">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C37">
+        <v>-521.68680275999998</v>
+      </c>
+      <c r="D37">
+        <v>26.075939777777801</v>
+      </c>
+      <c r="E37">
+        <v>-0.96124666666666503</v>
+      </c>
       <c r="F37">
         <f t="shared" si="8"/>
         <v>16.079999999999998</v>
@@ -5071,6 +5116,15 @@
       <c r="B49">
         <v>0.995</v>
       </c>
+      <c r="C49">
+        <v>-519.84563150888903</v>
+      </c>
+      <c r="D49">
+        <v>28.537317777777801</v>
+      </c>
+      <c r="E49">
+        <v>2.0832044444444402</v>
+      </c>
       <c r="F49">
         <f t="shared" si="17"/>
         <v>15.92</v>
@@ -5083,6 +5137,24 @@
         <f t="shared" si="19"/>
         <v>2.1977727359303527</v>
       </c>
+      <c r="I49">
+        <v>4149.0639032692943</v>
+      </c>
+      <c r="J49">
+        <f>I49^(1/3)</f>
+        <v>16.068797382569095</v>
+      </c>
+      <c r="K49">
+        <f>$B$8/(I49*(10^-24))</f>
+        <v>2.1372820970563007</v>
+      </c>
+      <c r="L49">
+        <v>-519.11584824859972</v>
+      </c>
+      <c r="M49">
+        <f>L49/L51</f>
+        <v>-7.4159406892657103</v>
+      </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50">
@@ -5114,6 +5186,15 @@
       <c r="B51">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C51">
+        <v>-518.85688919999996</v>
+      </c>
+      <c r="D51">
+        <v>28.029070222222199</v>
+      </c>
+      <c r="E51">
+        <v>-0.60583111111111099</v>
+      </c>
       <c r="F51">
         <f t="shared" si="17"/>
         <v>16.079999999999998</v>
@@ -5126,6 +5207,12 @@
         <f t="shared" si="19"/>
         <v>2.132818202125681</v>
       </c>
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <v>70</v>
+      </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52">
@@ -5151,26 +5238,6 @@
       <c r="H52">
         <f t="shared" si="19"/>
         <v>2.1012992350051105</v>
-      </c>
-      <c r="J52">
-        <f>I52^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" t="e">
-        <f>$L$5/(I52*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52">
-        <f>L52/L54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5181,10 +5248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5270,7 +5337,7 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -5340,97 +5407,67 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>13.6</v>
+        <v>15.19</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G20" si="0">F15^3</f>
-        <v>2515.4559999999997</v>
+        <v>3504.881359</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>4.1738627111744355</v>
+        <v>2.9955844220061087</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.9</v>
-      </c>
-      <c r="C16">
-        <v>-738.15021110666703</v>
-      </c>
-      <c r="D16">
-        <v>30.875274444444401</v>
-      </c>
-      <c r="E16">
-        <v>40.525320000000001</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>14.4</v>
+        <v>15.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>2985.9840000000004</v>
+        <v>3723.875</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
-        <v>3.5161501200274339</v>
+        <v>2.8194200933167735</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.95</v>
-      </c>
-      <c r="C17">
-        <v>-738.18883640222202</v>
-      </c>
-      <c r="D17">
-        <v>30.8369173333333</v>
-      </c>
-      <c r="E17">
-        <v>11.716013333333301</v>
+        <v>1.02</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>15.2</v>
+        <v>15.81</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>3511.8079999999995</v>
+        <v>3951.8059410000005</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2.9896759731739322</v>
+        <v>2.6568025244031075</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>-734.14406826666595</v>
-      </c>
-      <c r="D18">
-        <v>30.729821777777801</v>
-      </c>
-      <c r="E18">
-        <v>-0.85568666666666604</v>
-      </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>2.5632734374999999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
@@ -5476,6 +5513,318 @@
         <v>8</v>
       </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+      <c r="F25">
+        <f>$F$10*B25</f>
+        <v>15.19</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G30" si="3">F25^3</f>
+        <v>3504.881359</v>
+      </c>
+      <c r="H25">
+        <f>$B$8/G25/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F30" si="4">$F$10*B26</f>
+        <v>15.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H30" si="5">$B$8/G26/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1.02</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>15.81</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>3951.8059410000005</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>2.6568025244031075</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28">
+        <f>I28^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" t="e">
+        <f>$L$5/(I28*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28">
+        <f>L28/L30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.98</v>
+      </c>
+      <c r="F35">
+        <f>$F$10*B35</f>
+        <v>15.19</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G40" si="6">F35^3</f>
+        <v>3504.881359</v>
+      </c>
+      <c r="H35">
+        <f>$B$8/G35/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F40" si="7">$F$10*B36</f>
+        <v>15.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H40" si="8">$B$8/G36/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.02</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>15.81</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>3951.8059410000005</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>2.6568025244031075</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38">
+        <f>I38^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" t="e">
+        <f>$L$5/(I38*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38">
+        <f>L38/L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
         <v>100</v>
       </c>
     </row>
@@ -5772,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5859,7 +6208,7 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -5938,15 +6287,15 @@
       </c>
       <c r="F16">
         <f>$F$10*B16</f>
-        <v>15.180000000000001</v>
+        <v>14.26</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16:G21" si="0">F16^3</f>
-        <v>3497.9638320000013</v>
+        <v>2899.7367759999997</v>
       </c>
       <c r="H16">
         <f>$B$8/G16/(1E-24)</f>
-        <v>2.6509021949201212</v>
+        <v>3.1977937020860141</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -5955,15 +6304,15 @@
       </c>
       <c r="F17">
         <f t="shared" ref="F17:F21" si="1">$F$10*B17</f>
-        <v>15.51</v>
+        <v>14.569999999999999</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>3731.0871510000002</v>
+        <v>3092.990992999999</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:H21" si="2">$B$8/G17/(1E-24)</f>
-        <v>2.4852702777298381</v>
+        <v>2.9979912715510468</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -5972,15 +6321,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>15.84</v>
+        <v>14.879999999999999</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>3974.3447039999996</v>
+        <v>3294.6462719999995</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>2.3331544419555215</v>
+        <v>2.814493342974576</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -5989,15 +6338,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>16.169999999999998</v>
+        <v>15.19</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>4227.9521129999985</v>
+        <v>3504.881359</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>2.1932036485201327</v>
+        <v>2.6456701526255579</v>
       </c>
       <c r="J19">
         <f>I19^(1/3)</f>
@@ -6018,15 +6367,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>4492.125</v>
+        <v>3723.875</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>2.0642257283579601</v>
+        <v>2.4900835822899539</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -6035,15 +6384,15 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>16.830000000000002</v>
+        <v>15.81</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>4767.0789870000017</v>
+        <v>3951.8059410000005</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>1.9451660073783454</v>
+        <v>2.3464613744807363</v>
       </c>
       <c r="K21" t="s">
         <v>8</v>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D462A47-8738-4748-9C04-2122B57CA935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7BE157-7F3A-E344-BEBF-DDD821A302B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="39">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -3817,10 +3817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4219,6 +4219,487 @@
       <c r="H22">
         <f t="shared" si="3"/>
         <v>1.5392657002262411</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-448.52753460000002</v>
+      </c>
+      <c r="D27">
+        <v>30.608603333333299</v>
+      </c>
+      <c r="E27">
+        <v>10.991237777777799</v>
+      </c>
+      <c r="F27">
+        <f>$F$10*B27</f>
+        <v>16.75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G28" si="4">F27^3</f>
+        <v>4699.421875</v>
+      </c>
+      <c r="H27">
+        <f>$B$8/G27/(1E-24)</f>
+        <v>2.0487626470011273</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1.02</v>
+      </c>
+      <c r="C28">
+        <v>-445.83125329777801</v>
+      </c>
+      <c r="D28">
+        <v>30.811762666666699</v>
+      </c>
+      <c r="E28">
+        <v>4.9550755555555597</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="5">$F$10*B28</f>
+        <v>17.085000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>4987.0640891250014</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="6">$B$8/G28/(1E-24)</f>
+        <v>1.9305948004548843</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.03</v>
+      </c>
+      <c r="C29">
+        <v>-444.51827753999999</v>
+      </c>
+      <c r="D29">
+        <v>30.73066</v>
+      </c>
+      <c r="E29">
+        <v>2.5751577777777799</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F32" si="7">$F$10*B29</f>
+        <v>17.252500000000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G32" si="8">F29^3</f>
+        <v>5135.1851672031253</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H32" si="9">$B$8/G29/(1E-24)</f>
+        <v>1.874908048397383</v>
+      </c>
+      <c r="J29">
+        <f>I29^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>$B$8/(I29*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29">
+        <f>L29/L30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.04</v>
+      </c>
+      <c r="C30">
+        <v>-442.74498203777699</v>
+      </c>
+      <c r="D30">
+        <v>31.155173777777801</v>
+      </c>
+      <c r="E30">
+        <v>0.69372222222222002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>5286.2104880000024</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>1.8213425329649864</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.05</v>
+      </c>
+      <c r="C31">
+        <v>-441.13919298000002</v>
+      </c>
+      <c r="D31">
+        <v>30.7199135555556</v>
+      </c>
+      <c r="E31">
+        <v>-0.86179111111111195</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>17.587500000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>5440.1682480468771</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>1.7697982049464434</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.06</v>
+      </c>
+      <c r="C32">
+        <v>-439.060457747128</v>
+      </c>
+      <c r="D32">
+        <v>30.8636128508921</v>
+      </c>
+      <c r="E32">
+        <v>-2.5851014613565</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>17.755000000000003</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>5597.0866438750027</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>1.7201806247784466</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.99</v>
+      </c>
+      <c r="F37">
+        <f>$F$10*B37</f>
+        <v>16.5825</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="10">F37^3</f>
+        <v>4559.8443458906249</v>
+      </c>
+      <c r="H37">
+        <f>$B$8/G37/(1E-24)</f>
+        <v>2.1114755833007428</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>-451.985515197778</v>
+      </c>
+      <c r="D38">
+        <v>28.2412582222222</v>
+      </c>
+      <c r="E38">
+        <v>8.3580511111111004</v>
+      </c>
+      <c r="F38">
+        <f>$F$10*B38</f>
+        <v>16.75</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G43" si="11">F38^3</f>
+        <v>4699.421875</v>
+      </c>
+      <c r="H38">
+        <f>$B$8/G38/(1E-24)</f>
+        <v>2.0487626470011273</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1.01</v>
+      </c>
+      <c r="C39">
+        <v>-450.565339368889</v>
+      </c>
+      <c r="D39">
+        <v>28.11917</v>
+      </c>
+      <c r="E39">
+        <v>5.8611399999999998</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F43" si="12">$F$10*B39</f>
+        <v>16.9175</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>4841.8190572343756</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H43" si="13">$B$8/G39/(1E-24)</f>
+        <v>1.9885088406214562</v>
+      </c>
+      <c r="J39">
+        <f>I39^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" t="e">
+        <f>$B$8/(I39*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39">
+        <f>L39/L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1.02</v>
+      </c>
+      <c r="C40">
+        <v>-449.13218305111099</v>
+      </c>
+      <c r="D40">
+        <v>27.914975111111101</v>
+      </c>
+      <c r="E40">
+        <v>2.75833555555556</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="12"/>
+        <v>17.085000000000001</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>4987.0640891250014</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>1.9305948004548843</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1.03</v>
+      </c>
+      <c r="C41">
+        <v>-447.275019044445</v>
+      </c>
+      <c r="D41">
+        <v>28.054451111111099</v>
+      </c>
+      <c r="E41">
+        <v>1.33130666666667</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="12"/>
+        <v>17.252500000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>5135.1851672031253</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>1.874908048397383</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.04</v>
+      </c>
+      <c r="C42">
+        <v>-445.96492171111203</v>
+      </c>
+      <c r="D42">
+        <v>28.052415777777799</v>
+      </c>
+      <c r="E42">
+        <v>-0.793824444444446</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="12"/>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>5286.2104880000024</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>1.8213425329649864</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1.05</v>
+      </c>
+      <c r="C43">
+        <v>-444.16842651777699</v>
+      </c>
+      <c r="D43">
+        <v>28.457812000000001</v>
+      </c>
+      <c r="E43">
+        <v>-2.6832288888888902</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="12"/>
+        <v>17.587500000000002</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>5440.1682480468771</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>1.7697982049464434</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1.06</v>
+      </c>
+      <c r="C44">
+        <v>-442.27877759111101</v>
+      </c>
+      <c r="D44">
+        <v>27.789007111111101</v>
+      </c>
+      <c r="E44">
+        <v>-3.8517311111111101</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="14">$F$10*B44</f>
+        <v>17.755000000000003</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="15">F44^3</f>
+        <v>5597.0866438750027</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44" si="16">$B$8/G44/(1E-24)</f>
+        <v>1.7201806247784466</v>
       </c>
     </row>
   </sheetData>
@@ -4232,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,10 +5729,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5293,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E21,G15:G21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5343,7 +5824,7 @@
         <v>22</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E21,C15:C21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5409,12 +5890,21 @@
       <c r="B15">
         <v>0.98</v>
       </c>
+      <c r="C15">
+        <v>-737.83342256888898</v>
+      </c>
+      <c r="D15">
+        <v>30.614796444444401</v>
+      </c>
+      <c r="E15">
+        <v>11.2255133333333</v>
+      </c>
       <c r="F15">
         <f>$F$10*B15</f>
         <v>15.19</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G20" si="0">F15^3</f>
+        <f t="shared" ref="G15:G21" si="0">F15^3</f>
         <v>3504.881359</v>
       </c>
       <c r="H15">
@@ -5424,407 +5914,643 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
+        <v>0.99</v>
+      </c>
+      <c r="F16">
+        <f>$F$10*B16</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="1">F16^3</f>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H16">
+        <f>$B$8/G16/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
+      <c r="C17">
+        <v>-737.17077008000001</v>
+      </c>
+      <c r="D17">
+        <v>30.794436000000001</v>
+      </c>
+      <c r="E17">
+        <v>4.7506311111111099</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F21" si="2">$F$10*B17</f>
         <v>15.5</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>3723.875</v>
       </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
+      <c r="H17">
+        <f t="shared" ref="H17:H21" si="3">$B$8/G17/(1E-24)</f>
         <v>2.8194200933167735</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>1.02</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="C18">
+        <v>-736.083428924445</v>
+      </c>
+      <c r="D18">
+        <v>30.3860073333333</v>
+      </c>
+      <c r="E18">
+        <v>2.0604977777777802</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
         <v>15.81</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>3951.8059410000005</v>
       </c>
-      <c r="H17">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>2.6568025244031075</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.03</v>
+      </c>
+      <c r="C19">
+        <v>-734.85377556444496</v>
+      </c>
+      <c r="D19">
+        <v>30.682576222222199</v>
+      </c>
+      <c r="E19">
+        <v>-0.71365555555555504</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="2"/>
-        <v>2.6568025244031075</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <f t="shared" si="1"/>
+        <v>15.965</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>4069.1787571250002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>2.580168782611552</v>
+      </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="K19" t="e">
+        <f>$L$5/(I19*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.04</v>
+      </c>
+      <c r="C20">
+        <v>-734.62908651999999</v>
+      </c>
+      <c r="D20">
+        <v>30.5033173333333</v>
+      </c>
+      <c r="E20">
+        <v>-2.0962755555555499</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>16.12</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4188.8529280000012</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>2.5064541965222218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
+      <c r="H21" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18">
-        <f>I18^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>30</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
         <v>32</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>34</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>0.98</v>
-      </c>
-      <c r="F25">
-        <f>$F$10*B25</f>
-        <v>15.19</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:G30" si="3">F25^3</f>
-        <v>3504.881359</v>
-      </c>
-      <c r="H25">
-        <f>$B$8/G25/(1E-24)</f>
-        <v>2.9955844220061087</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1</v>
+        <v>0.98</v>
+      </c>
+      <c r="C26">
+        <v>-740.92391491555497</v>
+      </c>
+      <c r="D26">
+        <v>28.2492315555555</v>
+      </c>
+      <c r="E26">
+        <v>10.0307</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F30" si="4">$F$10*B26</f>
-        <v>15.5</v>
+        <f>$F$10*B26</f>
+        <v>15.19</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>3723.875</v>
+        <f t="shared" ref="G26:G32" si="4">F26^3</f>
+        <v>3504.881359</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H30" si="5">$B$8/G26/(1E-24)</f>
-        <v>2.8194200933167735</v>
+        <f>$B$8/G26/(1E-24)</f>
+        <v>2.9955844220061087</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
+        <v>0.99</v>
+      </c>
+      <c r="F27">
+        <f>$F$10*B27</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="5">F27^3</f>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H27">
+        <f>$B$8/G27/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>-739.55277276666698</v>
+      </c>
+      <c r="D28">
+        <v>28.546505111111099</v>
+      </c>
+      <c r="E28">
+        <v>4.5871977777777797</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F32" si="6">$F$10*B28</f>
+        <v>15.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H32" si="7">$B$8/G28/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1.01</v>
+      </c>
+      <c r="C29">
+        <v>-740.14233880888901</v>
+      </c>
+      <c r="D29">
+        <v>28.192646888888898</v>
+      </c>
+      <c r="E29">
+        <v>0.52010000000000101</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>2.7365013654425008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1.02</v>
       </c>
-      <c r="F27">
+      <c r="C30">
+        <v>-738.26064061333295</v>
+      </c>
+      <c r="D30">
+        <v>28.723782444444499</v>
+      </c>
+      <c r="E30">
+        <v>0.35238666666666701</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>15.81</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="4"/>
-        <v>15.81</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
         <v>3951.8059410000005</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
+      <c r="H30">
+        <f t="shared" si="7"/>
         <v>2.6568025244031075</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F28">
+      <c r="J30">
+        <f>I30^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" t="e">
+        <f>$L$5/(I30*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30">
+        <f>L30/L32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.03</v>
+      </c>
+      <c r="C31">
+        <v>-737.17040198444499</v>
+      </c>
+      <c r="D31">
+        <v>28.372455777777802</v>
+      </c>
+      <c r="E31">
+        <v>-2.5063866666666699</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>15.965</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>4069.1787571250002</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>2.580168782611552</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" t="e">
-        <f t="shared" si="5"/>
+      <c r="H32" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28">
-        <f>I28^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" t="e">
-        <f>$L$5/(I28*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28">
-        <f>L28/L30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="K32" t="s">
         <v>8</v>
       </c>
-      <c r="L30">
+      <c r="L32">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I36" t="s">
         <v>33</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J36" t="s">
         <v>30</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K36" t="s">
         <v>32</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L36" t="s">
         <v>34</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M36" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>0.98</v>
-      </c>
-      <c r="F35">
-        <f>$F$10*B35</f>
-        <v>15.19</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G40" si="6">F35^3</f>
-        <v>3504.881359</v>
-      </c>
-      <c r="H35">
-        <f>$B$8/G35/(1E-24)</f>
-        <v>2.9955844220061087</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F40" si="7">$F$10*B36</f>
-        <v>15.5</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
-        <v>3723.875</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H40" si="8">$B$8/G36/(1E-24)</f>
-        <v>2.8194200933167735</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
+        <v>0.97</v>
+      </c>
+      <c r="F37">
+        <f>$F$10*B37</f>
+        <v>15.035</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="8">F37^3</f>
+        <v>3398.6801678750003</v>
+      </c>
+      <c r="H37">
+        <f>$B$8/G37/(1E-24)</f>
+        <v>3.0891897682047929</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0.98</v>
+      </c>
+      <c r="C38">
+        <v>-743.74325746666705</v>
+      </c>
+      <c r="D38">
+        <v>25.8493855555556</v>
+      </c>
+      <c r="E38">
+        <v>8.1363844444444506</v>
+      </c>
+      <c r="F38">
+        <f>$F$10*B38</f>
+        <v>15.19</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="9">F38^3</f>
+        <v>3504.881359</v>
+      </c>
+      <c r="H38">
+        <f>$B$8/G38/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0.99</v>
+      </c>
+      <c r="C39">
+        <v>-744.043220331111</v>
+      </c>
+      <c r="D39">
+        <v>25.8155251111111</v>
+      </c>
+      <c r="E39">
+        <v>5.2090377777777697</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F45" si="10">$F$10*B39</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G45" si="11">F39^3</f>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H45" si="12">$B$8/G39/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.995</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="13">$F$10*B40</f>
+        <v>15.422499999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="14">F40^3</f>
+        <v>3668.2957001406244</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>2.862137858623969</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>-742.69321425999999</v>
+      </c>
+      <c r="D41">
+        <v>25.839372000000001</v>
+      </c>
+      <c r="E41">
+        <v>1.27230222222222</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>15.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F44" si="15">$F$10*B42</f>
+        <v>15.577499999999999</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G44" si="16">F42^3</f>
+        <v>3780.0128811093741</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>2.7775482069041675</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1.01</v>
+      </c>
+      <c r="C43">
+        <v>-741.28435082888802</v>
+      </c>
+      <c r="D43">
+        <v>25.917558222222201</v>
+      </c>
+      <c r="E43">
+        <v>6.3646666666666907E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="16"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>2.7365013654425008</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="15"/>
+        <v>15.732499999999998</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="16"/>
+        <v>3893.9755587031236</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>2.6962593477337373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>1.02</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
+      <c r="C45">
+        <v>-741.62913321333394</v>
+      </c>
+      <c r="D45">
+        <v>25.916210888888902</v>
+      </c>
+      <c r="E45">
+        <v>-2.2028888888888898</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
         <v>15.81</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
+      <c r="G45">
+        <f t="shared" si="11"/>
         <v>3951.8059410000005</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="8"/>
+      <c r="H45">
+        <f t="shared" si="12"/>
         <v>2.6568025244031075</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F38">
-        <f t="shared" si="7"/>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f>I46^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
+      <c r="K46" t="e">
+        <f>$L$5/(I46*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46">
+        <f>L46/L48</f>
         <v>0</v>
       </c>
-      <c r="H38" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38">
-        <f>I38^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" t="e">
-        <f>$L$5/(I38*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38">
-        <f>L38/L40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" t="s">
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
         <v>8</v>
       </c>
-      <c r="L40">
+      <c r="L48">
         <v>100</v>
       </c>
     </row>
@@ -5835,10 +6561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5949,7 +6675,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -5994,70 +6720,97 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.92</v>
+        <v>0.96</v>
+      </c>
+      <c r="C15">
+        <v>-699.78751649111098</v>
+      </c>
+      <c r="D15">
+        <v>27.5374164444444</v>
+      </c>
+      <c r="E15">
+        <v>10.664155555555499</v>
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>13.8</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G20" si="0">F15^3</f>
-        <v>2628.0720000000006</v>
+        <v>2985.983999999999</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>3.6729967824321399</v>
+        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.94</v>
+        <v>0.98</v>
+      </c>
+      <c r="C16">
+        <v>-699.22553231999996</v>
+      </c>
+      <c r="D16">
+        <v>27.329148444444499</v>
+      </c>
+      <c r="E16">
+        <v>5.19390888888889</v>
       </c>
       <c r="F16">
         <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>2803.221</v>
+        <v>3176.5229999999997</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
-        <v>3.4435030274102552</v>
+        <v>3.0388257853004697</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>14.399999999999999</v>
+        <v>14.85</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>2985.983999999999</v>
+        <v>3274.7591249999996</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>3.2327366790980809</v>
+        <v>2.947667181475524</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>0.98</v>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>-698.057605971111</v>
+      </c>
+      <c r="D18">
+        <v>27.54477</v>
+      </c>
+      <c r="E18">
+        <v>0.39500444444444299</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>3176.5229999999997</v>
+        <v>3375</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>3.0388257853004697</v>
+        <v>2.8601185185185192</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
@@ -6074,41 +6827,350 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>15.15</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>3375</v>
+        <v>3477.2658750000001</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>2.8601185185185192</v>
+        <v>2.7760028559794847</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1.02</v>
-      </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>3581.5770000000007</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>2.695153559451605</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
       </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.96</v>
+      </c>
+      <c r="F25">
+        <f>$F$10*B25</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G30" si="3">F25^3</f>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H25">
+        <f>$B$8/G25/(1E-24)</f>
+        <v>3.2327366790980809</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.98</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F30" si="4">$F$10*B26</f>
+        <v>14.7</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>3176.5229999999997</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H30" si="5">$B$8/G26/(1E-24)</f>
+        <v>3.0388257853004697</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>3375</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>2.8601185185185192</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28">
+        <f>I28^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" t="e">
+        <f>$L$5/(I28*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28">
+        <f>L28/L30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.96</v>
+      </c>
+      <c r="F35">
+        <f>$F$10*B35</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G40" si="6">F35^3</f>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H35">
+        <f>$B$8/G35/(1E-24)</f>
+        <v>3.2327366790980809</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.98</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F40" si="7">$F$10*B36</f>
+        <v>14.7</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>3176.5229999999997</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H40" si="8">$B$8/G36/(1E-24)</f>
+        <v>3.0388257853004697</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>3375</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>2.8601185185185192</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38">
+        <f>I38^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" t="e">
+        <f>$L$5/(I38*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38">
+        <f>L38/L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
         <v>100</v>
       </c>
     </row>
@@ -6119,10 +7181,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6208,7 +7270,7 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -6233,7 +7295,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -6276,77 +7338,60 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>0.9</v>
-      </c>
-    </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>0.92</v>
-      </c>
       <c r="F16">
         <f>$F$10*B16</f>
-        <v>14.26</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16:G21" si="0">F16^3</f>
-        <v>2899.7367759999997</v>
-      </c>
-      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
         <f>$B$8/G16/(1E-24)</f>
-        <v>3.1977937020860141</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>0.94</v>
-      </c>
       <c r="F17">
         <f t="shared" ref="F17:F21" si="1">$F$10*B17</f>
-        <v>14.569999999999999</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>3092.990992999999</v>
-      </c>
-      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" ref="H17:H21" si="2">$B$8/G17/(1E-24)</f>
-        <v>2.9979912715510468</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>0.96</v>
-      </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>14.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>3294.6462719999995</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="2"/>
-        <v>2.814493342974576</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>0.98</v>
-      </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>15.19</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>3504.881359</v>
-      </c>
-      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="2"/>
-        <v>2.6456701526255579</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J19">
         <f>I19^(1/3)</f>
@@ -6362,42 +7407,386 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>3723.875</v>
-      </c>
-      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="2"/>
-        <v>2.4900835822899539</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>1.02</v>
-      </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>15.81</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>3951.8059410000005</v>
-      </c>
-      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="2"/>
-        <v>2.3464613744807363</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K21" t="s">
         <v>8</v>
       </c>
       <c r="L21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.88</v>
+      </c>
+      <c r="F27">
+        <f>$F$10*B27</f>
+        <v>13.2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="3">F27^3</f>
+        <v>2299.9679999999998</v>
+      </c>
+      <c r="H27">
+        <f>$B$8/G27/(1E-24)</f>
+        <v>4.031690875699141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="F28">
+        <f>$F$10*B28</f>
+        <v>13.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="4">F28^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H28">
+        <f>$B$8/G28/(1E-24)</f>
+        <v>3.7688401158360012</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.92</v>
+      </c>
+      <c r="C29">
+        <v>-705.34679249999999</v>
+      </c>
+      <c r="D29">
+        <v>23.015228666666701</v>
+      </c>
+      <c r="E29">
+        <v>-3.45505777777778</v>
+      </c>
+      <c r="F29">
+        <f>$F$10*B29</f>
+        <v>13.8</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G32" si="5">F29^3</f>
+        <v>2628.0720000000006</v>
+      </c>
+      <c r="H29">
+        <f>$B$8/G29/(1E-24)</f>
+        <v>3.5283508214386816</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.94</v>
+      </c>
+      <c r="C30">
+        <v>-704.126350946667</v>
+      </c>
+      <c r="D30">
+        <v>23.065804888888898</v>
+      </c>
+      <c r="E30">
+        <v>-3.71379555555556</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F32" si="6">$F$10*B30</f>
+        <v>14.1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>2803.221</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H32" si="7">$B$8/G30/(1E-24)</f>
+        <v>3.3078947396584151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.96</v>
+      </c>
+      <c r="C31">
+        <v>-702.68675454666595</v>
+      </c>
+      <c r="D31">
+        <v>23.330576666666701</v>
+      </c>
+      <c r="E31">
+        <v>-3.9988800000000002</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>3.1054285622427997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>-701.38569239333299</v>
+      </c>
+      <c r="D32">
+        <v>23.201893999999999</v>
+      </c>
+      <c r="E32">
+        <v>-4.5790600000000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>3375</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>2.7474844444444453</v>
+      </c>
+      <c r="J32">
+        <f>I32^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" t="e">
+        <f>$B$8/(I32*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32">
+        <f>L32/L34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>$F$10*B40</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G45" si="8">F40^3</f>
+        <v>0</v>
+      </c>
+      <c r="H40" t="e">
+        <f>$B$8/G40/(1E-24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" ref="F41:F45" si="9">$F$10*B41</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" ref="H41:H45" si="10">$B$8/G41/(1E-24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43">
+        <f>I43^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" t="e">
+        <f>$B$8/(I43*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43">
+        <f>L43/L45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45">
         <v>30</v>
       </c>
     </row>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7BE157-7F3A-E344-BEBF-DDD821A302B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CC05F-1F00-034A-A35B-740C7B613037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="3" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3819,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -4713,7 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -5731,8 +5731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7183,8 +7183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CC05F-1F00-034A-A35B-740C7B613037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFEEF6B-C9C9-7D4C-A6DF-835488E3D947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="3" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="40">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>pure KF</t>
+  </si>
+  <si>
+    <t>Lx0_1300/1100</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1287,658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KF-42ZrF4'!$G$43:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3398.6801678750003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3504.881359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3613.2721886250006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3668.2957001406244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3723.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3780.0128811093741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3836.7121363749993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3893.9755587031236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3951.8059410000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KF-42ZrF4'!$E$43:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.993124444444399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1363844444444506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2090377777777697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.26867111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27230222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70165333333333402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3646666666666907E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16219111111111301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2028888888888898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CC68-3045-9514-3F6A44FA13EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1696299087"/>
+        <c:axId val="1781731023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1696299087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781731023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1781731023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696299087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'KF-42ZrF4'!$C$43:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-745.24667392000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-743.74325746666705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-744.043220331111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-743.56645185333298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-742.69321425999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-742.75273983555599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-741.28435082888802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-741.89380517555605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-741.62913321333394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'KF-42ZrF4'!$E$43:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.993124444444399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1363844444444506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2090377777777697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.26867111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27230222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70165333333333402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3646666666666907E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16219111111111301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2028888888888898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F110-8548-B4FA-DD3ADA7D97D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1696299087"/>
+        <c:axId val="1781731023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1696299087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781731023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1781731023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696299087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1404,6 +2059,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2437,6 +3172,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3050,6 +4817,85 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81ACDBC-142C-2241-B7ED-2E0C74DB474E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1032E152-881D-7C82-AFCB-A1A330119B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588294DC-7566-DB4F-B3FF-704FABD77817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +5218,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3819,8 +5665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3865,14 +5711,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E15:E21,G15:G21^{1,2})</f>
-        <v>8.613447868446438E-6</v>
+        <f t="array" ref="J6:L6">LINEST(E27:E32,G27:G32^{1,2})</f>
+        <v>8.7872111043677215E-6</v>
       </c>
       <c r="K6">
-        <v>-0.10446933740266881</v>
+        <v>-0.10532929334349549</v>
       </c>
       <c r="L6">
-        <v>313.96297767585992</v>
+        <v>311.840877100353</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -3884,11 +5730,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>6634.9310771564196</v>
+        <v>6650.5613048206105</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>5493.7006854354622</v>
+        <v>5336.0965883920726</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4343,13 +6189,16 @@
         <f t="shared" ref="H29:H32" si="9">$B$8/G29/(1E-24)</f>
         <v>1.874908048397383</v>
       </c>
+      <c r="I29">
+        <v>5336.0965883920726</v>
+      </c>
       <c r="J29">
         <f>I29^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" t="e">
+        <v>17.474626180807338</v>
+      </c>
+      <c r="K29">
         <f>$B$8/(I29*(10^-24))</f>
-        <v>#DIV/0!</v>
+        <v>1.8043151656857856</v>
       </c>
       <c r="M29">
         <f>L29/L30</f>
@@ -4488,6 +6337,15 @@
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0.99</v>
+      </c>
+      <c r="C37">
+        <v>-453.07342940888901</v>
+      </c>
+      <c r="D37">
+        <v>28.1730924444444</v>
+      </c>
+      <c r="E37">
+        <v>12.998519999999999</v>
       </c>
       <c r="F37">
         <f>$F$10*B37</f>
@@ -4713,7 +6571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -5729,10 +7587,962 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
-  <dimension ref="B2:M48"/>
+  <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E43:E51,G43:G51^{1,2})</f>
+        <v>2.0852058724026502E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.17657589269897869</v>
+      </c>
+      <c r="L6">
+        <v>370.49833722748724</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>4632.6884542522184</v>
+      </c>
+      <c r="L7">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>3835.3431696718744</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1.0499167999999999E-20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>15.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E43:E51,C43:C51^{1,2})</f>
+        <v>0.47373745805304301</v>
+      </c>
+      <c r="K10">
+        <v>701.04907772877675</v>
+      </c>
+      <c r="L10">
+        <v>259355.59433418571</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-737.81028514505522</v>
+      </c>
+      <c r="L11">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-742.01586288625015</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.98</v>
+      </c>
+      <c r="C15">
+        <v>-737.83342256888898</v>
+      </c>
+      <c r="D15">
+        <v>30.614796444444401</v>
+      </c>
+      <c r="E15">
+        <v>11.2255133333333</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>15.19</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G22" si="0">F15^3</f>
+        <v>3504.881359</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.99</v>
+      </c>
+      <c r="C16">
+        <v>-737.64876905999995</v>
+      </c>
+      <c r="D16">
+        <v>30.836962</v>
+      </c>
+      <c r="E16">
+        <v>9.0144844444444505</v>
+      </c>
+      <c r="F16">
+        <f>$F$10*B16</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="1">F16^3</f>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H16">
+        <f>$B$8/G16/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>-737.17077008000001</v>
+      </c>
+      <c r="D17">
+        <v>30.794436000000001</v>
+      </c>
+      <c r="E17">
+        <v>4.7506311111111099</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F22" si="2">$F$10*B17</f>
+        <v>15.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H22" si="3">$B$8/G17/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1.01</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="4">$F$10*B18</f>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="5">F18^3</f>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="6">$B$8/G18/(1E-24)</f>
+        <v>2.7365013654425008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>-736.083428924445</v>
+      </c>
+      <c r="D19">
+        <v>30.3860073333333</v>
+      </c>
+      <c r="E19">
+        <v>2.0604977777777802</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>15.81</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3951.8059410000005</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>2.6568025244031075</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>15.887499999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4010.2060761718744</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>2.6181118377892592</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.03</v>
+      </c>
+      <c r="C21">
+        <v>-734.85377556444496</v>
+      </c>
+      <c r="D21">
+        <v>30.682576222222199</v>
+      </c>
+      <c r="E21">
+        <v>-0.71365555555555504</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>15.965</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4069.1787571250002</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>2.580168782611552</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.04</v>
+      </c>
+      <c r="C22">
+        <v>-734.62908651999999</v>
+      </c>
+      <c r="D22">
+        <v>30.5033173333333</v>
+      </c>
+      <c r="E22">
+        <v>-2.0962755555555499</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>16.12</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>4188.8529280000012</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.5064541965222218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f>I23^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" t="e">
+        <f>$B$8/(I23*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23">
+        <f>L23/L25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.98</v>
+      </c>
+      <c r="C29">
+        <v>-740.92391491555497</v>
+      </c>
+      <c r="D29">
+        <v>28.2492315555555</v>
+      </c>
+      <c r="E29">
+        <v>10.0307</v>
+      </c>
+      <c r="F29">
+        <f>$F$10*B29</f>
+        <v>15.19</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G36" si="7">F29^3</f>
+        <v>3504.881359</v>
+      </c>
+      <c r="H29">
+        <f>$B$8/G29/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.99</v>
+      </c>
+      <c r="C30">
+        <v>-741.35225493777705</v>
+      </c>
+      <c r="D30">
+        <v>28.096320444444402</v>
+      </c>
+      <c r="E30">
+        <v>6.8478755555555599</v>
+      </c>
+      <c r="F30">
+        <f>$F$10*B30</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="8">F30^3</f>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H30">
+        <f>$B$8/G30/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>-739.55277276666698</v>
+      </c>
+      <c r="D31">
+        <v>28.546505111111099</v>
+      </c>
+      <c r="E31">
+        <v>4.5871977777777797</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F36" si="9">$F$10*B31</f>
+        <v>15.5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H36" si="10">$B$8/G31/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="11">$F$10*B32</f>
+        <v>15.577499999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="12">F32^3</f>
+        <v>3780.0128811093741</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32" si="13">$B$8/G32/(1E-24)</f>
+        <v>2.7775482069041675</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1.01</v>
+      </c>
+      <c r="C33">
+        <v>-740.14233880888901</v>
+      </c>
+      <c r="D33">
+        <v>28.192646888888898</v>
+      </c>
+      <c r="E33">
+        <v>0.52010000000000101</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="9"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>2.7365013654425008</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>15.732499999999998</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>3893.9755587031236</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>2.6962593477337373</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1.02</v>
+      </c>
+      <c r="C35">
+        <v>-738.26064061333295</v>
+      </c>
+      <c r="D35">
+        <v>28.723782444444499</v>
+      </c>
+      <c r="E35">
+        <v>0.35238666666666701</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>15.81</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>3951.8059410000005</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>2.6568025244031075</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1.03</v>
+      </c>
+      <c r="C36">
+        <v>-737.17040198444499</v>
+      </c>
+      <c r="D36">
+        <v>28.372455777777802</v>
+      </c>
+      <c r="E36">
+        <v>-2.5063866666666699</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="9"/>
+        <v>15.965</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>4069.1787571250002</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>2.580168782611552</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>I37^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" t="e">
+        <f>$B$8/(I37*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37">
+        <f>L37/L39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.97</v>
+      </c>
+      <c r="C43">
+        <v>-745.24667392000003</v>
+      </c>
+      <c r="D43">
+        <v>25.795839333333401</v>
+      </c>
+      <c r="E43">
+        <v>10.993124444444399</v>
+      </c>
+      <c r="F43">
+        <f>$F$10*B43</f>
+        <v>15.035</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43" si="14">F43^3</f>
+        <v>3398.6801678750003</v>
+      </c>
+      <c r="H43">
+        <f>$B$8/G43/(1E-24)</f>
+        <v>3.0891897682047929</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.98</v>
+      </c>
+      <c r="C44">
+        <v>-743.74325746666705</v>
+      </c>
+      <c r="D44">
+        <v>25.8493855555556</v>
+      </c>
+      <c r="E44">
+        <v>8.1363844444444506</v>
+      </c>
+      <c r="F44">
+        <f>$F$10*B44</f>
+        <v>15.19</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="15">F44^3</f>
+        <v>3504.881359</v>
+      </c>
+      <c r="H44">
+        <f>$B$8/G44/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.99</v>
+      </c>
+      <c r="C45">
+        <v>-744.043220331111</v>
+      </c>
+      <c r="D45">
+        <v>25.8155251111111</v>
+      </c>
+      <c r="E45">
+        <v>5.2090377777777697</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F51" si="16">$F$10*B45</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G51" si="17">F45^3</f>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H51" si="18">$B$8/G45/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0.995</v>
+      </c>
+      <c r="C46">
+        <v>-743.56645185333298</v>
+      </c>
+      <c r="D46">
+        <v>25.8650684444445</v>
+      </c>
+      <c r="E46">
+        <v>3.26867111111111</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46" si="19">$F$10*B46</f>
+        <v>15.422499999999999</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46" si="20">F46^3</f>
+        <v>3668.2957001406244</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="18"/>
+        <v>2.862137858623969</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>-742.69321425999999</v>
+      </c>
+      <c r="D47">
+        <v>25.839372000000001</v>
+      </c>
+      <c r="E47">
+        <v>1.27230222222222</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="16"/>
+        <v>15.5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="17"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="18"/>
+        <v>2.8194200933167735</v>
+      </c>
+      <c r="I47">
+        <v>3835.3431696718744</v>
+      </c>
+      <c r="J47">
+        <f>I47^(1/3)</f>
+        <v>15.653137839343195</v>
+      </c>
+      <c r="K47">
+        <f>$B$8/(I47*(10^-24))</f>
+        <v>2.7374781174791809</v>
+      </c>
+      <c r="L47">
+        <v>-742.01586288625015</v>
+      </c>
+      <c r="M47">
+        <f>L47/L49</f>
+        <v>-7.4201586288625014</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C48">
+        <v>-742.75273983555599</v>
+      </c>
+      <c r="D48">
+        <v>26.058108666666701</v>
+      </c>
+      <c r="E48">
+        <v>0.70165333333333402</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F50" si="21">$F$10*B48</f>
+        <v>15.577499999999999</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G50" si="22">F48^3</f>
+        <v>3780.0128811093741</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="18"/>
+        <v>2.7775482069041675</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>1.01</v>
+      </c>
+      <c r="C49">
+        <v>-741.28435082888802</v>
+      </c>
+      <c r="D49">
+        <v>25.917558222222201</v>
+      </c>
+      <c r="E49">
+        <v>6.3646666666666907E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="21"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="22"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="18"/>
+        <v>2.7365013654425008</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="C50">
+        <v>-741.89380517555605</v>
+      </c>
+      <c r="D50">
+        <v>26.1943784444444</v>
+      </c>
+      <c r="E50">
+        <v>0.16219111111111301</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="21"/>
+        <v>15.732499999999998</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="22"/>
+        <v>3893.9755587031236</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="18"/>
+        <v>2.6962593477337373</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1.02</v>
+      </c>
+      <c r="C51">
+        <v>-741.62913321333394</v>
+      </c>
+      <c r="D51">
+        <v>25.916210888888902</v>
+      </c>
+      <c r="E51">
+        <v>-2.2028888888888898</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="16"/>
+        <v>15.81</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="17"/>
+        <v>3951.8059410000005</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="18"/>
+        <v>2.6568025244031075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
+  <dimension ref="B2:M46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5747,7 +8557,7 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>670</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -5774,7 +8584,7 @@
         <v>22</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E21,G15:G21^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E15:E23,G15:G23^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5796,7 +8606,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>1.0499167999999999E-20</v>
+        <v>9.6529000000000012E-21</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -5818,13 +8628,13 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E21,C15:C21^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E15:E23,C15:C23^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5888,669 +8698,451 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C15">
-        <v>-737.83342256888898</v>
+        <v>-699.78751649111098</v>
       </c>
       <c r="D15">
-        <v>30.614796444444401</v>
+        <v>27.5374164444444</v>
       </c>
       <c r="E15">
-        <v>11.2255133333333</v>
+        <v>10.664155555555499</v>
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>15.19</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G21" si="0">F15^3</f>
-        <v>3504.881359</v>
+        <f t="shared" ref="G15" si="0">F15^3</f>
+        <v>2985.983999999999</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>2.9955844220061087</v>
+        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F16">
-        <f>$F$10*B16</f>
-        <v>15.345000000000001</v>
+        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <v>14.549999999999999</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16" si="1">F16^3</f>
-        <v>3613.2721886250006</v>
+        <f t="shared" ref="G16:G22" si="2">F16^3</f>
+        <v>3080.2713749999994</v>
       </c>
       <c r="H16">
-        <f>$B$8/G16/(1E-24)</f>
-        <v>2.9057229712869672</v>
+        <f t="shared" ref="H16:H22" si="3">$B$8/G16/(1E-24)</f>
+        <v>3.1337823278638894</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C17">
-        <v>-737.17077008000001</v>
+        <v>-699.22553231999996</v>
       </c>
       <c r="D17">
-        <v>30.794436000000001</v>
+        <v>27.329148444444499</v>
       </c>
       <c r="E17">
-        <v>4.7506311111111099</v>
+        <v>5.19390888888889</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F21" si="2">$F$10*B17</f>
-        <v>15.5</v>
+        <f t="shared" si="1"/>
+        <v>14.7</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>3723.875</v>
+        <f t="shared" si="2"/>
+        <v>3176.5229999999997</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H21" si="3">$B$8/G17/(1E-24)</f>
-        <v>2.8194200933167735</v>
+        <f t="shared" si="3"/>
+        <v>3.0388257853004697</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="C18">
-        <v>-736.083428924445</v>
+        <v>-698.972594237777</v>
       </c>
       <c r="D18">
-        <v>30.3860073333333</v>
+        <v>27.533817777777799</v>
       </c>
       <c r="E18">
-        <v>2.0604977777777802</v>
+        <v>1.87892666666667</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
+        <v>14.85</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="2"/>
-        <v>15.81</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>3951.8059410000005</v>
+        <v>3274.7591249999996</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>2.6568025244031075</v>
+        <v>2.947667181475524</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>1.03</v>
-      </c>
-      <c r="C19">
-        <v>-734.85377556444496</v>
-      </c>
-      <c r="D19">
-        <v>30.682576222222199</v>
-      </c>
-      <c r="E19">
-        <v>-0.71365555555555504</v>
+        <v>0.995</v>
       </c>
       <c r="F19">
+        <f t="shared" si="1"/>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="2"/>
-        <v>15.965</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>4069.1787571250002</v>
+        <v>3324.6277031250002</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>2.580168782611552</v>
-      </c>
-      <c r="J19">
-        <f>I19^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" t="e">
-        <f>$L$5/(I19*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19">
-        <f>L19/L21</f>
-        <v>0</v>
+        <v>2.9034529162247886</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-734.62908651999999</v>
+        <v>-698.057605971111</v>
       </c>
       <c r="D20">
-        <v>30.5033173333333</v>
+        <v>27.54477</v>
       </c>
       <c r="E20">
-        <v>-2.0962755555555499</v>
+        <v>0.39500444444444299</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="2"/>
-        <v>16.12</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>4188.8529280000012</v>
+        <v>3375</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>2.5064541965222218</v>
+        <v>2.8601185185185192</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.0049999999999999</v>
+      </c>
       <c r="F21">
+        <f t="shared" si="1"/>
+        <v>15.074999999999999</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
+        <v>3425.8785468749998</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
+        <v>2.8176422099975302</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.01</v>
+      </c>
+      <c r="C22">
+        <v>-697.402080362221</v>
+      </c>
+      <c r="D22">
+        <v>27.527224888888899</v>
+      </c>
+      <c r="E22">
+        <v>-1.0558133333333299</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>15.15</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>3477.2658750000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.7760028559794847</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>31</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>32</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I27" t="s">
         <v>33</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J27" t="s">
         <v>30</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>32</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>34</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M27" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.98</v>
-      </c>
-      <c r="C26">
-        <v>-740.92391491555497</v>
-      </c>
-      <c r="D26">
-        <v>28.2492315555555</v>
-      </c>
-      <c r="E26">
-        <v>10.0307</v>
-      </c>
-      <c r="F26">
-        <f>$F$10*B26</f>
-        <v>15.19</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G32" si="4">F26^3</f>
-        <v>3504.881359</v>
-      </c>
-      <c r="H26">
-        <f>$B$8/G26/(1E-24)</f>
-        <v>2.9955844220061087</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.99</v>
-      </c>
-      <c r="F27">
-        <f>$F$10*B27</f>
-        <v>15.345000000000001</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="5">F27^3</f>
-        <v>3613.2721886250006</v>
-      </c>
-      <c r="H27">
-        <f>$B$8/G27/(1E-24)</f>
-        <v>2.9057229712869672</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>-739.55277276666698</v>
-      </c>
-      <c r="D28">
-        <v>28.546505111111099</v>
-      </c>
-      <c r="E28">
-        <v>4.5871977777777797</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F32" si="6">$F$10*B28</f>
-        <v>15.5</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>3723.875</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H32" si="7">$B$8/G28/(1E-24)</f>
-        <v>2.8194200933167735</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1.01</v>
-      </c>
-      <c r="C29">
-        <v>-740.14233880888901</v>
-      </c>
-      <c r="D29">
-        <v>28.192646888888898</v>
-      </c>
-      <c r="E29">
-        <v>0.52010000000000101</v>
+        <v>0.96</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
-        <v>15.654999999999999</v>
+        <f>$F$10*B29</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
-        <v>3836.7121363749993</v>
+        <f t="shared" ref="G29:G36" si="4">F29^3</f>
+        <v>2985.983999999999</v>
       </c>
       <c r="H29">
-        <f t="shared" si="7"/>
-        <v>2.7365013654425008</v>
+        <f>$B$8/G29/(1E-24)</f>
+        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>1.02</v>
-      </c>
-      <c r="C30">
-        <v>-738.26064061333295</v>
-      </c>
-      <c r="D30">
-        <v>28.723782444444499</v>
-      </c>
-      <c r="E30">
-        <v>0.35238666666666701</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="6"/>
-        <v>15.81</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>3951.8059410000005</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
-        <v>2.6568025244031075</v>
-      </c>
-      <c r="J30">
-        <f>I30^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" t="e">
-        <f>$L$5/(I30*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M30">
-        <f>L30/L32</f>
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="C31">
-        <v>-737.17040198444499</v>
+        <v>-701.76661217777701</v>
       </c>
       <c r="D31">
-        <v>28.372455777777802</v>
+        <v>25.4040826666666</v>
       </c>
       <c r="E31">
-        <v>-2.5063866666666699</v>
+        <v>3.5552333333333301</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
-        <v>15.965</v>
+        <f t="shared" ref="F31:F36" si="5">$F$10*B31</f>
+        <v>14.7</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>4069.1787571250002</v>
+        <v>3176.5229999999997</v>
       </c>
       <c r="H31">
-        <f t="shared" si="7"/>
-        <v>2.580168782611552</v>
+        <f t="shared" ref="H31:H36" si="6">$B$8/G31/(1E-24)</f>
+        <v>3.0388257853004697</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F32">
+      <c r="B32">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>-700.80497264888902</v>
+      </c>
+      <c r="D33">
+        <v>25.526370222222202</v>
+      </c>
+      <c r="E33">
+        <v>-0.58412222222222199</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>3375</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="6"/>
+        <v>2.8601185185185192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f>I34^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
+      <c r="K34" t="e">
+        <f>$L$5/(I34*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34">
+        <f>L34/L36</f>
         <v>0</v>
       </c>
-      <c r="H32" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" t="s">
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
         <v>8</v>
       </c>
-      <c r="L32">
+      <c r="L36">
         <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>0.97</v>
-      </c>
-      <c r="F37">
-        <f>$F$10*B37</f>
-        <v>15.035</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ref="G37" si="8">F37^3</f>
-        <v>3398.6801678750003</v>
-      </c>
-      <c r="H37">
-        <f>$B$8/G37/(1E-24)</f>
-        <v>3.0891897682047929</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>0.98</v>
-      </c>
-      <c r="C38">
-        <v>-743.74325746666705</v>
-      </c>
-      <c r="D38">
-        <v>25.8493855555556</v>
-      </c>
-      <c r="E38">
-        <v>8.1363844444444506</v>
-      </c>
-      <c r="F38">
-        <f>$F$10*B38</f>
-        <v>15.19</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38" si="9">F38^3</f>
-        <v>3504.881359</v>
-      </c>
-      <c r="H38">
-        <f>$B$8/G38/(1E-24)</f>
-        <v>2.9955844220061087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>0.99</v>
-      </c>
-      <c r="C39">
-        <v>-744.043220331111</v>
-      </c>
-      <c r="D39">
-        <v>25.8155251111111</v>
-      </c>
-      <c r="E39">
-        <v>5.2090377777777697</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39:F45" si="10">$F$10*B39</f>
-        <v>15.345000000000001</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G45" si="11">F39^3</f>
-        <v>3613.2721886250006</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39:H45" si="12">$B$8/G39/(1E-24)</f>
-        <v>2.9057229712869672</v>
+      <c r="H39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>0.995</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ref="F40" si="13">$F$10*B40</f>
-        <v>15.422499999999999</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ref="G40" si="14">F40^3</f>
-        <v>3668.2957001406244</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="12"/>
-        <v>2.862137858623969</v>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>-742.69321425999999</v>
-      </c>
-      <c r="D41">
-        <v>25.839372000000001</v>
-      </c>
-      <c r="E41">
-        <v>1.27230222222222</v>
+        <v>0.96</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
-        <v>15.5</v>
+        <f>$F$10*B41</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="G41">
-        <f t="shared" si="11"/>
-        <v>3723.875</v>
+        <f t="shared" ref="G41:G46" si="7">F41^3</f>
+        <v>2985.983999999999</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
-        <v>2.8194200933167735</v>
+        <f>$B$8/G41/(1E-24)</f>
+        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>1.0049999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F44" si="15">$F$10*B42</f>
-        <v>15.577499999999999</v>
+        <f t="shared" ref="F42:F46" si="8">$F$10*B42</f>
+        <v>14.7</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G44" si="16">F42^3</f>
-        <v>3780.0128811093741</v>
+        <f t="shared" si="7"/>
+        <v>3176.5229999999997</v>
       </c>
       <c r="H42">
-        <f t="shared" si="12"/>
-        <v>2.7775482069041675</v>
+        <f t="shared" ref="H42:H46" si="9">$B$8/G42/(1E-24)</f>
+        <v>3.0388257853004697</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>1.01</v>
-      </c>
-      <c r="C43">
-        <v>-741.28435082888802</v>
-      </c>
-      <c r="D43">
-        <v>25.917558222222201</v>
-      </c>
-      <c r="E43">
-        <v>6.3646666666666907E-2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="15"/>
-        <v>15.654999999999999</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="G43">
-        <f t="shared" si="16"/>
-        <v>3836.7121363749993</v>
+        <f t="shared" si="7"/>
+        <v>3375</v>
       </c>
       <c r="H43">
-        <f t="shared" si="12"/>
-        <v>2.7365013654425008</v>
+        <f t="shared" si="9"/>
+        <v>2.8601185185185192</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="15"/>
-        <v>15.732499999999998</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="16"/>
-        <v>3893.9755587031236</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="12"/>
-        <v>2.6962593477337373</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>1.02</v>
-      </c>
-      <c r="C45">
-        <v>-741.62913321333394</v>
-      </c>
-      <c r="D45">
-        <v>25.916210888888902</v>
-      </c>
-      <c r="E45">
-        <v>-2.2028888888888898</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="10"/>
-        <v>15.81</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="11"/>
-        <v>3951.8059410000005</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="12"/>
-        <v>2.6568025244031075</v>
+      <c r="J44">
+        <f>I44^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" t="e">
+        <f>$L$5/(I44*(10^-24))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44">
+        <f>L44/L46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J46">
-        <f>I46^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" t="e">
-        <f>$L$5/(I46*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M46">
-        <f>L46/L48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K48" t="s">
+      <c r="K46" t="s">
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="L46">
         <v>100</v>
       </c>
     </row>
@@ -6559,12 +9151,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
-  <dimension ref="B2:M40"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6579,7 +9171,7 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>715</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -6628,7 +9220,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>9.6529000000000012E-21</v>
+        <v>9.2727600000000011E-21</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -6661,6 +9253,12 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>13.5</v>
+      </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
@@ -6720,105 +9318,69 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.96</v>
-      </c>
-      <c r="C15">
-        <v>-699.78751649111098</v>
-      </c>
-      <c r="D15">
-        <v>27.5374164444444</v>
-      </c>
-      <c r="E15">
-        <v>10.664155555555499</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <f>$F$10*B15</f>
-        <v>14.399999999999999</v>
+        <f>$F$11*B15</f>
+        <v>13.5</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G20" si="0">F15^3</f>
-        <v>2985.983999999999</v>
+        <v>2460.375</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>3.2327366790980809</v>
+        <v>3.7688401158360012</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>0.98</v>
-      </c>
-      <c r="C16">
-        <v>-699.22553231999996</v>
-      </c>
-      <c r="D16">
-        <v>27.329148444444499</v>
-      </c>
-      <c r="E16">
-        <v>5.19390888888889</v>
-      </c>
       <c r="F16">
-        <f t="shared" ref="F16:F20" si="1">$F$10*B16</f>
-        <v>14.7</v>
+        <f t="shared" ref="F16:F20" si="1">$F$11*B16</f>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3176.5229999999997</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
-        <v>3.0388257853004697</v>
+        <f t="shared" ref="G16:G20" si="2">F16^3</f>
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" ref="H16:H20" si="3">$B$8/G16/(1E-24)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>0.99</v>
-      </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>14.85</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>3274.7591249999996</v>
-      </c>
-      <c r="H17">
         <f t="shared" si="2"/>
-        <v>2.947667181475524</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>-698.057605971111</v>
-      </c>
-      <c r="D18">
-        <v>27.54477</v>
-      </c>
-      <c r="E18">
-        <v>0.39500444444444299</v>
-      </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>3375</v>
-      </c>
-      <c r="H18">
         <f t="shared" si="2"/>
-        <v>2.8601185185185192</v>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J18">
         <f>I18^(1/3)</f>
         <v>0</v>
       </c>
       <c r="K18" t="e">
-        <f>$L$5/(I18*(10^-24))</f>
-        <v>#VALUE!</v>
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M18">
         <f>L18/L20</f>
@@ -6826,20 +9388,17 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>1.01</v>
-      </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>3477.2658750000001</v>
-      </c>
-      <c r="H19">
         <f t="shared" si="2"/>
-        <v>2.7760028559794847</v>
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -6848,18 +9407,18 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -6909,884 +9468,414 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>0.96</v>
+        <v>0.88</v>
+      </c>
+      <c r="C25">
+        <v>-704.15527766444404</v>
+      </c>
+      <c r="D25">
+        <v>23.195839804002699</v>
+      </c>
+      <c r="E25">
+        <v>12.065858067632799</v>
       </c>
       <c r="F25">
         <f>$F$10*B25</f>
-        <v>14.399999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:G30" si="3">F25^3</f>
-        <v>2985.983999999999</v>
+        <f t="shared" ref="G25" si="4">F25^3</f>
+        <v>2299.9679999999998</v>
       </c>
       <c r="H25">
         <f>$B$8/G25/(1E-24)</f>
-        <v>3.2327366790980809</v>
+        <v>4.031690875699141</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>0.98</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F30" si="4">$F$10*B26</f>
-        <v>14.7</v>
+        <f t="shared" ref="F26:F31" si="5">$F$10*B26</f>
+        <v>13.275</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>3176.5229999999997</v>
+        <f t="shared" ref="G26:G31" si="6">F26^3</f>
+        <v>2339.395171875</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H30" si="5">$B$8/G26/(1E-24)</f>
-        <v>3.0388257853004697</v>
+        <f t="shared" ref="H26:H31" si="7">$B$8/G26/(1E-24)</f>
+        <v>3.9637424713362921</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>13.35</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
-        <v>3375</v>
+        <f t="shared" si="6"/>
+        <v>2379.2703750000001</v>
       </c>
       <c r="H27">
+        <f t="shared" si="7"/>
+        <v>3.8973124271343065</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="5"/>
-        <v>2.8601185185185192</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.425000000000001</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" t="e">
+        <f t="shared" si="6"/>
+        <v>2419.5961406250008</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>3.8323585677421255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.9</v>
+      </c>
+      <c r="C29">
+        <v>-706.65802437777802</v>
+      </c>
+      <c r="D29">
+        <v>23.2719751111112</v>
+      </c>
+      <c r="E29">
+        <v>2.21814666666666</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28">
-        <f>I28^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" t="e">
-        <f>$L$5/(I28*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28">
-        <f>L28/L30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" t="e">
+        <f t="shared" si="6"/>
+        <v>2460.375</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>3.7688401158360012</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.575000000000001</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" t="e">
+        <f t="shared" si="6"/>
+        <v>2501.6094843750002</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>3.7067176383514147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.91</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
+        <v>13.65</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>2543.3021250000002</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>3.6459529950654215</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>1100</v>
+        <v>0.92</v>
+      </c>
+      <c r="C32">
+        <v>-705.34679249999999</v>
+      </c>
+      <c r="D32">
+        <v>23.015228666666701</v>
+      </c>
+      <c r="E32">
+        <v>-3.45505777777778</v>
+      </c>
+      <c r="F32">
+        <f>$F$10*B32</f>
+        <v>13.8</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G35" si="8">F32^3</f>
+        <v>2628.0720000000006</v>
+      </c>
+      <c r="H32">
+        <f>$B$8/G32/(1E-24)</f>
+        <v>3.5283508214386816</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
-        <v>26</v>
+      <c r="B33">
+        <v>0.94</v>
+      </c>
+      <c r="C33">
+        <v>-704.126350946667</v>
+      </c>
+      <c r="D33">
+        <v>23.065804888888898</v>
+      </c>
+      <c r="E33">
+        <v>-3.71379555555556</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F35" si="9">$F$10*B33</f>
+        <v>14.1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>2803.221</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H35" si="10">$B$8/G33/(1E-24)</f>
+        <v>3.3078947396584151</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" t="s">
-        <v>35</v>
+      <c r="B34">
+        <v>0.96</v>
+      </c>
+      <c r="C34">
+        <v>-702.68675454666595</v>
+      </c>
+      <c r="D34">
+        <v>23.330576666666701</v>
+      </c>
+      <c r="E34">
+        <v>-3.9988800000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>3.1054285622427997</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>0.96</v>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>-701.38569239333299</v>
+      </c>
+      <c r="D35">
+        <v>23.201893999999999</v>
+      </c>
+      <c r="E35">
+        <v>-4.5790600000000001</v>
       </c>
       <c r="F35">
-        <f>$F$10*B35</f>
-        <v>14.399999999999999</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G40" si="6">F35^3</f>
-        <v>2985.983999999999</v>
+        <f t="shared" si="8"/>
+        <v>3375</v>
       </c>
       <c r="H35">
-        <f>$B$8/G35/(1E-24)</f>
-        <v>3.2327366790980809</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>0.98</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36:F40" si="7">$F$10*B36</f>
-        <v>14.7</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
-        <v>3176.5229999999997</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H40" si="8">$B$8/G36/(1E-24)</f>
-        <v>3.0388257853004697</v>
+        <f t="shared" si="10"/>
+        <v>2.7474844444444453</v>
+      </c>
+      <c r="J35">
+        <f>I35^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" t="e">
+        <f>$B$8/(I35*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35">
+        <f>L35/L37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37">
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
-        <v>3375</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="8"/>
-        <v>2.8601185185185192</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H38" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38">
-        <f>I38^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" t="e">
-        <f>$L$5/(I38*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38">
-        <f>L38/L40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="B2:M45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E16:E21,G16:G21^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="e">
-        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
-        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>9.2727600000000011E-21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E16:E21,C16:C21^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="e">
-        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
-        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F16">
-        <f>$F$10*B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G21" si="0">F16^3</f>
-        <v>0</v>
-      </c>
-      <c r="H16" t="e">
-        <f>$B$8/G16/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F17">
-        <f t="shared" ref="F17:F21" si="1">$F$10*B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" ref="H17:H21" si="2">$B$8/G17/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19">
-        <f>I19^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" t="e">
-        <f>$B$8/(I19*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19">
-        <f>L19/L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.88</v>
-      </c>
-      <c r="F27">
-        <f>$F$10*B27</f>
-        <v>13.2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27" si="3">F27^3</f>
-        <v>2299.9679999999998</v>
-      </c>
-      <c r="H27">
-        <f>$B$8/G27/(1E-24)</f>
-        <v>4.031690875699141</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.9</v>
-      </c>
-      <c r="F28">
-        <f>$F$10*B28</f>
+      <c r="F42">
+        <f>$F$11*B42</f>
         <v>13.5</v>
       </c>
-      <c r="G28">
-        <f t="shared" ref="G28" si="4">F28^3</f>
+      <c r="G42">
+        <f t="shared" ref="G42:G47" si="11">F42^3</f>
         <v>2460.375</v>
       </c>
-      <c r="H28">
-        <f>$B$8/G28/(1E-24)</f>
+      <c r="H42">
+        <f>$B$8/G42/(1E-24)</f>
         <v>3.7688401158360012</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>0.92</v>
-      </c>
-      <c r="C29">
-        <v>-705.34679249999999</v>
-      </c>
-      <c r="D29">
-        <v>23.015228666666701</v>
-      </c>
-      <c r="E29">
-        <v>-3.45505777777778</v>
-      </c>
-      <c r="F29">
-        <f>$F$10*B29</f>
-        <v>13.8</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G32" si="5">F29^3</f>
-        <v>2628.0720000000006</v>
-      </c>
-      <c r="H29">
-        <f>$B$8/G29/(1E-24)</f>
-        <v>3.5283508214386816</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>0.94</v>
-      </c>
-      <c r="C30">
-        <v>-704.126350946667</v>
-      </c>
-      <c r="D30">
-        <v>23.065804888888898</v>
-      </c>
-      <c r="E30">
-        <v>-3.71379555555556</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:F32" si="6">$F$10*B30</f>
-        <v>14.1</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>2803.221</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H32" si="7">$B$8/G30/(1E-24)</f>
-        <v>3.3078947396584151</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>0.96</v>
-      </c>
-      <c r="C31">
-        <v>-702.68675454666595</v>
-      </c>
-      <c r="D31">
-        <v>23.330576666666701</v>
-      </c>
-      <c r="E31">
-        <v>-3.9988800000000002</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="6"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>2985.983999999999</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="7"/>
-        <v>3.1054285622427997</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>-701.38569239333299</v>
-      </c>
-      <c r="D32">
-        <v>23.201893999999999</v>
-      </c>
-      <c r="E32">
-        <v>-4.5790600000000001</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>3375</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="7"/>
-        <v>2.7474844444444453</v>
-      </c>
-      <c r="J32">
-        <f>I32^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" t="e">
-        <f>$B$8/(I32*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32">
-        <f>L32/L34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K34" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F40">
-        <f>$F$10*B40</f>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ref="G40:G45" si="8">F40^3</f>
-        <v>0</v>
-      </c>
-      <c r="H40" t="e">
-        <f>$B$8/G40/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F41">
-        <f t="shared" ref="F41:F45" si="9">$F$10*B41</f>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H41" t="e">
-        <f t="shared" ref="H41:H45" si="10">$B$8/G41/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H42" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F43">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F43:F47" si="12">$F$11*B43</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H43" t="e">
-        <f t="shared" si="10"/>
+        <f>$B$8/G43/(1E-24)</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="J43">
-        <f>I43^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" t="e">
-        <f>$B$8/(I43*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43">
-        <f>L43/L45</f>
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H44" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H44:H48" si="13">$B$8/G44/(1E-24)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H45" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" t="s">
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46">
+        <f>I46^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" t="e">
+        <f>$B$8/(I46*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46">
+        <f>L46/L48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
         <v>8</v>
       </c>
-      <c r="L45">
+      <c r="L48">
         <v>30</v>
       </c>
     </row>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFEEF6B-C9C9-7D4C-A6DF-835488E3D947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E746C-9745-E743-B5CB-92FB1C0ECDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="21840" windowHeight="15980" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="25380" windowHeight="18540" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="KF-42ZrF4" sheetId="4" r:id="rId4"/>
     <sheet name="KF-55ZrF4" sheetId="5" r:id="rId5"/>
     <sheet name="ZrF4" sheetId="6" r:id="rId6"/>
+    <sheet name="summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="45">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -182,6 +183,21 @@
   </si>
   <si>
     <t>Lx0_1300/1100</t>
+  </si>
+  <si>
+    <t>KCl</t>
+  </si>
+  <si>
+    <t>KCl-14ZrF4</t>
+  </si>
+  <si>
+    <t>KCl-42ZrF4</t>
+  </si>
+  <si>
+    <t>KCl-55ZrF4</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -672,7 +688,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'KF-14ZrF4'!$G$15:$G$22</c:f>
+              <c:f>'KF-14ZrF4'!$G$40:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -705,7 +721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'KF-14ZrF4'!$E$15:$E$22</c:f>
+              <c:f>'KF-14ZrF4'!$E$40:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1029,7 +1045,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'KF-14ZrF4'!$C$15:$C$22</c:f>
+              <c:f>'KF-14ZrF4'!$C$40:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1062,7 +1078,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'KF-14ZrF4'!$E$15:$E$22</c:f>
+              <c:f>'KF-14ZrF4'!$E$40:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1675,72 +1691,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'KF-42ZrF4'!$C$43:$C$51</c:f>
+              <c:f>'KF-42ZrF4'!$C$15:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-745.24667392000003</c:v>
+                  <c:v>-737.83342256888898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-743.74325746666705</c:v>
+                  <c:v>-737.64876905999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-744.043220331111</c:v>
+                  <c:v>-737.17077008000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-743.56645185333298</c:v>
+                  <c:v>-736.51976630444506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-742.69321425999999</c:v>
+                  <c:v>-736.083428924445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-742.75273983555599</c:v>
+                  <c:v>-735.31271843555601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-741.28435082888802</c:v>
+                  <c:v>-734.85377556444496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-741.89380517555605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-741.62913321333394</c:v>
+                  <c:v>-734.62908651999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'KF-42ZrF4'!$E$43:$E$51</c:f>
+              <c:f>'KF-42ZrF4'!$E$15:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.993124444444399</c:v>
+                  <c:v>11.2255133333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1363844444444506</c:v>
+                  <c:v>9.0144844444444505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2090377777777697</c:v>
+                  <c:v>4.7506311111111099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.26867111111111</c:v>
+                  <c:v>2.3620533333333298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.27230222222222</c:v>
+                  <c:v>2.0604977777777802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70165333333333402</c:v>
+                  <c:v>-0.75654666666667003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3646666666666907E-2</c:v>
+                  <c:v>-0.71365555555555504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16219111111111301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.2028888888888898</c:v>
+                  <c:v>-2.0962755555555499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,6 +1894,1026 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1696299087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ZrF4!$G$26:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2299.9679999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2339.395171875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2379.2703750000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2419.5961406250008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2501.6094843750002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2543.3021250000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2628.0720000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ZrF4!$E$26:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.065858067632799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3244911111111097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3531088888888796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5688088888888898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.21814666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9658177777777801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72406222222222705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B76-DE43-9274-53F0F23A6E86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2014724784"/>
+        <c:axId val="2014720272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2014724784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014720272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2014720272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014724784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$7:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7525527055969974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8043151656857856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8534134446766684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$K$7:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1372820970563007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1725903779491365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2201025806921408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$7:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6211362176344863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6831495714253357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7374781174791809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$M$7:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1741735072"/>
+        <c:axId val="1711071728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1741735072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711071728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1711071728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741735072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,6 +3169,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4204,6 +5314,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4844,15 +6986,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4879,16 +7021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4910,6 +7052,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532DD51D-CA6E-F146-36D0-967874201434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB72F53-6BB8-F802-7358-B9E4F5002427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5666,7 +7890,7 @@
   <dimension ref="B2:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="I39" activeCellId="3" sqref="I14:M14 I18:M18 I29:M29 I39:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5711,14 +7935,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E27:E32,G27:G32^{1,2})</f>
-        <v>8.7872111043677215E-6</v>
+        <f t="array" ref="J6:L6">LINEST(E37:E43,G37:G43^{1,2})</f>
+        <v>1.1488136938258255E-5</v>
       </c>
       <c r="K6">
-        <v>-0.10532929334349549</v>
+        <v>-0.1318257126103019</v>
       </c>
       <c r="L6">
-        <v>311.840877100353</v>
+        <v>374.78920226580379</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -5730,11 +7954,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>6650.5613048206105</v>
+        <v>6280.2031743666766</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>5336.0965883920726</v>
+        <v>5194.7394833318594</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -5767,14 +7991,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E15:E21,C15:C21^{1,2})</f>
-        <v>0.10511559262018591</v>
+        <f t="array" ref="J10:L10">LINEST(E37:E43,C37:C43^{1,2})</f>
+        <v>0.13089400773182092</v>
       </c>
       <c r="K10">
-        <v>91.123197101902093</v>
+        <v>115.82201220267497</v>
       </c>
       <c r="L10">
-        <v>19746.256059849064</v>
+        <v>25618.714197990226</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -5783,11 +8007,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-428.98213962382243</v>
+        <v>-437.9169659065949</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-437.90349390114346</v>
+        <v>-446.93646787300298</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -6200,9 +8424,12 @@
         <f>$B$8/(I29*(10^-24))</f>
         <v>1.8043151656857856</v>
       </c>
+      <c r="L29">
+        <v>-442.33984902235039</v>
+      </c>
       <c r="M29">
         <f>L29/L30</f>
-        <v>0</v>
+        <v>-4.4233984902235042</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -6411,17 +8638,23 @@
         <f t="shared" ref="H39:H43" si="13">$B$8/G39/(1E-24)</f>
         <v>1.9885088406214562</v>
       </c>
+      <c r="I39">
+        <v>5194.7394833318594</v>
+      </c>
       <c r="J39">
         <f>I39^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" t="e">
+        <v>17.318938000729784</v>
+      </c>
+      <c r="K39">
         <f>$B$8/(I39*(10^-24))</f>
-        <v>#DIV/0!</v>
+        <v>1.8534134446766684</v>
+      </c>
+      <c r="L39">
+        <v>-446.93646787300298</v>
       </c>
       <c r="M39">
         <f>L39/L40</f>
-        <v>0</v>
+        <v>-4.4693646787300301</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -6569,10 +8802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
-  <dimension ref="B2:M52"/>
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6617,7 +8850,7 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E45:E52,G45:G52^{1,2})</f>
+        <f t="array" ref="J6:L6">LINEST(E15:E22,G15:G22^{1,2})</f>
         <v>1.3265557157005496E-5</v>
       </c>
       <c r="K6">
@@ -6673,7 +8906,7 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E45:E52,C45:C52^{1,2})</f>
+        <f t="array" ref="J10:L10">LINEST(E15:E22,C15:C22^{1,2})</f>
         <v>-6.375624473831451E-2</v>
       </c>
       <c r="K10">
@@ -6698,7 +8931,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -6743,202 +8976,202 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C15">
-        <v>-528.25467925555597</v>
+        <v>-523.37667997999995</v>
       </c>
       <c r="D15">
-        <v>24.0418186666667</v>
+        <v>28.074015111111098</v>
       </c>
       <c r="E15">
-        <v>14.2376111111111</v>
+        <v>12.820624444444499</v>
       </c>
       <c r="F15">
         <f>$F$10*B15</f>
-        <v>15.2</v>
+        <v>15.36</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="0">F15^3</f>
-        <v>3511.8079999999995</v>
+        <v>3623.8786559999999</v>
       </c>
       <c r="H15">
         <f>$B$8/G15/(1E-24)</f>
-        <v>2.5251152682606799</v>
+        <v>2.4470245396649397</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C16">
-        <v>-527.84212601333297</v>
+        <v>-522.04771110888805</v>
       </c>
       <c r="D16">
-        <v>23.9372557777778</v>
+        <v>28.5797197777778</v>
       </c>
       <c r="E16">
-        <v>8.47206444444444</v>
+        <v>9.2870533333333292</v>
       </c>
       <c r="F16">
-        <f>$F$10*B16</f>
-        <v>15.36</v>
+        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <v>15.52</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G23" si="1">F16^3</f>
-        <v>3623.8786559999999</v>
+        <f t="shared" ref="G16:G22" si="2">F16^3</f>
+        <v>3738.3086079999998</v>
       </c>
       <c r="H16">
-        <f>$B$8/G16/(1E-24)</f>
-        <v>2.4470245396649397</v>
+        <f t="shared" ref="H16:H22" si="3">$B$8/G16/(1E-24)</f>
+        <v>2.3721209054338193</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C17">
-        <v>-527.18377083111102</v>
+        <v>-521.28418319555499</v>
       </c>
       <c r="D17">
-        <v>24.066739999999999</v>
+        <v>28.730115333333298</v>
       </c>
       <c r="E17">
-        <v>6.4389200000000004</v>
+        <v>6.1875311111111104</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F22" si="2">$F$10*B17</f>
-        <v>15.52</v>
+        <f t="shared" si="1"/>
+        <v>15.68</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G22" si="3">F17^3</f>
-        <v>3738.3086079999998</v>
+        <f t="shared" si="2"/>
+        <v>3855.1224319999997</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H22" si="4">$B$8/G17/(1E-24)</f>
-        <v>2.3721209054338193</v>
+        <f t="shared" si="3"/>
+        <v>2.3002434180539151</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C18">
-        <v>-525.92149071333301</v>
+        <v>-519.98656403111102</v>
       </c>
       <c r="D18">
-        <v>23.891061333333301</v>
+        <v>28.2896246666667</v>
       </c>
       <c r="E18">
-        <v>2.7732222222222198</v>
+        <v>3.53874222222223</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
+        <v>15.84</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="2"/>
-        <v>15.68</v>
-      </c>
-      <c r="G18">
+        <v>3974.3447039999996</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>3855.1224319999997</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>2.3002434180539151</v>
+        <v>2.2312407857011092</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="C19">
-        <v>-525.56425348222206</v>
+        <v>-519.84563150888903</v>
       </c>
       <c r="D19">
-        <v>24.092456666666699</v>
+        <v>28.537317777777801</v>
       </c>
       <c r="E19">
-        <v>1.25029777777778</v>
+        <v>2.0832044444444402</v>
       </c>
       <c r="F19">
+        <f t="shared" si="1"/>
+        <v>15.92</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="2"/>
-        <v>15.76</v>
-      </c>
-      <c r="G19">
+        <v>4034.8666880000001</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="3"/>
-        <v>3914.4309760000001</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>2.2653918422292807</v>
+        <v>2.1977727359303527</v>
       </c>
       <c r="I19">
-        <v>3994.2839025192211</v>
+        <v>4149.0639032692943</v>
       </c>
       <c r="J19">
         <f>I19^(1/3)</f>
-        <v>15.866445465692877</v>
+        <v>16.068797382569095</v>
       </c>
       <c r="K19">
         <f>$B$8/(I19*(10^-24))</f>
-        <v>2.2201025806921408</v>
+        <v>2.1372820970563007</v>
       </c>
       <c r="L19">
-        <v>-524.99364174123298</v>
+        <v>-519.11584824859972</v>
       </c>
       <c r="M19">
         <f>L19/L21</f>
-        <v>-7.4999091677319001</v>
+        <v>-7.4159406892657103</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-525.34512331333406</v>
+        <v>-519.41449992000003</v>
       </c>
       <c r="D20">
-        <v>24.265241777777799</v>
+        <v>28.180623333333301</v>
       </c>
       <c r="E20">
-        <v>0.96986444444444497</v>
+        <v>1.3138777777777799</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="2"/>
-        <v>15.84</v>
-      </c>
-      <c r="G20">
+        <v>4096</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="3"/>
-        <v>3974.3447039999996</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>2.2312407857011092</v>
+        <v>2.1649707031250003</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>0.995</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C21">
-        <v>-524.15501022222304</v>
+        <v>-518.85688919999996</v>
       </c>
       <c r="D21">
-        <v>24.065220888888899</v>
+        <v>28.029070222222199</v>
       </c>
       <c r="E21">
-        <v>-0.47470888888888901</v>
+        <v>-0.60583111111111099</v>
       </c>
       <c r="F21">
+        <f t="shared" si="1"/>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="2"/>
-        <v>15.92</v>
-      </c>
-      <c r="G21">
+        <v>4157.7477119999985</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="3"/>
-        <v>4034.8666880000001</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>2.1977727359303527</v>
+        <v>2.132818202125681</v>
       </c>
       <c r="K21" t="s">
         <v>8</v>
@@ -6949,634 +9182,634 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C22">
-        <v>-523.81104607333305</v>
+        <v>-519.01832318444497</v>
       </c>
       <c r="D22">
-        <v>24.041715111111099</v>
+        <v>28.218963111111101</v>
       </c>
       <c r="E22">
-        <v>-1.9249666666666601</v>
+        <v>-1.0133333333333301</v>
       </c>
       <c r="F22">
+        <f t="shared" si="1"/>
+        <v>16.16</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G22">
+        <v>4220.1128959999996</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="3"/>
-        <v>4096</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>2.1649707031250003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1.02</v>
-      </c>
-      <c r="C23">
-        <v>-521.49088338000001</v>
-      </c>
-      <c r="D23">
-        <v>23.771260444444401</v>
-      </c>
-      <c r="E23">
-        <v>-4.7992933333333303</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23" si="5">$F$10*B23</f>
-        <v>16.32</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>4346.7079679999997</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23" si="6">$B$8/G23/(1E-24)</f>
-        <v>2.0401002471947067</v>
+        <v>2.1012992350051105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>1200</v>
+        <v>0.96</v>
+      </c>
+      <c r="C27">
+        <v>-525.45463531999997</v>
+      </c>
+      <c r="D27">
+        <v>26.361683777777799</v>
+      </c>
+      <c r="E27">
+        <v>10.8266288888889</v>
+      </c>
+      <c r="F27">
+        <f>$F$10*B27</f>
+        <v>15.36</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="4">F27^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H27">
+        <f>$B$8/G27/(1E-24)</f>
+        <v>2.4470245396649397</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H28" t="s">
-        <v>26</v>
+      <c r="B28">
+        <v>0.97</v>
+      </c>
+      <c r="C28">
+        <v>-524.46697975333302</v>
+      </c>
+      <c r="D28">
+        <v>26.1851522222222</v>
+      </c>
+      <c r="E28">
+        <v>6.86597777777778</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F34" si="5">$F$10*B28</f>
+        <v>15.52</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G34" si="6">F28^3</f>
+        <v>3738.3086079999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H34" si="7">$B$8/G28/(1E-24)</f>
+        <v>2.3721209054338193</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
+      <c r="B29">
+        <v>0.98</v>
+      </c>
+      <c r="C29">
+        <v>-524.47880021555602</v>
+      </c>
+      <c r="D29">
+        <v>26.180476444444398</v>
+      </c>
+      <c r="E29">
+        <v>4.0373111111111104</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>15.68</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>2.3002434180539151</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>0.96</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C30">
-        <v>-525.45463531999997</v>
+        <v>-523.56711291111196</v>
       </c>
       <c r="D30">
-        <v>26.361683777777799</v>
+        <v>26.176381111111102</v>
       </c>
       <c r="E30">
-        <v>10.8266288888889</v>
+        <v>2.9937155555555601</v>
       </c>
       <c r="F30">
-        <f>$F$10*B30</f>
-        <v>15.36</v>
+        <f t="shared" ref="F30" si="8">$F$10*B30</f>
+        <v>15.76</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="7">F30^3</f>
-        <v>3623.8786559999999</v>
+        <f t="shared" ref="G30" si="9">F30^3</f>
+        <v>3914.4309760000001</v>
       </c>
       <c r="H30">
-        <f>$B$8/G30/(1E-24)</f>
-        <v>2.4470245396649397</v>
+        <f t="shared" si="7"/>
+        <v>2.2653918422292807</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="C31">
-        <v>-524.46697975333302</v>
+        <v>-522.44468174666702</v>
       </c>
       <c r="D31">
-        <v>26.1851522222222</v>
+        <v>26.290647111111099</v>
       </c>
       <c r="E31">
-        <v>6.86597777777778</v>
+        <v>2.0696022222222199</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F37" si="8">$F$10*B31</f>
-        <v>15.52</v>
+        <f t="shared" si="5"/>
+        <v>15.84</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G37" si="9">F31^3</f>
-        <v>3738.3086079999998</v>
+        <f t="shared" si="6"/>
+        <v>3974.3447039999996</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H37" si="10">$B$8/G31/(1E-24)</f>
-        <v>2.3721209054338193</v>
+        <f t="shared" si="7"/>
+        <v>2.2312407857011092</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>0.98</v>
+        <v>0.995</v>
       </c>
       <c r="C32">
-        <v>-524.47880021555602</v>
+        <v>-522.14655775999995</v>
       </c>
       <c r="D32">
-        <v>26.180476444444398</v>
+        <v>26.196605111111101</v>
       </c>
       <c r="E32">
-        <v>4.0373111111111104</v>
+        <v>0.86381333333333299</v>
       </c>
       <c r="F32">
-        <f t="shared" si="8"/>
-        <v>15.68</v>
+        <f t="shared" si="5"/>
+        <v>15.92</v>
       </c>
       <c r="G32">
-        <f t="shared" si="9"/>
-        <v>3855.1224319999997</v>
+        <f t="shared" si="6"/>
+        <v>4034.8666880000001</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
-        <v>2.3002434180539151</v>
+        <f t="shared" si="7"/>
+        <v>2.1977727359303527</v>
+      </c>
+      <c r="I32">
+        <v>4081.634573182117</v>
+      </c>
+      <c r="J32">
+        <f>I32^(1/3)</f>
+        <v>15.98127310718343</v>
+      </c>
+      <c r="K32">
+        <f>$B$8/(I32*(10^-24))</f>
+        <v>2.1725903779491365</v>
+      </c>
+      <c r="L32">
+        <v>-521.80565933729838</v>
+      </c>
+      <c r="M32">
+        <f>L32/L34</f>
+        <v>-7.4543665619614057</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>0.98499999999999999</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>-523.56711291111196</v>
+        <v>-521.40108918666601</v>
       </c>
       <c r="D33">
-        <v>26.176381111111102</v>
+        <v>26.053430888888901</v>
       </c>
       <c r="E33">
-        <v>2.9937155555555601</v>
+        <v>-0.46448444444444298</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="11">$F$10*B33</f>
-        <v>15.76</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="12">F33^3</f>
-        <v>3914.4309760000001</v>
+        <f t="shared" si="6"/>
+        <v>4096</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
-        <v>2.2653918422292807</v>
+        <f t="shared" si="7"/>
+        <v>2.1649707031250003</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>0.99</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C34">
-        <v>-522.44468174666702</v>
+        <v>-521.68680275999998</v>
       </c>
       <c r="D34">
-        <v>26.290647111111099</v>
+        <v>26.075939777777801</v>
       </c>
       <c r="E34">
-        <v>2.0696022222222199</v>
+        <v>-0.96124666666666503</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
-        <v>15.84</v>
+        <f t="shared" si="5"/>
+        <v>16.079999999999998</v>
       </c>
       <c r="G34">
-        <f t="shared" si="9"/>
-        <v>3974.3447039999996</v>
+        <f t="shared" si="6"/>
+        <v>4157.7477119999985</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
-        <v>2.2312407857011092</v>
+        <f t="shared" si="7"/>
+        <v>2.132818202125681</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>0.995</v>
+        <v>1.02</v>
       </c>
       <c r="C35">
-        <v>-522.14655775999995</v>
+        <v>-519.23876108444495</v>
       </c>
       <c r="D35">
-        <v>26.196605111111101</v>
+        <v>26.287757111111102</v>
       </c>
       <c r="E35">
-        <v>0.86381333333333299</v>
+        <v>-3.5029422222222202</v>
       </c>
       <c r="F35">
-        <f t="shared" si="8"/>
-        <v>15.92</v>
+        <f t="shared" ref="F35" si="10">$F$10*B35</f>
+        <v>16.32</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
-        <v>4034.8666880000001</v>
+        <f t="shared" ref="G35" si="11">F35^3</f>
+        <v>4346.7079679999997</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
-        <v>2.1977727359303527</v>
-      </c>
-      <c r="I35">
-        <v>4081.634573182117</v>
-      </c>
-      <c r="J35">
-        <f>I35^(1/3)</f>
-        <v>15.98127310718343</v>
-      </c>
-      <c r="K35">
-        <f>$B$8/(I35*(10^-24))</f>
-        <v>2.1725903779491365</v>
-      </c>
-      <c r="L35">
-        <v>-521.80565933729838</v>
-      </c>
-      <c r="M35">
-        <f>L35/L37</f>
-        <v>-7.4543665619614057</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>-521.40108918666601</v>
-      </c>
-      <c r="D36">
-        <v>26.053430888888901</v>
-      </c>
-      <c r="E36">
-        <v>-0.46448444444444298</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>4096</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="10"/>
-        <v>2.1649707031250003</v>
+        <f t="shared" ref="H35" si="12">$B$8/G35/(1E-24)</f>
+        <v>2.0401002471947067</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C37">
-        <v>-521.68680275999998</v>
-      </c>
-      <c r="D37">
-        <v>26.075939777777801</v>
-      </c>
-      <c r="E37">
-        <v>-0.96124666666666503</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="8"/>
-        <v>16.079999999999998</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="9"/>
-        <v>4157.7477119999985</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="10"/>
-        <v>2.132818202125681</v>
-      </c>
-      <c r="K37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37">
-        <v>70</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>1.02</v>
-      </c>
-      <c r="C38">
-        <v>-519.23876108444495</v>
-      </c>
-      <c r="D38">
-        <v>26.287757111111102</v>
-      </c>
-      <c r="E38">
-        <v>-3.5029422222222202</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38" si="13">$F$10*B38</f>
-        <v>16.32</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38" si="14">F38^3</f>
-        <v>4346.7079679999997</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38" si="15">$B$8/G38/(1E-24)</f>
-        <v>2.0401002471947067</v>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0.95</v>
+      </c>
+      <c r="C40">
+        <v>-528.25467925555597</v>
+      </c>
+      <c r="D40">
+        <v>24.0418186666667</v>
+      </c>
+      <c r="E40">
+        <v>14.2376111111111</v>
+      </c>
+      <c r="F40">
+        <f>$F$10*B40</f>
+        <v>15.2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="13">F40^3</f>
+        <v>3511.8079999999995</v>
+      </c>
+      <c r="H40">
+        <f>$B$8/G40/(1E-24)</f>
+        <v>2.5251152682606799</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0.96</v>
+      </c>
+      <c r="C41">
+        <v>-527.84212601333297</v>
+      </c>
+      <c r="D41">
+        <v>23.9372557777778</v>
+      </c>
+      <c r="E41">
+        <v>8.47206444444444</v>
+      </c>
+      <c r="F41">
+        <f>$F$10*B41</f>
+        <v>15.36</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G48" si="14">F41^3</f>
+        <v>3623.8786559999999</v>
+      </c>
+      <c r="H41">
+        <f>$B$8/G41/(1E-24)</f>
+        <v>2.4470245396649397</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>1300</v>
+        <v>0.97</v>
+      </c>
+      <c r="C42">
+        <v>-527.18377083111102</v>
+      </c>
+      <c r="D42">
+        <v>24.066739999999999</v>
+      </c>
+      <c r="E42">
+        <v>6.4389200000000004</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F47" si="15">$F$10*B42</f>
+        <v>15.52</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G47" si="16">F42^3</f>
+        <v>3738.3086079999998</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H47" si="17">$B$8/G42/(1E-24)</f>
+        <v>2.3721209054338193</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H43" t="s">
-        <v>26</v>
+      <c r="B43">
+        <v>0.98</v>
+      </c>
+      <c r="C43">
+        <v>-525.92149071333301</v>
+      </c>
+      <c r="D43">
+        <v>23.891061333333301</v>
+      </c>
+      <c r="E43">
+        <v>2.7732222222222198</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>15.68</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="16"/>
+        <v>3855.1224319999997</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="17"/>
+        <v>2.3002434180539151</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" t="s">
-        <v>35</v>
+      <c r="B44">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C44">
+        <v>-525.56425348222206</v>
+      </c>
+      <c r="D44">
+        <v>24.092456666666699</v>
+      </c>
+      <c r="E44">
+        <v>1.25029777777778</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="15"/>
+        <v>15.76</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="16"/>
+        <v>3914.4309760000001</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="17"/>
+        <v>2.2653918422292807</v>
+      </c>
+      <c r="I44">
+        <v>3994.2839025192211</v>
+      </c>
+      <c r="J44">
+        <f>I44^(1/3)</f>
+        <v>15.866445465692877</v>
+      </c>
+      <c r="K44">
+        <f>$B$8/(I44*(10^-24))</f>
+        <v>2.2201025806921408</v>
+      </c>
+      <c r="L44">
+        <v>-524.99364174123298</v>
+      </c>
+      <c r="M44">
+        <f>L44/L46</f>
+        <v>-7.4999091677319001</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="C45">
-        <v>-523.37667997999995</v>
+        <v>-525.34512331333406</v>
       </c>
       <c r="D45">
-        <v>28.074015111111098</v>
+        <v>24.265241777777799</v>
       </c>
       <c r="E45">
-        <v>12.820624444444499</v>
+        <v>0.96986444444444497</v>
       </c>
       <c r="F45">
-        <f>$F$10*B45</f>
-        <v>15.36</v>
+        <f t="shared" si="15"/>
+        <v>15.84</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45" si="16">F45^3</f>
-        <v>3623.8786559999999</v>
+        <f t="shared" si="16"/>
+        <v>3974.3447039999996</v>
       </c>
       <c r="H45">
-        <f>$B$8/G45/(1E-24)</f>
-        <v>2.4470245396649397</v>
+        <f t="shared" si="17"/>
+        <v>2.2312407857011092</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>0.97</v>
+        <v>0.995</v>
       </c>
       <c r="C46">
-        <v>-522.04771110888805</v>
+        <v>-524.15501022222304</v>
       </c>
       <c r="D46">
-        <v>28.5797197777778</v>
+        <v>24.065220888888899</v>
       </c>
       <c r="E46">
-        <v>9.2870533333333292</v>
+        <v>-0.47470888888888901</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F52" si="17">$F$10*B46</f>
-        <v>15.52</v>
+        <f t="shared" si="15"/>
+        <v>15.92</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G52" si="18">F46^3</f>
-        <v>3738.3086079999998</v>
+        <f t="shared" si="16"/>
+        <v>4034.8666880000001</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46:H52" si="19">$B$8/G46/(1E-24)</f>
-        <v>2.3721209054338193</v>
+        <f t="shared" si="17"/>
+        <v>2.1977727359303527</v>
+      </c>
+      <c r="K46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>-521.28418319555499</v>
+        <v>-523.81104607333305</v>
       </c>
       <c r="D47">
-        <v>28.730115333333298</v>
+        <v>24.041715111111099</v>
       </c>
       <c r="E47">
-        <v>6.1875311111111104</v>
+        <v>-1.9249666666666601</v>
       </c>
       <c r="F47">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="16"/>
+        <v>4096</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="17"/>
-        <v>15.68</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="18"/>
-        <v>3855.1224319999997</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="19"/>
-        <v>2.3002434180539151</v>
+        <v>2.1649707031250003</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="C48">
-        <v>-519.98656403111102</v>
+        <v>-521.49088338000001</v>
       </c>
       <c r="D48">
-        <v>28.2896246666667</v>
+        <v>23.771260444444401</v>
       </c>
       <c r="E48">
-        <v>3.53874222222223</v>
+        <v>-4.7992933333333303</v>
       </c>
       <c r="F48">
-        <f t="shared" si="17"/>
-        <v>15.84</v>
+        <f t="shared" ref="F48" si="18">$F$10*B48</f>
+        <v>16.32</v>
       </c>
       <c r="G48">
-        <f t="shared" si="18"/>
-        <v>3974.3447039999996</v>
+        <f t="shared" si="14"/>
+        <v>4346.7079679999997</v>
       </c>
       <c r="H48">
-        <f t="shared" si="19"/>
-        <v>2.2312407857011092</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>0.995</v>
-      </c>
-      <c r="C49">
-        <v>-519.84563150888903</v>
-      </c>
-      <c r="D49">
-        <v>28.537317777777801</v>
-      </c>
-      <c r="E49">
-        <v>2.0832044444444402</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="17"/>
-        <v>15.92</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="18"/>
-        <v>4034.8666880000001</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="19"/>
-        <v>2.1977727359303527</v>
-      </c>
-      <c r="I49">
-        <v>4149.0639032692943</v>
-      </c>
-      <c r="J49">
-        <f>I49^(1/3)</f>
-        <v>16.068797382569095</v>
-      </c>
-      <c r="K49">
-        <f>$B$8/(I49*(10^-24))</f>
-        <v>2.1372820970563007</v>
-      </c>
-      <c r="L49">
-        <v>-519.11584824859972</v>
-      </c>
-      <c r="M49">
-        <f>L49/L51</f>
-        <v>-7.4159406892657103</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>-519.41449992000003</v>
-      </c>
-      <c r="D50">
-        <v>28.180623333333301</v>
-      </c>
-      <c r="E50">
-        <v>1.3138777777777799</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="18"/>
-        <v>4096</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="19"/>
-        <v>2.1649707031250003</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C51">
-        <v>-518.85688919999996</v>
-      </c>
-      <c r="D51">
-        <v>28.029070222222199</v>
-      </c>
-      <c r="E51">
-        <v>-0.60583111111111099</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="17"/>
-        <v>16.079999999999998</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="18"/>
-        <v>4157.7477119999985</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="19"/>
-        <v>2.132818202125681</v>
-      </c>
-      <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>1.01</v>
-      </c>
-      <c r="C52">
-        <v>-519.01832318444497</v>
-      </c>
-      <c r="D52">
-        <v>28.218963111111101</v>
-      </c>
-      <c r="E52">
-        <v>-1.0133333333333301</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="17"/>
-        <v>16.16</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="18"/>
-        <v>4220.1128959999996</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="19"/>
-        <v>2.1012992350051105</v>
+        <f t="shared" ref="H48" si="19">$B$8/G48/(1E-24)</f>
+        <v>2.0401002471947067</v>
       </c>
     </row>
   </sheetData>
@@ -7589,8 +9822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I47" activeCellId="2" sqref="I19:M19 I32:M32 I47:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7635,14 +9868,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E43:E51,G43:G51^{1,2})</f>
-        <v>2.0852058724026502E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E15:E22,G15:G22^{1,2})</f>
+        <v>1.7246802111600993E-5</v>
       </c>
       <c r="K6">
-        <v>-0.17657589269897869</v>
+        <v>-0.15239983992531181</v>
       </c>
       <c r="L6">
-        <v>370.49833722748724</v>
+        <v>333.73046751087799</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7654,11 +9887,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4632.6884542522184</v>
+        <v>4830.8325379781254</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3835.3431696718744</v>
+        <v>4005.5789277045856</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -7691,14 +9924,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E43:E51,C43:C51^{1,2})</f>
-        <v>0.47373745805304301</v>
+        <f t="array" ref="J10:L10">LINEST(E15:E22,C15:C22^{1,2})</f>
+        <v>1.1583689013888445</v>
       </c>
       <c r="K10">
-        <v>701.04907772877675</v>
+        <v>1701.9788003312319</v>
       </c>
       <c r="L10">
-        <v>259355.59433418571</v>
+        <v>625173.37240701751</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -7707,11 +9940,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-737.81028514505522</v>
+        <v>-733.56402404188555</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-742.01586288625015</v>
+        <v>-735.72507573506607</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -7841,6 +10074,15 @@
       <c r="B18">
         <v>1.01</v>
       </c>
+      <c r="C18">
+        <v>-736.51976630444506</v>
+      </c>
+      <c r="D18">
+        <v>30.911700444444499</v>
+      </c>
+      <c r="E18">
+        <v>2.3620533333333298</v>
+      </c>
       <c r="F18">
         <f t="shared" ref="F18" si="4">$F$10*B18</f>
         <v>15.654999999999999</v>
@@ -7879,11 +10121,38 @@
         <f t="shared" si="3"/>
         <v>2.6568025244031075</v>
       </c>
+      <c r="I19">
+        <v>4005.5789277045856</v>
+      </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>15.881387087721786</v>
+      </c>
+      <c r="K19">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>2.6211362176344863</v>
+      </c>
+      <c r="L19">
+        <v>-735.72507573506607</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>-7.3572507573506609</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
+      <c r="C20">
+        <v>-735.31271843555601</v>
+      </c>
+      <c r="D20">
+        <v>30.505687111111101</v>
+      </c>
+      <c r="E20">
+        <v>-0.75654666666667003</v>
+      </c>
       <c r="F20">
         <f t="shared" si="2"/>
         <v>15.887499999999999</v>
@@ -7922,6 +10191,12 @@
         <f t="shared" si="3"/>
         <v>2.580168782611552</v>
       </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -7949,28 +10224,6 @@
         <v>2.5064541965222218</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J23">
-        <f>I23^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" t="e">
-        <f>$B$8/(I23*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23">
-        <f>L23/L25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-    </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1200</v>
@@ -8098,6 +10351,15 @@
       <c r="B32">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C32">
+        <v>-740.16898934000005</v>
+      </c>
+      <c r="D32">
+        <v>28.419596888888901</v>
+      </c>
+      <c r="E32">
+        <v>2.4240622222222199</v>
+      </c>
       <c r="F32">
         <f t="shared" ref="F32" si="11">$F$10*B32</f>
         <v>15.577499999999999</v>
@@ -8110,6 +10372,24 @@
         <f t="shared" ref="H32" si="13">$B$8/G32/(1E-24)</f>
         <v>2.7775482069041675</v>
       </c>
+      <c r="I32">
+        <v>3913.0013890439427</v>
+      </c>
+      <c r="J32">
+        <f>I32^(1/3)</f>
+        <v>15.758081199721397</v>
+      </c>
+      <c r="K32">
+        <f>$B$8/(I32*(10^-24))</f>
+        <v>2.6831495714253357</v>
+      </c>
+      <c r="L32">
+        <v>-738.57247881816863</v>
+      </c>
+      <c r="M32">
+        <f>L32/L34</f>
+        <v>-7.3857247881816868</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -8141,6 +10421,15 @@
       <c r="B34">
         <v>1.0149999999999999</v>
       </c>
+      <c r="C34">
+        <v>-738.78342870666597</v>
+      </c>
+      <c r="D34">
+        <v>28.513510222222202</v>
+      </c>
+      <c r="E34">
+        <v>8.5486666666666697E-2</v>
+      </c>
       <c r="F34">
         <f t="shared" si="9"/>
         <v>15.732499999999998</v>
@@ -8153,6 +10442,12 @@
         <f t="shared" si="10"/>
         <v>2.6962593477337373</v>
       </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35">
@@ -8204,28 +10499,6 @@
       <c r="H36">
         <f t="shared" si="10"/>
         <v>2.580168782611552</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J37">
-        <f>I37^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" t="e">
-        <f>$B$8/(I37*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37">
-        <f>L37/L39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -8539,10 +10812,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
-  <dimension ref="B2:M46"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8726,6 +10999,15 @@
       <c r="B16">
         <v>0.97</v>
       </c>
+      <c r="C16">
+        <v>-699.61856873111196</v>
+      </c>
+      <c r="D16">
+        <v>27.733747777777801</v>
+      </c>
+      <c r="E16">
+        <v>7.2154111111111101</v>
+      </c>
       <c r="F16">
         <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
         <v>14.549999999999999</v>
@@ -8795,6 +11077,15 @@
       <c r="B19">
         <v>0.995</v>
       </c>
+      <c r="C19">
+        <v>-697.68946701555603</v>
+      </c>
+      <c r="D19">
+        <v>27.830682444444399</v>
+      </c>
+      <c r="E19">
+        <v>0.88244222222222302</v>
+      </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>14.925000000000001</v>
@@ -8838,6 +11129,15 @@
       <c r="B21">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C21">
+        <v>-697.84587985111102</v>
+      </c>
+      <c r="D21">
+        <v>27.423172666666702</v>
+      </c>
+      <c r="E21">
+        <v>-1.47274222222222</v>
+      </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>15.074999999999999</v>
@@ -8926,21 +11226,51 @@
       <c r="B28">
         <v>0.95</v>
       </c>
+      <c r="C28">
+        <v>-702.787971282223</v>
+      </c>
+      <c r="D28">
+        <v>25.3542164444444</v>
+      </c>
+      <c r="E28">
+        <v>11.6183044444444</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F32" si="4">$F$10*B28</f>
+        <v>14.25</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G32" si="5">F28^3</f>
+        <v>2893.640625</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H32" si="6">$B$8/G28/(1E-24)</f>
+        <v>3.3359014649581793</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0.96</v>
       </c>
+      <c r="C29">
+        <v>-702.73975910222202</v>
+      </c>
+      <c r="D29">
+        <v>25.464606444444499</v>
+      </c>
+      <c r="E29">
+        <v>8.1807911111111196</v>
+      </c>
       <c r="F29">
-        <f>$F$10*B29</f>
+        <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G36" si="4">F29^3</f>
+        <f t="shared" si="5"/>
         <v>2985.983999999999</v>
       </c>
       <c r="H29">
-        <f>$B$8/G29/(1E-24)</f>
+        <f t="shared" si="6"/>
         <v>3.2327366790980809</v>
       </c>
     </row>
@@ -8948,6 +11278,27 @@
       <c r="B30">
         <v>0.97</v>
       </c>
+      <c r="C30">
+        <v>-701.85703402222202</v>
+      </c>
+      <c r="D30">
+        <v>25.5960117777778</v>
+      </c>
+      <c r="E30">
+        <v>6.6386866666666702</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>3080.2713749999994</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>3.1337823278638894</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -8963,15 +11314,15 @@
         <v>3.5552333333333301</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F36" si="5">$F$10*B31</f>
+        <f t="shared" si="4"/>
         <v>14.7</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3176.5229999999997</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H36" si="6">$B$8/G31/(1E-24)</f>
+        <f t="shared" si="6"/>
         <v>3.0388257853004697</v>
       </c>
     </row>
@@ -8979,6 +11330,27 @@
       <c r="B32">
         <v>0.99</v>
       </c>
+      <c r="C32">
+        <v>-701.52863200000002</v>
+      </c>
+      <c r="D32">
+        <v>25.269219111111099</v>
+      </c>
+      <c r="E32">
+        <v>0.56895777777777801</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>14.85</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>3274.7591249999996</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>2.947667181475524</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -8994,15 +11366,15 @@
         <v>-0.58412222222222199</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F33" si="7">$F$10*B33</f>
         <v>15</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G33" si="8">F33^3</f>
         <v>3375</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H33" si="9">$B$8/G33/(1E-24)</f>
         <v>2.8601185185185192</v>
       </c>
     </row>
@@ -9075,74 +11447,161 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>0.96</v>
+        <v>0.95</v>
+      </c>
+      <c r="C41">
+        <v>-705.14751527777798</v>
+      </c>
+      <c r="D41">
+        <v>23.5324873333333</v>
+      </c>
+      <c r="E41">
+        <v>13.2660422222222</v>
       </c>
       <c r="F41">
-        <f>$F$10*B41</f>
-        <v>14.399999999999999</v>
+        <f t="shared" ref="F41:F45" si="10">$F$10*B41</f>
+        <v>14.25</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:G46" si="7">F41^3</f>
-        <v>2985.983999999999</v>
+        <f t="shared" ref="G41:G45" si="11">F41^3</f>
+        <v>2893.640625</v>
       </c>
       <c r="H41">
-        <f>$B$8/G41/(1E-24)</f>
-        <v>3.2327366790980809</v>
+        <f t="shared" ref="H41:H45" si="12">$B$8/G41/(1E-24)</f>
+        <v>3.3359014649581793</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>0.98</v>
+        <v>0.96</v>
+      </c>
+      <c r="C42">
+        <v>-705.68614622888902</v>
+      </c>
+      <c r="D42">
+        <v>23.325517777777801</v>
+      </c>
+      <c r="E42">
+        <v>7.9335711111111102</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F46" si="8">$F$10*B42</f>
-        <v>14.7</v>
+        <f t="shared" si="10"/>
+        <v>14.399999999999999</v>
       </c>
       <c r="G42">
-        <f t="shared" si="7"/>
-        <v>3176.5229999999997</v>
+        <f t="shared" si="11"/>
+        <v>2985.983999999999</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H46" si="9">$B$8/G42/(1E-24)</f>
-        <v>3.0388257853004697</v>
+        <f t="shared" si="12"/>
+        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43">
+        <v>0.97</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="10"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>3080.2713749999994</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>3.1337823278638894</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.98</v>
+      </c>
+      <c r="C44">
+        <v>-704.96750904666703</v>
+      </c>
+      <c r="D44">
+        <v>23.0553924444445</v>
+      </c>
+      <c r="E44">
+        <v>1.86411333333333</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="10"/>
+        <v>14.7</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>3176.5229999999997</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>3.0388257853004697</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.99</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
+        <v>14.85</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>3274.7591249999996</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>2.947667181475524</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="8"/>
+      <c r="C46">
+        <v>-703.05027392444401</v>
+      </c>
+      <c r="D46">
+        <v>23.3511824444445</v>
+      </c>
+      <c r="E46">
+        <v>-2.1203977777777698</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46" si="13">$F$10*B46</f>
         <v>15</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="7"/>
+      <c r="G46">
+        <f t="shared" ref="G46" si="14">F46^3</f>
         <v>3375</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="9"/>
+      <c r="H46">
+        <f t="shared" ref="H46" si="15">$B$8/G46/(1E-24)</f>
         <v>2.8601185185185192</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J44">
-        <f>I44^(1/3)</f>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f>I47^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K44" t="e">
-        <f>$L$5/(I44*(10^-24))</f>
+      <c r="K47" t="e">
+        <f>$L$5/(I47*(10^-24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M44">
-        <f>L44/L46</f>
+      <c r="M47">
+        <f>L47/L49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K46" t="s">
+    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
         <v>8</v>
       </c>
-      <c r="L46">
+      <c r="L49">
         <v>100</v>
       </c>
     </row>
@@ -9153,10 +11612,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="B2:M48"/>
+  <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9198,7 +11657,7 @@
         <v>22</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E20,G15:G20^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E16:E21,G16:G21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9248,7 +11707,7 @@
         <v>22</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E20,C15:C20^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E16:E21,C16:C21^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9318,47 +11777,50 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="F15">
-        <f>$F$11*B15</f>
+      <c r="C16">
+        <v>-705.39561482143199</v>
+      </c>
+      <c r="D16">
+        <v>24.870909650342298</v>
+      </c>
+      <c r="E16">
+        <v>1.69804231700895</v>
+      </c>
+      <c r="F16">
+        <f>$F$11*B16</f>
         <v>13.5</v>
       </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G20" si="0">F15^3</f>
+      <c r="G16">
+        <f t="shared" ref="G16" si="0">F16^3</f>
         <v>2460.375</v>
       </c>
-      <c r="H15">
-        <f>$B$8/G15/(1E-24)</f>
+      <c r="H16">
+        <f>$B$8/G16/(1E-24)</f>
         <v>3.7688401158360012</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F16">
-        <f t="shared" ref="F16:F20" si="1">$F$11*B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G20" si="2">F16^3</f>
-        <v>0</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" ref="H16:H20" si="3">$B$8/G16/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.01</v>
+      </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="F17:F21" si="1">$F$11*B17</f>
+        <v>13.635</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G17:G21" si="2">F17^3</f>
+        <v>2534.9268228749997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H21" si="3">$B$8/G17/(1E-24)</f>
+        <v>3.6579990855449052</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -9374,18 +11836,6 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18">
-        <f>I18^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" t="e">
-        <f>$B$8/(I18*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18">
-        <f>L18/L20</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F19">
@@ -9400,6 +11850,18 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F20">
@@ -9414,426 +11876,453 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" t="s">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="s">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>30</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
         <v>32</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>34</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>0.88</v>
-      </c>
-      <c r="C25">
-        <v>-704.15527766444404</v>
-      </c>
-      <c r="D25">
-        <v>23.195839804002699</v>
-      </c>
-      <c r="E25">
-        <v>12.065858067632799</v>
-      </c>
-      <c r="F25">
-        <f>$F$10*B25</f>
-        <v>13.2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25" si="4">F25^3</f>
-        <v>2299.9679999999998</v>
-      </c>
-      <c r="H25">
-        <f>$B$8/G25/(1E-24)</f>
-        <v>4.031690875699141</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>0.88500000000000001</v>
+        <v>0.88</v>
+      </c>
+      <c r="C26">
+        <v>-704.15527766444404</v>
+      </c>
+      <c r="D26">
+        <v>23.195839804002699</v>
+      </c>
+      <c r="E26">
+        <v>12.065858067632799</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F31" si="5">$F$10*B26</f>
-        <v>13.275</v>
+        <f>$F$10*B26</f>
+        <v>13.2</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G31" si="6">F26^3</f>
-        <v>2339.395171875</v>
+        <f t="shared" ref="G26" si="4">F26^3</f>
+        <v>2299.9679999999998</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H31" si="7">$B$8/G26/(1E-24)</f>
-        <v>3.9637424713362921</v>
+        <f>$B$8/G26/(1E-24)</f>
+        <v>4.031690875699141</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C27">
+        <v>-707.93801843333301</v>
+      </c>
+      <c r="D27">
+        <v>23.1328571111111</v>
+      </c>
+      <c r="E27">
+        <v>6.3244911111111097</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F32" si="5">$F$10*B27</f>
+        <v>13.275</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G32" si="6">F27^3</f>
+        <v>2339.395171875</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H32" si="7">$B$8/G27/(1E-24)</f>
+        <v>3.9637424713362921</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>0.89</v>
       </c>
-      <c r="F27">
+      <c r="C28">
+        <v>-707.436724048889</v>
+      </c>
+      <c r="D28">
+        <v>23.440001111111101</v>
+      </c>
+      <c r="E28">
+        <v>5.3531088888888796</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="5"/>
         <v>13.35</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <f t="shared" si="6"/>
         <v>2379.2703750000001</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <f t="shared" si="7"/>
         <v>3.8973124271343065</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>0.89500000000000002</v>
       </c>
-      <c r="F28">
+      <c r="C29">
+        <v>-707.72760733999996</v>
+      </c>
+      <c r="D29">
+        <v>22.853167555555601</v>
+      </c>
+      <c r="E29">
+        <v>3.5688088888888898</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="5"/>
         <v>13.425000000000001</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f t="shared" si="6"/>
         <v>2419.5961406250008</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <f t="shared" si="7"/>
         <v>3.8323585677421255</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>0.9</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-706.65802437777802</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>23.2719751111112</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>2.21814666666666</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <f t="shared" si="6"/>
         <v>2460.375</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <f t="shared" si="7"/>
         <v>3.7688401158360012</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>0.90500000000000003</v>
       </c>
-      <c r="F30">
+      <c r="C31">
+        <v>-705.51874519333398</v>
+      </c>
+      <c r="D31">
+        <v>23.182362000000001</v>
+      </c>
+      <c r="E31">
+        <v>1.9658177777777801</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="5"/>
         <v>13.575000000000001</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <f t="shared" si="6"/>
         <v>2501.6094843750002</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <f t="shared" si="7"/>
         <v>3.7067176383514147</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
         <v>0.91</v>
       </c>
-      <c r="F31">
+      <c r="C32">
+        <v>-705.91537566444401</v>
+      </c>
+      <c r="D32">
+        <v>23.277029333333299</v>
+      </c>
+      <c r="E32">
+        <v>0.72406222222222705</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="5"/>
         <v>13.65</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <f t="shared" si="6"/>
         <v>2543.3021250000002</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <f t="shared" si="7"/>
         <v>3.6459529950654215</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>0.92</v>
-      </c>
-      <c r="C32">
-        <v>-705.34679249999999</v>
-      </c>
-      <c r="D32">
-        <v>23.015228666666701</v>
-      </c>
-      <c r="E32">
-        <v>-3.45505777777778</v>
-      </c>
-      <c r="F32">
-        <f>$F$10*B32</f>
-        <v>13.8</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G35" si="8">F32^3</f>
-        <v>2628.0720000000006</v>
-      </c>
-      <c r="H32">
-        <f>$B$8/G32/(1E-24)</f>
-        <v>3.5283508214386816</v>
-      </c>
-    </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
+        <v>0.92</v>
+      </c>
+      <c r="F33">
+        <f>$F$10*B33</f>
+        <v>13.8</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G36" si="8">F33^3</f>
+        <v>2628.0720000000006</v>
+      </c>
+      <c r="H33">
+        <f>$B$8/G33/(1E-24)</f>
+        <v>3.5283508214386816</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>0.94</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>-704.126350946667</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>23.065804888888898</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>-3.71379555555556</v>
       </c>
-      <c r="F33">
-        <f t="shared" ref="F33:F35" si="9">$F$10*B33</f>
+      <c r="F34">
+        <f t="shared" ref="F34:F36" si="9">$F$10*B34</f>
         <v>14.1</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="8"/>
         <v>2803.221</v>
       </c>
-      <c r="H33">
-        <f t="shared" ref="H33:H35" si="10">$B$8/G33/(1E-24)</f>
+      <c r="H34">
+        <f t="shared" ref="H34:H36" si="10">$B$8/G34/(1E-24)</f>
         <v>3.3078947396584151</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>0.96</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>-702.68675454666595</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>23.330576666666701</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>-3.9988800000000002</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <f t="shared" si="9"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <f t="shared" si="8"/>
         <v>2985.983999999999</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <f t="shared" si="10"/>
         <v>3.1054285622427997</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>-701.38569239333299</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>23.201893999999999</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>-4.5790600000000001</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="8"/>
         <v>3375</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <f t="shared" si="10"/>
         <v>2.7474844444444453</v>
       </c>
-      <c r="J35">
-        <f>I35^(1/3)</f>
+      <c r="J36">
+        <f>I36^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K35" t="e">
-        <f>$B$8/(I35*(10^-24))</f>
+      <c r="K36" t="e">
+        <f>$B$8/(I36*(10^-24))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35">
-        <f>L35/L37</f>
+      <c r="M36">
+        <f>L36/L38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K37" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
         <v>8</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
         <v>1100</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H40" t="s">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>28</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>30</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>31</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>32</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>33</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>30</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K42" t="s">
         <v>32</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L42" t="s">
         <v>34</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="F42">
-        <f>$F$11*B42</f>
+      <c r="C45">
+        <v>-711.21858191111096</v>
+      </c>
+      <c r="D45">
+        <v>21.031019555555499</v>
+      </c>
+      <c r="E45">
+        <v>-0.18817555555555299</v>
+      </c>
+      <c r="F45">
+        <f>$F$11*B45</f>
         <v>13.5</v>
       </c>
-      <c r="G42">
-        <f t="shared" ref="G42:G47" si="11">F42^3</f>
+      <c r="G45">
+        <f t="shared" ref="G45:G50" si="11">F45^3</f>
         <v>2460.375</v>
       </c>
-      <c r="H42">
-        <f>$B$8/G42/(1E-24)</f>
+      <c r="H45">
+        <f>$B$8/G45/(1E-24)</f>
         <v>3.7688401158360012</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F43">
-        <f t="shared" ref="F43:F47" si="12">$F$11*B43</f>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H43" t="e">
-        <f>$B$8/G43/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F44">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H44" t="e">
-        <f t="shared" ref="H44:H48" si="13">$B$8/G44/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H45" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F46">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F46:F50" si="12">$F$11*B46</f>
         <v>0</v>
       </c>
       <c r="G46">
@@ -9841,20 +12330,8 @@
         <v>0</v>
       </c>
       <c r="H46" t="e">
-        <f t="shared" si="13"/>
+        <f>$B$8/G46/(1E-24)</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="J46">
-        <f>I46^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" t="e">
-        <f>$B$8/(I46*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46">
-        <f>L46/L48</f>
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -9867,19 +12344,479 @@
         <v>0</v>
       </c>
       <c r="H47" t="e">
+        <f t="shared" ref="H47:H50" si="13">$B$8/G47/(1E-24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K48" t="s">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49">
+        <f>I49^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" t="e">
+        <f>$B$8/(I49*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49">
+        <f>L49/L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
         <v>8</v>
       </c>
-      <c r="L48">
+      <c r="L51">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
+  <dimension ref="B5:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.42</v>
+      </c>
+      <c r="M6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1300</v>
+      </c>
+      <c r="C7">
+        <v>5493.7006854354622</v>
+      </c>
+      <c r="D7">
+        <v>17.645000079558272</v>
+      </c>
+      <c r="E7">
+        <v>1.7525527055969974</v>
+      </c>
+      <c r="F7">
+        <v>-437.90349390114346</v>
+      </c>
+      <c r="G7">
+        <v>-4.3790349390114347</v>
+      </c>
+      <c r="I7">
+        <v>1300</v>
+      </c>
+      <c r="J7">
+        <v>1.7525527055969974</v>
+      </c>
+      <c r="K7">
+        <v>2.1372820970563007</v>
+      </c>
+      <c r="L7">
+        <v>2.6211362176344863</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1200</v>
+      </c>
+      <c r="C8">
+        <v>5336.0965883920726</v>
+      </c>
+      <c r="D8">
+        <v>17.474626180807338</v>
+      </c>
+      <c r="E8">
+        <v>1.8043151656857856</v>
+      </c>
+      <c r="F8">
+        <v>-442.33984902235039</v>
+      </c>
+      <c r="G8">
+        <v>-4.4233984902235042</v>
+      </c>
+      <c r="I8">
+        <v>1200</v>
+      </c>
+      <c r="J8">
+        <v>1.8043151656857856</v>
+      </c>
+      <c r="K8">
+        <v>2.1725903779491365</v>
+      </c>
+      <c r="L8">
+        <v>2.6831495714253357</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1100</v>
+      </c>
+      <c r="C9">
+        <v>5194.7394833318594</v>
+      </c>
+      <c r="D9">
+        <v>17.318938000729784</v>
+      </c>
+      <c r="E9">
+        <v>1.8534134446766684</v>
+      </c>
+      <c r="F9">
+        <v>-446.93646787300298</v>
+      </c>
+      <c r="G9">
+        <v>-4.4693646787300301</v>
+      </c>
+      <c r="I9">
+        <v>1100</v>
+      </c>
+      <c r="J9">
+        <v>1.8534134446766684</v>
+      </c>
+      <c r="K9">
+        <v>2.2201025806921408</v>
+      </c>
+      <c r="L9">
+        <v>2.7374781174791809</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1300</v>
+      </c>
+      <c r="C13">
+        <v>4149.0639032692943</v>
+      </c>
+      <c r="D13">
+        <v>16.068797382569095</v>
+      </c>
+      <c r="E13">
+        <v>2.1372820970563007</v>
+      </c>
+      <c r="F13">
+        <v>-519.11584824859972</v>
+      </c>
+      <c r="G13">
+        <v>-7.4159406892657103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>4081.634573182117</v>
+      </c>
+      <c r="D14">
+        <v>15.98127310718343</v>
+      </c>
+      <c r="E14">
+        <v>2.1725903779491365</v>
+      </c>
+      <c r="F14">
+        <v>-521.80565933729838</v>
+      </c>
+      <c r="G14">
+        <v>-7.4543665619614057</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1100</v>
+      </c>
+      <c r="C15">
+        <v>3994.2839025192211</v>
+      </c>
+      <c r="D15">
+        <v>15.866445465692877</v>
+      </c>
+      <c r="E15">
+        <v>2.2201025806921408</v>
+      </c>
+      <c r="F15">
+        <v>-524.99364174123298</v>
+      </c>
+      <c r="G15">
+        <v>-7.4999091677319001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1300</v>
+      </c>
+      <c r="C19">
+        <v>4005.5789277045856</v>
+      </c>
+      <c r="D19">
+        <v>15.881387087721786</v>
+      </c>
+      <c r="E19">
+        <v>2.6211362176344863</v>
+      </c>
+      <c r="F19">
+        <v>-735.72507573506607</v>
+      </c>
+      <c r="G19">
+        <v>-7.3572507573506609</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1200</v>
+      </c>
+      <c r="C20">
+        <v>3913.0013890439427</v>
+      </c>
+      <c r="D20">
+        <v>15.758081199721397</v>
+      </c>
+      <c r="E20">
+        <v>2.6831495714253357</v>
+      </c>
+      <c r="F20">
+        <v>-738.57247881816863</v>
+      </c>
+      <c r="G20">
+        <v>-7.3857247881816868</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1100</v>
+      </c>
+      <c r="C21">
+        <v>3835.3431696718744</v>
+      </c>
+      <c r="D21">
+        <v>15.653137839343195</v>
+      </c>
+      <c r="E21">
+        <v>2.7374781174791809</v>
+      </c>
+      <c r="F21">
+        <v>-742.01586288625015</v>
+      </c>
+      <c r="G21">
+        <v>-7.4201586288625014</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4E746C-9745-E743-B5CB-92FB1C0ECDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1911F07-E8A3-4248-8BC8-32A937A35AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="25380" windowHeight="18540" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2500" yWindow="620" windowWidth="25380" windowHeight="18540" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,22 @@
     <sheet name="ZrF4" sheetId="6" r:id="rId6"/>
     <sheet name="summary" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">summary!$I$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">summary!$I$8</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">summary!$J$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">summary!$J$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">summary!$J$8:$N$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">summary!$J$9:$N$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">summary!$I$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">summary!$J$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">summary!$J$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">summary!$J$8:$N$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">summary!$J$9:$N$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">summary!$I$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">summary!$I$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">summary!$I$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +57,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="45">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -1996,10 +2012,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$26:$G$33</c:f>
+              <c:f>ZrF4!$G$30:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2299.9679999999998</c:v>
                 </c:pt>
@@ -2022,6 +2038,9 @@
                   <c:v>2543.3021250000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2585.455453125001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2628.0720000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -2029,10 +2048,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$26:$E$33</c:f>
+              <c:f>ZrF4!$E$30:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12.065858067632799</c:v>
                 </c:pt>
@@ -2053,6 +2072,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.72406222222222705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.10077111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,6 +2288,300 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ZrF4!$G$49:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2280.4216347656252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2315.6852670000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2351.3105743593746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2387.2994021250001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2423.6535955781246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2460.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ZrF4!$E$49:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.6153600000000097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2820044444444401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1431177777777801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1819288888888901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.55344222222221895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18817555555555299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA21-3645-90D1-32C01B38DD34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2014724784"/>
+        <c:axId val="2014720272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2014724784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014720272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2014720272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014724784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2701,6 +3017,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.856243793770803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9497771163247695</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2778,6 +3100,481 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1741735072"/>
+        <c:axId val="1711071728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1741735072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711071728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1711071728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741735072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7525527055969974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1372820970563007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6211362176344863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.856243793770803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-562E-2146-9058-E7047A8963DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8043151656857856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1725903779491365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6831495714253357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-562E-2146-9058-E7047A8963DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8534134446766684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2201025806921408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7374781174791809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9497771163247695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-562E-2146-9058-E7047A8963DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3249,6 +4046,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6346,6 +7223,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7066,13 +8975,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7093,6 +9002,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E3EB16-8A7F-FA4C-B894-248A4A5906D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7134,6 +9081,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1400D43E-132E-5949-BCBF-D3E40631ACB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10812,10 +12797,991 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I46" activeCellId="2" sqref="I19:M19 I31:M31 I46:M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E43:E50,G43:G50^{1,2})</f>
+        <v>3.6620969042715271E-5</v>
+      </c>
+      <c r="K6">
+        <v>-0.25966994238554097</v>
+      </c>
+      <c r="L6">
+        <v>457.58488049184916</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>3818.327971466525</v>
+      </c>
+      <c r="L7">
+        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
+        <v>3272.4167350063676</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>9.6529000000000012E-21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E43:E50,C43:C50^{1,2})</f>
+        <v>1.1309972885590562</v>
+      </c>
+      <c r="K10">
+        <v>1588.5923689646761</v>
+      </c>
+      <c r="L10">
+        <v>557828.7434464707</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-700.61203159001047</v>
+      </c>
+      <c r="L11">
+        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
+        <v>-703.98228975325071</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0.96</v>
+      </c>
+      <c r="C15">
+        <v>-699.78751649111098</v>
+      </c>
+      <c r="D15">
+        <v>27.5374164444444</v>
+      </c>
+      <c r="E15">
+        <v>10.664155555555499</v>
+      </c>
+      <c r="F15">
+        <f>$F$10*B15</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="0">F15^3</f>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H15">
+        <f>$B$8/G15/(1E-24)</f>
+        <v>3.2327366790980809</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>0.97</v>
+      </c>
+      <c r="C16">
+        <v>-699.61856873111196</v>
+      </c>
+      <c r="D16">
+        <v>27.733747777777801</v>
+      </c>
+      <c r="E16">
+        <v>7.2154111111111101</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G22" si="2">F16^3</f>
+        <v>3080.2713749999994</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H22" si="3">$B$8/G16/(1E-24)</f>
+        <v>3.1337823278638894</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0.98</v>
+      </c>
+      <c r="C17">
+        <v>-699.22553231999996</v>
+      </c>
+      <c r="D17">
+        <v>27.329148444444499</v>
+      </c>
+      <c r="E17">
+        <v>5.19390888888889</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>14.7</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>3176.5229999999997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>3.0388257853004697</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.99</v>
+      </c>
+      <c r="C18">
+        <v>-698.972594237777</v>
+      </c>
+      <c r="D18">
+        <v>27.533817777777799</v>
+      </c>
+      <c r="E18">
+        <v>1.87892666666667</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>14.85</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>3274.7591249999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>2.947667181475524</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.995</v>
+      </c>
+      <c r="C19">
+        <v>-697.68946701555603</v>
+      </c>
+      <c r="D19">
+        <v>27.830682444444399</v>
+      </c>
+      <c r="E19">
+        <v>0.88244222222222302</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>3324.6277031250002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>2.9034529162247886</v>
+      </c>
+      <c r="I19">
+        <v>3379.578459322016</v>
+      </c>
+      <c r="J19">
+        <f>I19^(1/3)</f>
+        <v>15.006779837824192</v>
+      </c>
+      <c r="K19">
+        <f>$B$8/(I19*(10^-24))</f>
+        <v>2.856243793770803</v>
+      </c>
+      <c r="L19">
+        <v>-698.30950473771759</v>
+      </c>
+      <c r="M19">
+        <f>L19/L21</f>
+        <v>-6.9830950473771756</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>-698.057605971111</v>
+      </c>
+      <c r="D20">
+        <v>27.54477</v>
+      </c>
+      <c r="E20">
+        <v>0.39500444444444299</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>3375</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>2.8601185185185192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C21">
+        <v>-697.84587985111102</v>
+      </c>
+      <c r="D21">
+        <v>27.423172666666702</v>
+      </c>
+      <c r="E21">
+        <v>-1.47274222222222</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>15.074999999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>3425.8785468749998</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>2.8176422099975302</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1.01</v>
+      </c>
+      <c r="C22">
+        <v>-697.402080362221</v>
+      </c>
+      <c r="D22">
+        <v>27.527224888888899</v>
+      </c>
+      <c r="E22">
+        <v>-1.0558133333333299</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>15.15</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>3477.2658750000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.7760028559794847</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.95</v>
+      </c>
+      <c r="C28">
+        <v>-702.787971282223</v>
+      </c>
+      <c r="D28">
+        <v>25.3542164444444</v>
+      </c>
+      <c r="E28">
+        <v>11.6183044444444</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F35" si="4">$F$10*B28</f>
+        <v>14.25</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G35" si="5">F28^3</f>
+        <v>2893.640625</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H35" si="6">$B$8/G28/(1E-24)</f>
+        <v>3.3359014649581793</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.96</v>
+      </c>
+      <c r="C29">
+        <v>-702.73975910222202</v>
+      </c>
+      <c r="D29">
+        <v>25.464606444444499</v>
+      </c>
+      <c r="E29">
+        <v>8.1807911111111196</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>3.2327366790980809</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.97</v>
+      </c>
+      <c r="C30">
+        <v>-701.85703402222202</v>
+      </c>
+      <c r="D30">
+        <v>25.5960117777778</v>
+      </c>
+      <c r="E30">
+        <v>6.6386866666666702</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>3080.2713749999994</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>3.1337823278638894</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.98</v>
+      </c>
+      <c r="C32">
+        <v>-701.76661217777701</v>
+      </c>
+      <c r="D32">
+        <v>25.4040826666666</v>
+      </c>
+      <c r="E32">
+        <v>3.5552333333333301</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>14.7</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>3176.5229999999997</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>3.0388257853004697</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C33">
+        <v>-701.65062812888902</v>
+      </c>
+      <c r="D33">
+        <v>25.342266888888901</v>
+      </c>
+      <c r="E33">
+        <v>0.905233333333335</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>14.775</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>3225.3917343749999</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>2.9927837592944324</v>
+      </c>
+      <c r="J33">
+        <f>I33^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" t="e">
+        <f>$B$8/(I33*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33">
+        <f>L33/L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.99</v>
+      </c>
+      <c r="C34">
+        <v>-701.52863200000002</v>
+      </c>
+      <c r="D34">
+        <v>25.269219111111099</v>
+      </c>
+      <c r="E34">
+        <v>0.56895777777777801</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>14.85</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>3274.7591249999996</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>2.947667181475524</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.995</v>
+      </c>
+      <c r="C35">
+        <v>-700.77582110444496</v>
+      </c>
+      <c r="D35">
+        <v>25.4246355555556</v>
+      </c>
+      <c r="E35">
+        <v>-0.34454888888888902</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>3324.6277031250002</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>2.9034529162247886</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>-700.80497264888902</v>
+      </c>
+      <c r="D36">
+        <v>25.526370222222202</v>
+      </c>
+      <c r="E36">
+        <v>-0.58412222222222199</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F37" si="7">$F$10*B36</f>
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G37" si="8">F36^3</f>
+        <v>3375</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H37" si="9">$B$8/G36/(1E-24)</f>
+        <v>2.8601185185185192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>15.074999999999999</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>3425.8785468749998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>2.8176422099975302</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0.95</v>
+      </c>
+      <c r="C43">
+        <v>-705.14751527777798</v>
+      </c>
+      <c r="D43">
+        <v>23.5324873333333</v>
+      </c>
+      <c r="E43">
+        <v>13.2660422222222</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F49" si="10">$F$10*B43</f>
+        <v>14.25</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G49" si="11">F43^3</f>
+        <v>2893.640625</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H49" si="12">$B$8/G43/(1E-24)</f>
+        <v>3.3359014649581793</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.96</v>
+      </c>
+      <c r="C44">
+        <v>-705.68614622888902</v>
+      </c>
+      <c r="D44">
+        <v>23.325517777777801</v>
+      </c>
+      <c r="E44">
+        <v>7.9335711111111102</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="10"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>3.2327366790980809</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0.97</v>
+      </c>
+      <c r="C45">
+        <v>-705.24023045111096</v>
+      </c>
+      <c r="D45">
+        <v>23.159402444444499</v>
+      </c>
+      <c r="E45">
+        <v>5.4415288888888798</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>3080.2713749999994</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>3.1337823278638894</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0.98</v>
+      </c>
+      <c r="C46">
+        <v>-704.96750904666703</v>
+      </c>
+      <c r="D46">
+        <v>23.0553924444445</v>
+      </c>
+      <c r="E46">
+        <v>1.86411333333333</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>14.7</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>3176.5229999999997</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>3.0388257853004697</v>
+      </c>
+      <c r="I46">
+        <v>3272.4167350063676</v>
+      </c>
+      <c r="J46">
+        <f>I46^(1/3)</f>
+        <v>14.846458488803105</v>
+      </c>
+      <c r="K46">
+        <f>$B$8/(I46*(10^-24))</f>
+        <v>2.9497771163247695</v>
+      </c>
+      <c r="L46">
+        <v>-703.98228975325071</v>
+      </c>
+      <c r="M46">
+        <f>L46/L48</f>
+        <v>-7.039822897532507</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C47">
+        <v>-704.15609635111105</v>
+      </c>
+      <c r="D47">
+        <v>23.287374888888898</v>
+      </c>
+      <c r="E47">
+        <v>1.4164666666666701</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="10"/>
+        <v>14.775</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>3225.3917343749999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>2.9927837592944324</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.99</v>
+      </c>
+      <c r="C48">
+        <v>-704.385197764444</v>
+      </c>
+      <c r="D48">
+        <v>23.239674666666701</v>
+      </c>
+      <c r="E48">
+        <v>0.26353555555555602</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="10"/>
+        <v>14.85</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="11"/>
+        <v>3274.7591249999996</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="12"/>
+        <v>2.947667181475524</v>
+      </c>
+      <c r="K48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0.995</v>
+      </c>
+      <c r="C49">
+        <v>-704.06687680222103</v>
+      </c>
+      <c r="D49">
+        <v>23.245396444444399</v>
+      </c>
+      <c r="E49">
+        <v>-0.69529111111110997</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="10"/>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="11"/>
+        <v>3324.6277031250002</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="12"/>
+        <v>2.9034529162247886</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>-703.05027392444401</v>
+      </c>
+      <c r="D50">
+        <v>23.3511824444445</v>
+      </c>
+      <c r="E50">
+        <v>-2.1203977777777698</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="13">$F$10*B50</f>
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50" si="14">F50^3</f>
+        <v>3375</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="15">$B$8/G50/(1E-24)</f>
+        <v>2.8601185185185192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
+  <dimension ref="B2:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10830,7 +13796,7 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>715</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -10857,7 +13823,7 @@
         <v>22</v>
       </c>
       <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E15:E23,G15:G23^{1,2})</f>
+        <f t="array" ref="J6">LINEST(E19:E25,G19:G25^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10879,7 +13845,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>9.6529000000000012E-21</v>
+        <v>9.2727600000000011E-21</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -10907,11 +13873,17 @@
         <v>22</v>
       </c>
       <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E15:E23,C15:C23^{1,2})</f>
+        <f t="array" ref="J10">LINEST(E19:E25,C19:C25^{1,2})</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>13.5</v>
+      </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
@@ -10971,1442 +13943,814 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.96</v>
-      </c>
-      <c r="C15">
-        <v>-699.78751649111098</v>
-      </c>
-      <c r="D15">
-        <v>27.5374164444444</v>
-      </c>
-      <c r="E15">
-        <v>10.664155555555499</v>
-      </c>
-      <c r="F15">
-        <f>$F$10*B15</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15" si="0">F15^3</f>
-        <v>2985.983999999999</v>
-      </c>
-      <c r="H15">
-        <f>$B$8/G15/(1E-24)</f>
-        <v>3.2327366790980809</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>0.97</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C16">
-        <v>-699.61856873111196</v>
+        <v>-706.42679638222296</v>
       </c>
       <c r="D16">
-        <v>27.733747777777801</v>
+        <v>25.0029295555556</v>
       </c>
       <c r="E16">
-        <v>7.2154111111111101</v>
+        <v>4.16085333333334</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="1">$F$10*B16</f>
-        <v>14.549999999999999</v>
+        <f t="shared" ref="F16:F20" si="0">$F$11*B16</f>
+        <v>13.297499999999999</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G22" si="2">F16^3</f>
-        <v>3080.2713749999994</v>
+        <f t="shared" ref="G16:G20" si="1">F16^3</f>
+        <v>2351.3105743593746</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H22" si="3">$B$8/G16/(1E-24)</f>
-        <v>3.1337823278638894</v>
+        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
+        <v>3.9436559768487442</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C17">
-        <v>-699.22553231999996</v>
+        <v>-705.15866005111104</v>
       </c>
       <c r="D17">
-        <v>27.329148444444499</v>
+        <v>25.079381333333298</v>
       </c>
       <c r="E17">
-        <v>5.19390888888889</v>
+        <v>4.8853488888888901</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>13.365</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>14.7</v>
-      </c>
-      <c r="G17">
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>3176.5229999999997</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>3.0388257853004697</v>
+        <v>3.8842048851292241</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="C18">
-        <v>-698.972594237777</v>
+        <v>-705.26772850222198</v>
       </c>
       <c r="D18">
-        <v>27.533817777777799</v>
+        <v>24.700207777777798</v>
       </c>
       <c r="E18">
-        <v>1.87892666666667</v>
+        <v>2.8688066666666701</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>14.85</v>
-      </c>
-      <c r="G18">
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>3274.7591249999996</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>2.947667181475524</v>
+        <v>3.8259427902229275</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>-697.68946701555603</v>
+        <v>-705.39561482143199</v>
       </c>
       <c r="D19">
-        <v>27.830682444444399</v>
+        <v>24.870909650342298</v>
       </c>
       <c r="E19">
-        <v>0.88244222222222302</v>
+        <v>1.69804231700895</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>14.925000000000001</v>
-      </c>
-      <c r="G19">
+        <v>2460.375</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>3324.6277031250002</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>2.9034529162247886</v>
+        <v>3.7688401158360012</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C20">
-        <v>-698.057605971111</v>
+        <v>-704.71505515333399</v>
       </c>
       <c r="D20">
-        <v>27.54477</v>
+        <v>25.009176888888899</v>
       </c>
       <c r="E20">
-        <v>0.39500444444444299</v>
+        <v>1.76227333333333</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>13.567499999999999</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G20">
+        <v>2497.4654606718746</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>3375</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>2.8601185185185192</v>
+        <v>3.7128681641528765</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>1.0049999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="C21">
-        <v>-697.84587985111102</v>
+        <v>-704.52680428888902</v>
       </c>
       <c r="D21">
-        <v>27.423172666666702</v>
+        <v>25.0517066666667</v>
       </c>
       <c r="E21">
-        <v>-1.47274222222222</v>
+        <v>-0.80159777777777697</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>15.074999999999999</v>
+        <f t="shared" ref="F21:F22" si="3">$F$11*B21</f>
+        <v>13.635</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
-        <v>3425.8785468749998</v>
+        <f t="shared" ref="G21:G22" si="4">F21^3</f>
+        <v>2534.9268228749997</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
-        <v>2.8176422099975302</v>
+        <f t="shared" ref="H21:H22" si="5">$B$8/G21/(1E-24)</f>
+        <v>3.6579990855449052</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1.01</v>
-      </c>
-      <c r="C22">
-        <v>-697.402080362221</v>
-      </c>
-      <c r="D22">
-        <v>27.527224888888899</v>
-      </c>
-      <c r="E22">
-        <v>-1.0558133333333299</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>15.15</v>
+        <f t="shared" si="3"/>
+        <v>13.702499999999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>3477.2658750000001</v>
+        <f t="shared" si="4"/>
+        <v>2572.7609318906243</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
-        <v>2.7760028559794847</v>
+        <f t="shared" si="5"/>
+        <v>3.6042058494668616</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f>I23^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" t="e">
+        <f>$B$8/(I23*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23">
+        <f>L23/L25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>33</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J29" t="s">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K29" t="s">
         <v>32</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L29" t="s">
         <v>34</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M29" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.95</v>
-      </c>
-      <c r="C28">
-        <v>-702.787971282223</v>
-      </c>
-      <c r="D28">
-        <v>25.3542164444444</v>
-      </c>
-      <c r="E28">
-        <v>11.6183044444444</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28:F32" si="4">$F$10*B28</f>
-        <v>14.25</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ref="G28:G32" si="5">F28^3</f>
-        <v>2893.640625</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H32" si="6">$B$8/G28/(1E-24)</f>
-        <v>3.3359014649581793</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>0.96</v>
-      </c>
-      <c r="C29">
-        <v>-702.73975910222202</v>
-      </c>
-      <c r="D29">
-        <v>25.464606444444499</v>
-      </c>
-      <c r="E29">
-        <v>8.1807911111111196</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
-        <v>2985.983999999999</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="6"/>
-        <v>3.2327366790980809</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="C30">
-        <v>-701.85703402222202</v>
+        <v>-704.15527766444404</v>
       </c>
       <c r="D30">
-        <v>25.5960117777778</v>
+        <v>23.195839804002699</v>
       </c>
       <c r="E30">
-        <v>6.6386866666666702</v>
+        <v>12.065858067632799</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
-        <v>14.549999999999999</v>
+        <f>$F$10*B30</f>
+        <v>13.2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
-        <v>3080.2713749999994</v>
+        <f t="shared" ref="G30" si="6">F30^3</f>
+        <v>2299.9679999999998</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
-        <v>3.1337823278638894</v>
+        <f>$B$8/G30/(1E-24)</f>
+        <v>4.031690875699141</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>0.98</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C31">
-        <v>-701.76661217777701</v>
+        <v>-707.93801843333301</v>
       </c>
       <c r="D31">
-        <v>25.4040826666666</v>
+        <v>23.1328571111111</v>
       </c>
       <c r="E31">
-        <v>3.5552333333333301</v>
+        <v>6.3244911111111097</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
-        <v>14.7</v>
+        <f t="shared" ref="F31:F37" si="7">$F$10*B31</f>
+        <v>13.275</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>3176.5229999999997</v>
+        <f t="shared" ref="G31:G37" si="8">F31^3</f>
+        <v>2339.395171875</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
-        <v>3.0388257853004697</v>
+        <f t="shared" ref="H31:H37" si="9">$B$8/G31/(1E-24)</f>
+        <v>3.9637424713362921</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="C32">
-        <v>-701.52863200000002</v>
+        <v>-707.436724048889</v>
       </c>
       <c r="D32">
-        <v>25.269219111111099</v>
+        <v>23.440001111111101</v>
       </c>
       <c r="E32">
-        <v>0.56895777777777801</v>
+        <v>5.3531088888888796</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
-        <v>14.85</v>
+        <f t="shared" si="7"/>
+        <v>13.35</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>3274.7591249999996</v>
+        <f t="shared" si="8"/>
+        <v>2379.2703750000001</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
-        <v>2.947667181475524</v>
+        <f t="shared" si="9"/>
+        <v>3.8973124271343065</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>1</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="C33">
-        <v>-700.80497264888902</v>
+        <v>-707.72760733999996</v>
       </c>
       <c r="D33">
-        <v>25.526370222222202</v>
+        <v>22.853167555555601</v>
       </c>
       <c r="E33">
-        <v>-0.58412222222222199</v>
+        <v>3.5688088888888898</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="7">$F$10*B33</f>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>13.425000000000001</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="8">F33^3</f>
-        <v>3375</v>
+        <f t="shared" si="8"/>
+        <v>2419.5961406250008</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33" si="9">$B$8/G33/(1E-24)</f>
-        <v>2.8601185185185192</v>
+        <f t="shared" si="9"/>
+        <v>3.8323585677421255</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J34">
-        <f>I34^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" t="e">
-        <f>$L$5/(I34*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M34">
-        <f>L34/L36</f>
-        <v>0</v>
+      <c r="B34">
+        <v>0.9</v>
+      </c>
+      <c r="C34">
+        <v>-706.65802437777802</v>
+      </c>
+      <c r="D34">
+        <v>23.2719751111112</v>
+      </c>
+      <c r="E34">
+        <v>2.21814666666666</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>2460.375</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>3.7688401158360012</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="C35">
+        <v>-705.51874519333398</v>
+      </c>
+      <c r="D35">
+        <v>23.182362000000001</v>
+      </c>
+      <c r="E35">
+        <v>1.9658177777777801</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>13.575000000000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>2501.6094843750002</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>3.7067176383514147</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
+      <c r="B36">
+        <v>0.91</v>
+      </c>
+      <c r="C36">
+        <v>-705.91537566444401</v>
+      </c>
+      <c r="D36">
+        <v>23.277029333333299</v>
+      </c>
+      <c r="E36">
+        <v>0.72406222222222705</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>13.65</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>2543.3021250000002</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>3.6459529950654215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>13.725000000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>2585.455453125001</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>3.586509289414427</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>1100</v>
+        <v>0.92</v>
+      </c>
+      <c r="C38">
+        <v>-704.72260675777795</v>
+      </c>
+      <c r="D38">
+        <v>22.990194444444398</v>
+      </c>
+      <c r="E38">
+        <v>-3.10077111111111</v>
+      </c>
+      <c r="F38">
+        <f>$F$10*B38</f>
+        <v>13.8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G41" si="10">F38^3</f>
+        <v>2628.0720000000006</v>
+      </c>
+      <c r="H38">
+        <f>$B$8/G38/(1E-24)</f>
+        <v>3.5283508214386816</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H39" t="s">
-        <v>26</v>
+      <c r="B39">
+        <v>0.94</v>
+      </c>
+      <c r="C39">
+        <v>-704.126350946667</v>
+      </c>
+      <c r="D39">
+        <v>23.065804888888898</v>
+      </c>
+      <c r="E39">
+        <v>-3.71379555555556</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F41" si="11">$F$10*B39</f>
+        <v>14.1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="10"/>
+        <v>2803.221</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H41" si="12">$B$8/G39/(1E-24)</f>
+        <v>3.3078947396584151</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" t="s">
-        <v>35</v>
+      <c r="B40">
+        <v>0.96</v>
+      </c>
+      <c r="C40">
+        <v>-702.68675454666595</v>
+      </c>
+      <c r="D40">
+        <v>23.330576666666701</v>
+      </c>
+      <c r="E40">
+        <v>-3.9988800000000002</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="11"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="10"/>
+        <v>2985.983999999999</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>3.1054285622427997</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>-705.14751527777798</v>
+        <v>-701.38569239333299</v>
       </c>
       <c r="D41">
-        <v>23.5324873333333</v>
+        <v>23.201893999999999</v>
       </c>
       <c r="E41">
-        <v>13.2660422222222</v>
+        <v>-4.5790600000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41:F45" si="10">$F$10*B41</f>
-        <v>14.25</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41:G45" si="11">F41^3</f>
-        <v>2893.640625</v>
+        <f t="shared" si="10"/>
+        <v>3375</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H45" si="12">$B$8/G41/(1E-24)</f>
-        <v>3.3359014649581793</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>0.96</v>
-      </c>
-      <c r="C42">
-        <v>-705.68614622888902</v>
-      </c>
-      <c r="D42">
-        <v>23.325517777777801</v>
-      </c>
-      <c r="E42">
-        <v>7.9335711111111102</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="11"/>
-        <v>2985.983999999999</v>
-      </c>
-      <c r="H42">
         <f t="shared" si="12"/>
-        <v>3.2327366790980809</v>
+        <v>2.7474844444444453</v>
+      </c>
+      <c r="J41">
+        <f>I41^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" t="e">
+        <f>$B$8/(I41*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41">
+        <f>L41/L43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>0.97</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="10"/>
-        <v>14.549999999999999</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="11"/>
-        <v>3080.2713749999994</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="12"/>
-        <v>3.1337823278638894</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>0.98</v>
-      </c>
-      <c r="C44">
-        <v>-704.96750904666703</v>
-      </c>
-      <c r="D44">
-        <v>23.0553924444445</v>
-      </c>
-      <c r="E44">
-        <v>1.86411333333333</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="10"/>
-        <v>14.7</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="11"/>
-        <v>3176.5229999999997</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="12"/>
-        <v>3.0388257853004697</v>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C49">
+        <v>-712.24433594666698</v>
+      </c>
+      <c r="D49">
+        <v>21.1317673333333</v>
+      </c>
+      <c r="E49">
+        <v>8.6153600000000097</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F53" si="13">$F$11*B49</f>
+        <v>13.1625</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G53" si="14">F49^3</f>
+        <v>2280.4216347656252</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49:H53" si="15">$B$8/G49/(1E-24)</f>
+        <v>4.0662480387987676</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0.98</v>
+      </c>
+      <c r="C50">
+        <v>-711.219511457777</v>
+      </c>
+      <c r="D50">
+        <v>21.531811333333302</v>
+      </c>
+      <c r="E50">
+        <v>5.2820044444444401</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="13"/>
+        <v>13.23</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="14"/>
+        <v>2315.6852670000003</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="15"/>
+        <v>4.0043265516876483</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C51">
+        <v>-711.70200454666701</v>
+      </c>
+      <c r="D51">
+        <v>21.083607111111199</v>
+      </c>
+      <c r="E51">
+        <v>2.1431177777777801</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="13"/>
+        <v>13.297499999999999</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="14"/>
+        <v>2351.3105743593746</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="15"/>
+        <v>3.9436559768487442</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52">
         <v>0.99</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="10"/>
-        <v>14.85</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="11"/>
-        <v>3274.7591249999996</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="12"/>
-        <v>2.947667181475524</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46">
+      <c r="C52">
+        <v>-710.94687039555595</v>
+      </c>
+      <c r="D52">
+        <v>21.300226444444402</v>
+      </c>
+      <c r="E52">
+        <v>2.1819288888888901</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="13"/>
+        <v>13.365</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="14"/>
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="15"/>
+        <v>3.8842048851292241</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0.995</v>
+      </c>
+      <c r="C53">
+        <v>-711.08343560444496</v>
+      </c>
+      <c r="D53">
+        <v>21.187772666666699</v>
+      </c>
+      <c r="E53">
+        <v>-0.55344222222221895</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="13"/>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="14"/>
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="15"/>
+        <v>3.8259427902229275</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C46">
-        <v>-703.05027392444401</v>
-      </c>
-      <c r="D46">
-        <v>23.3511824444445</v>
-      </c>
-      <c r="E46">
-        <v>-2.1203977777777698</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ref="F46" si="13">$F$10*B46</f>
-        <v>15</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ref="G46" si="14">F46^3</f>
-        <v>3375</v>
-      </c>
-      <c r="H46">
-        <f t="shared" ref="H46" si="15">$B$8/G46/(1E-24)</f>
-        <v>2.8601185185185192</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J47">
-        <f>I47^(1/3)</f>
+      <c r="C54">
+        <v>-711.21858191111096</v>
+      </c>
+      <c r="D54">
+        <v>21.031019555555499</v>
+      </c>
+      <c r="E54">
+        <v>-0.18817555555555299</v>
+      </c>
+      <c r="F54">
+        <f>$F$11*B54</f>
+        <v>13.5</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54:G55" si="16">F54^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H54">
+        <f>$B$8/G54/(1E-24)</f>
+        <v>3.7688401158360012</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F55">
+        <f>$F$11*B55</f>
+        <v>13.567499999999999</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="16"/>
+        <v>2497.4654606718746</v>
+      </c>
+      <c r="H55">
+        <f>$B$8/G55/(1E-24)</f>
+        <v>3.7128681641528765</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f>I58^(1/3)</f>
         <v>0</v>
       </c>
-      <c r="K47" t="e">
-        <f>$L$5/(I47*(10^-24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M47">
-        <f>L47/L49</f>
+      <c r="K58" t="e">
+        <f>$B$8/(I58*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58">
+        <f>L58/L60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
-      <c r="K49" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
         <v>8</v>
       </c>
-      <c r="L49">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="B2:M51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E16:E21,G16:G21^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="e">
-        <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
-        <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>9.2727600000000011E-21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E16:E21,C16:C21^{1,2})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>13.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="e">
-        <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
-        <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>-705.39561482143199</v>
-      </c>
-      <c r="D16">
-        <v>24.870909650342298</v>
-      </c>
-      <c r="E16">
-        <v>1.69804231700895</v>
-      </c>
-      <c r="F16">
-        <f>$F$11*B16</f>
-        <v>13.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16" si="0">F16^3</f>
-        <v>2460.375</v>
-      </c>
-      <c r="H16">
-        <f>$B$8/G16/(1E-24)</f>
-        <v>3.7688401158360012</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>1.01</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F21" si="1">$F$11*B17</f>
-        <v>13.635</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17:G21" si="2">F17^3</f>
-        <v>2534.9268228749997</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H21" si="3">$B$8/G17/(1E-24)</f>
-        <v>3.6579990855449052</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19">
-        <f>I19^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" t="e">
-        <f>$B$8/(I19*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19">
-        <f>L19/L21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>0.88</v>
-      </c>
-      <c r="C26">
-        <v>-704.15527766444404</v>
-      </c>
-      <c r="D26">
-        <v>23.195839804002699</v>
-      </c>
-      <c r="E26">
-        <v>12.065858067632799</v>
-      </c>
-      <c r="F26">
-        <f>$F$10*B26</f>
-        <v>13.2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26" si="4">F26^3</f>
-        <v>2299.9679999999998</v>
-      </c>
-      <c r="H26">
-        <f>$B$8/G26/(1E-24)</f>
-        <v>4.031690875699141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="C27">
-        <v>-707.93801843333301</v>
-      </c>
-      <c r="D27">
-        <v>23.1328571111111</v>
-      </c>
-      <c r="E27">
-        <v>6.3244911111111097</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F32" si="5">$F$10*B27</f>
-        <v>13.275</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27:G32" si="6">F27^3</f>
-        <v>2339.395171875</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H32" si="7">$B$8/G27/(1E-24)</f>
-        <v>3.9637424713362921</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>0.89</v>
-      </c>
-      <c r="C28">
-        <v>-707.436724048889</v>
-      </c>
-      <c r="D28">
-        <v>23.440001111111101</v>
-      </c>
-      <c r="E28">
-        <v>5.3531088888888796</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>13.35</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>2379.2703750000001</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
-        <v>3.8973124271343065</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="C29">
-        <v>-707.72760733999996</v>
-      </c>
-      <c r="D29">
-        <v>22.853167555555601</v>
-      </c>
-      <c r="E29">
-        <v>3.5688088888888898</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="5"/>
-        <v>13.425000000000001</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="6"/>
-        <v>2419.5961406250008</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="7"/>
-        <v>3.8323585677421255</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>0.9</v>
-      </c>
-      <c r="C30">
-        <v>-706.65802437777802</v>
-      </c>
-      <c r="D30">
-        <v>23.2719751111112</v>
-      </c>
-      <c r="E30">
-        <v>2.21814666666666</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="5"/>
-        <v>13.5</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>2460.375</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="7"/>
-        <v>3.7688401158360012</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="C31">
-        <v>-705.51874519333398</v>
-      </c>
-      <c r="D31">
-        <v>23.182362000000001</v>
-      </c>
-      <c r="E31">
-        <v>1.9658177777777801</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="5"/>
-        <v>13.575000000000001</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>2501.6094843750002</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="7"/>
-        <v>3.7067176383514147</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>0.91</v>
-      </c>
-      <c r="C32">
-        <v>-705.91537566444401</v>
-      </c>
-      <c r="D32">
-        <v>23.277029333333299</v>
-      </c>
-      <c r="E32">
-        <v>0.72406222222222705</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>13.65</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>2543.3021250000002</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="7"/>
-        <v>3.6459529950654215</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>0.92</v>
-      </c>
-      <c r="F33">
-        <f>$F$10*B33</f>
-        <v>13.8</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G36" si="8">F33^3</f>
-        <v>2628.0720000000006</v>
-      </c>
-      <c r="H33">
-        <f>$B$8/G33/(1E-24)</f>
-        <v>3.5283508214386816</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>0.94</v>
-      </c>
-      <c r="C34">
-        <v>-704.126350946667</v>
-      </c>
-      <c r="D34">
-        <v>23.065804888888898</v>
-      </c>
-      <c r="E34">
-        <v>-3.71379555555556</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F36" si="9">$F$10*B34</f>
-        <v>14.1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>2803.221</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H36" si="10">$B$8/G34/(1E-24)</f>
-        <v>3.3078947396584151</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>0.96</v>
-      </c>
-      <c r="C35">
-        <v>-702.68675454666595</v>
-      </c>
-      <c r="D35">
-        <v>23.330576666666701</v>
-      </c>
-      <c r="E35">
-        <v>-3.9988800000000002</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="9"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>2985.983999999999</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="10"/>
-        <v>3.1054285622427997</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>-701.38569239333299</v>
-      </c>
-      <c r="D36">
-        <v>23.201893999999999</v>
-      </c>
-      <c r="E36">
-        <v>-4.5790600000000001</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="8"/>
-        <v>3375</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="10"/>
-        <v>2.7474844444444453</v>
-      </c>
-      <c r="J36">
-        <f>I36^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" t="e">
-        <f>$B$8/(I36*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36">
-        <f>L36/L38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>-711.21858191111096</v>
-      </c>
-      <c r="D45">
-        <v>21.031019555555499</v>
-      </c>
-      <c r="E45">
-        <v>-0.18817555555555299</v>
-      </c>
-      <c r="F45">
-        <f>$F$11*B45</f>
-        <v>13.5</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G50" si="11">F45^3</f>
-        <v>2460.375</v>
-      </c>
-      <c r="H45">
-        <f>$B$8/G45/(1E-24)</f>
-        <v>3.7688401158360012</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F46">
-        <f t="shared" ref="F46:F50" si="12">$F$11*B46</f>
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H46" t="e">
-        <f>$B$8/G46/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H47" t="e">
-        <f t="shared" ref="H47:H50" si="13">$B$8/G47/(1E-24)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H48" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H49" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49">
-        <f>I49^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" t="e">
-        <f>$B$8/(I49*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49">
-        <f>L49/L51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="F50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H50" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.2">
-      <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51">
+      <c r="L60">
         <v>30</v>
       </c>
     </row>
@@ -12420,8 +14764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12512,6 +14856,9 @@
       <c r="L7">
         <v>2.6211362176344863</v>
       </c>
+      <c r="M7">
+        <v>2.856243793770803</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -12576,6 +14923,9 @@
       <c r="L9">
         <v>2.7374781174791809</v>
       </c>
+      <c r="M9">
+        <v>2.9497771163247695</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -12767,6 +15117,21 @@
       <c r="B25">
         <v>1300</v>
       </c>
+      <c r="C25">
+        <v>3379.578459322016</v>
+      </c>
+      <c r="D25">
+        <v>15.006779837824192</v>
+      </c>
+      <c r="E25">
+        <v>2.856243793770803</v>
+      </c>
+      <c r="F25">
+        <v>-698.30950473771759</v>
+      </c>
+      <c r="G25">
+        <v>-6.9830950473771756</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
@@ -12776,6 +15141,21 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1100</v>
+      </c>
+      <c r="C27">
+        <v>3272.4167350063676</v>
+      </c>
+      <c r="D27">
+        <v>14.846458488803105</v>
+      </c>
+      <c r="E27">
+        <v>2.9497771163247695</v>
+      </c>
+      <c r="F27">
+        <v>-703.98228975325071</v>
+      </c>
+      <c r="G27">
+        <v>-7.039822897532507</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1911F07-E8A3-4248-8BC8-32A937A35AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4857752-49BF-BD43-AE98-786F9FECF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="620" windowWidth="25380" windowHeight="18540" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2800" yWindow="1040" windowWidth="25380" windowHeight="18540" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,6 @@
     <sheet name="ZrF4" sheetId="6" r:id="rId6"/>
     <sheet name="summary" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">summary!$I$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">summary!$I$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">summary!$J$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">summary!$J$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">summary!$J$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">summary!$J$9:$N$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">summary!$I$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">summary!$J$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">summary!$J$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">summary!$J$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">summary!$J$9:$N$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">summary!$I$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">summary!$I$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">summary!$I$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="47">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -214,6 +198,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Eform</t>
+  </si>
+  <si>
+    <t>MY ZrF4 data is pretty noisy. probably need more simulations…</t>
   </si>
 </sst>
 </file>
@@ -551,6 +541,491 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="577997695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7525527055969974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1372820970563007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6211362176344863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.856243793770803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6764003882127736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-562E-2146-9058-E7047A8963DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8043151656857856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1725903779491365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6831495714253357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9132421169951779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-562E-2146-9058-E7047A8963DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8534134446766684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2201025806921408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7374781174791809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9497771163247695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8371778703684787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-562E-2146-9058-E7047A8963DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1741735072"/>
+        <c:axId val="1711071728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1741735072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711071728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1711071728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741735072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2010,71 +2485,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$30:$G$38</c:f>
+              <c:f>ZrF4!$G$27:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2299.9679999999998</c:v>
+                  <c:v>2315.6852670000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2339.395171875</c:v>
+                  <c:v>2351.3105743593746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2379.2703750000001</c:v>
+                  <c:v>2387.2994021250001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2419.5961406250008</c:v>
+                  <c:v>2423.6535955781246</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2460.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2501.6094843750002</c:v>
+                  <c:v>2497.4654606718746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2543.3021250000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2585.455453125001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2628.0720000000006</c:v>
+                  <c:v>2534.9268228749997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$30:$E$38</c:f>
+              <c:f>ZrF4!$E$27:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>12.065858067632799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3244911111111097</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3531088888888796</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5688088888888898</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.21814666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9658177777777801</c:v>
+                  <c:v>0.90448444444444598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72406222222222705</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.10077111111111</c:v>
+                  <c:v>-2.4867444444444402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,56 +2785,83 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$49:$G$54</c:f>
+              <c:f>ZrF4!$C$40:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2280.4216347656252</c:v>
+                  <c:v>-712.32771105333404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2315.6852670000003</c:v>
+                  <c:v>-712.24433594666698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2351.3105743593746</c:v>
+                  <c:v>-711.219511457777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2387.2994021250001</c:v>
+                  <c:v>-711.70200454666701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2423.6535955781246</c:v>
+                  <c:v>-710.94687039555595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2460.375</c:v>
+                  <c:v>-711.08343560444496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-711.21858191111096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-709.21859318444399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$49:$E$54</c:f>
+              <c:f>ZrF4!$E$40:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>14.038931111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6153600000000097</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.2820044444444401</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.1431177777777801</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.1819288888888901</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-0.55344222222221895</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-0.18817555555555299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7398177777777803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,6 +2870,326 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA21-3645-90D1-32C01B38DD34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2014724784"/>
+        <c:axId val="2014720272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2014724784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014720272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2014720272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014724784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ZrF4!$G$15:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2315.6852670000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2351.3105743593746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2387.2994021250001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2423.6535955781246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2497.4654606718746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2534.9268228749997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2572.7609318906243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ZrF4!$E$15:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0149822222222102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.16085333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8853488888888901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8688066666666701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69804231700895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76227333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.80159777777777697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.75290888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3473-1549-8257-58747F69D0C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2568,7 +3381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2993,6 +3806,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$I$7:$I$9</c:f>
@@ -3019,6 +3846,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.856243793770803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9132421169951779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9497771163247695</c:v>
@@ -3069,6 +3899,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$I$7:$I$9</c:f>
@@ -3093,6 +3937,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.6764003882127736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8371778703684787</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3291,482 +4141,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$J$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$J$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.7525527055969974</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1372820970563007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6211362176344863</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.856243793770803</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-562E-2146-9058-E7047A8963DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$J$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$J$8:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.8043151656857856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1725903779491365</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6831495714253357</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-562E-2146-9058-E7047A8963DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$J$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$J$9:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.8534134446766684</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2201025806921408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7374781174791809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9497771163247695</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-562E-2146-9058-E7047A8963DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1741735072"/>
-        <c:axId val="1711071728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1741735072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1711071728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1711071728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1741735072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4642,6 +5057,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9045,6 +9976,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08905BBC-1D0C-4B4D-A3A4-8F100AB27249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9088,16 +10057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11807,8 +12776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I47" activeCellId="2" sqref="I19:M19 I32:M32 I47:M47"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12122,7 +13091,7 @@
       </c>
       <c r="M19">
         <f>L19/L21</f>
-        <v>-7.3572507573506609</v>
+        <v>-13.137947780983323</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -12180,7 +13149,7 @@
         <v>8</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -12373,7 +13342,7 @@
       </c>
       <c r="M32">
         <f>L32/L34</f>
-        <v>-7.3857247881816868</v>
+        <v>-13.188794264610154</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -12431,7 +13400,7 @@
         <v>8</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -12676,7 +13645,7 @@
       </c>
       <c r="M47">
         <f>L47/L49</f>
-        <v>-7.4201586288625014</v>
+        <v>-13.250283265825896</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
@@ -12734,7 +13703,7 @@
         <v>8</v>
       </c>
       <c r="L49">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
@@ -12799,8 +13768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
   <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I46" activeCellId="2" sqref="I19:M19 I31:M31 I46:M46"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I46" activeCellId="2" sqref="I19:M19 I33:M33 I46:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12845,14 +13814,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E43:E50,G43:G50^{1,2})</f>
-        <v>3.6620969042715271E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E28:E37,G28:G37^{1,2})</f>
+        <v>1.939703007925341E-5</v>
       </c>
       <c r="K6">
-        <v>-0.25966994238554097</v>
+        <v>-0.14823255324684659</v>
       </c>
       <c r="L6">
-        <v>457.58488049184916</v>
+        <v>278.20223369558801</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -12864,11 +13833,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3818.327971466525</v>
+        <v>4328.567020613863</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3272.4167350063676</v>
+        <v>3313.4561469117943</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -12901,14 +13870,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E43:E50,C43:C50^{1,2})</f>
-        <v>1.1309972885590562</v>
+        <f t="array" ref="J10:L10">LINEST(E28:E37,C28:C37^{1,2})</f>
+        <v>1.4664728145664194</v>
       </c>
       <c r="K10">
-        <v>1588.5923689646761</v>
+        <v>2052.5430004130358</v>
       </c>
       <c r="L10">
-        <v>557828.7434464707</v>
+        <v>718205.92942035908</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -12917,11 +13886,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-700.61203159001047</v>
+        <v>-698.50760407176335</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-703.98228975325071</v>
+        <v>-701.13852644303597</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -13114,7 +14083,7 @@
       </c>
       <c r="M19">
         <f>L19/L21</f>
-        <v>-6.9830950473771756</v>
+        <v>-15.517988994171501</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -13172,7 +14141,7 @@
         <v>8</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -13328,6 +14297,27 @@
       <c r="B31">
         <v>0.97499999999999998</v>
       </c>
+      <c r="C31">
+        <v>-702.02003016000106</v>
+      </c>
+      <c r="D31">
+        <v>25.2816846666666</v>
+      </c>
+      <c r="E31">
+        <v>4.1004288888888896</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="7">$F$10*B31</f>
+        <v>14.625</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="8">F31^3</f>
+        <v>3128.150390625</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="9">$B$8/G31/(1E-24)</f>
+        <v>3.0858171106253511</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
@@ -13380,17 +14370,23 @@
         <f t="shared" si="6"/>
         <v>2.9927837592944324</v>
       </c>
+      <c r="I33">
+        <v>3313.4561469117943</v>
+      </c>
       <c r="J33">
         <f>I33^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" t="e">
+        <v>14.90826403254381</v>
+      </c>
+      <c r="K33">
         <f>$B$8/(I33*(10^-24))</f>
-        <v>#DIV/0!</v>
+        <v>2.9132421169951779</v>
+      </c>
+      <c r="L33">
+        <v>-701.13852644303597</v>
       </c>
       <c r="M33">
         <f>L33/L35</f>
-        <v>0</v>
+        <v>-15.580856143178577</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -13448,7 +14444,7 @@
         <v>8</v>
       </c>
       <c r="L35">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -13465,15 +14461,15 @@
         <v>-0.58412222222222199</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F37" si="7">$F$10*B36</f>
+        <f t="shared" ref="F36:F37" si="10">$F$10*B36</f>
         <v>15</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G37" si="8">F36^3</f>
+        <f t="shared" ref="G36:G37" si="11">F36^3</f>
         <v>3375</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="9">$B$8/G36/(1E-24)</f>
+        <f t="shared" ref="H36:H37" si="12">$B$8/G36/(1E-24)</f>
         <v>2.8601185185185192</v>
       </c>
     </row>
@@ -13481,16 +14477,25 @@
       <c r="B37">
         <v>1.0049999999999999</v>
       </c>
+      <c r="C37">
+        <v>-700.99123018222201</v>
+      </c>
+      <c r="D37">
+        <v>25.106439999999999</v>
+      </c>
+      <c r="E37">
+        <v>-2.0541044444444498</v>
+      </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15.074999999999999</v>
       </c>
       <c r="G37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3425.8785468749998</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8176422099975302</v>
       </c>
     </row>
@@ -13553,15 +14558,15 @@
         <v>13.2660422222222</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F49" si="10">$F$10*B43</f>
+        <f t="shared" ref="F43:F49" si="13">$F$10*B43</f>
         <v>14.25</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G49" si="11">F43^3</f>
+        <f t="shared" ref="G43:G49" si="14">F43^3</f>
         <v>2893.640625</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:H49" si="12">$B$8/G43/(1E-24)</f>
+        <f t="shared" ref="H43:H49" si="15">$B$8/G43/(1E-24)</f>
         <v>3.3359014649581793</v>
       </c>
     </row>
@@ -13579,15 +14584,15 @@
         <v>7.9335711111111102</v>
       </c>
       <c r="F44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.399999999999999</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2985.983999999999</v>
       </c>
       <c r="H44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.2327366790980809</v>
       </c>
     </row>
@@ -13605,15 +14610,15 @@
         <v>5.4415288888888798</v>
       </c>
       <c r="F45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.549999999999999</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3080.2713749999994</v>
       </c>
       <c r="H45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.1337823278638894</v>
       </c>
     </row>
@@ -13631,15 +14636,15 @@
         <v>1.86411333333333</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.7</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3176.5229999999997</v>
       </c>
       <c r="H46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.0388257853004697</v>
       </c>
       <c r="I46">
@@ -13658,7 +14663,7 @@
       </c>
       <c r="M46">
         <f>L46/L48</f>
-        <v>-7.039822897532507</v>
+        <v>-15.644050883405571</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -13675,15 +14680,15 @@
         <v>1.4164666666666701</v>
       </c>
       <c r="F47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.775</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3225.3917343749999</v>
       </c>
       <c r="H47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9927837592944324</v>
       </c>
     </row>
@@ -13701,22 +14706,22 @@
         <v>0.26353555555555602</v>
       </c>
       <c r="F48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.85</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3274.7591249999996</v>
       </c>
       <c r="H48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.947667181475524</v>
       </c>
       <c r="K48" t="s">
         <v>8</v>
       </c>
       <c r="L48">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
@@ -13733,15 +14738,15 @@
         <v>-0.69529111111110997</v>
       </c>
       <c r="F49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.925000000000001</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3324.6277031250002</v>
       </c>
       <c r="H49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9034529162247886</v>
       </c>
     </row>
@@ -13759,15 +14764,15 @@
         <v>-2.1203977777777698</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50" si="13">$F$10*B50</f>
+        <f t="shared" ref="F50" si="16">$F$10*B50</f>
         <v>15</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50" si="14">F50^3</f>
+        <f t="shared" ref="G50" si="17">F50^3</f>
         <v>3375</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="15">$B$8/G50/(1E-24)</f>
+        <f t="shared" ref="H50" si="18">$B$8/G50/(1E-24)</f>
         <v>2.8601185185185192</v>
       </c>
     </row>
@@ -13778,13 +14783,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
-  <dimension ref="B2:M60"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -13822,9 +14830,15 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">LINEST(E19:E25,G19:G25^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6:L6">LINEST(E40:E46,G40:G46^{1,2})</f>
+        <v>3.6337295140100197E-4</v>
+      </c>
+      <c r="K6">
+        <v>-1.7736790063336916</v>
+      </c>
+      <c r="L6">
+        <v>2164.1900532314471</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -13834,13 +14848,13 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>2464.5958454670308</v>
+      </c>
+      <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>#VALUE!</v>
+        <v>2416.5572494322632</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -13872,9 +14886,15 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="e" cm="1">
-        <f t="array" ref="J10">LINEST(E19:E25,C19:C25^{1,2})</f>
-        <v>#VALUE!</v>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10:L10">LINEST(E40:E47,C40:C47^{1,2})</f>
+        <v>1.7496102262310476</v>
+      </c>
+      <c r="K10">
+        <v>2482.1116024410699</v>
+      </c>
+      <c r="L10">
+        <v>880317.00642839505</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -13887,13 +14907,13 @@
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>-707.7298286829689</v>
+      </c>
+      <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>#VALUE!</v>
+        <v>-710.93563476025327</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -13945,6 +14965,27 @@
       <c r="B15">
         <v>0.98</v>
       </c>
+      <c r="C15">
+        <v>-706.03604228444499</v>
+      </c>
+      <c r="D15">
+        <v>24.8748742222222</v>
+      </c>
+      <c r="E15">
+        <v>7.0149822222222102</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="0">$F$11*B15</f>
+        <v>13.23</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="1">F15^3</f>
+        <v>2315.6852670000003</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="2">$B$8/G15/(1E-24)</f>
+        <v>4.0043265516876483</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -13960,15 +15001,15 @@
         <v>4.16085333333334</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F20" si="0">$F$11*B16</f>
+        <f t="shared" ref="F16:F20" si="3">$F$11*B16</f>
         <v>13.297499999999999</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G20" si="1">F16^3</f>
+        <f t="shared" ref="G16:G20" si="4">F16^3</f>
         <v>2351.3105743593746</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H20" si="2">$B$8/G16/(1E-24)</f>
+        <f t="shared" ref="H16:H20" si="5">$B$8/G16/(1E-24)</f>
         <v>3.9436559768487442</v>
       </c>
     </row>
@@ -13986,15 +15027,15 @@
         <v>4.8853488888888901</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.365</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2387.2994021250001</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8842048851292241</v>
       </c>
     </row>
@@ -14012,16 +15053,34 @@
         <v>2.8688066666666701</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.432499999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2423.6535955781246</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8259427902229275</v>
+      </c>
+      <c r="I18">
+        <v>2522.2388806535328</v>
+      </c>
+      <c r="J18">
+        <f>I18^(1/3)</f>
+        <v>13.612213078742627</v>
+      </c>
+      <c r="K18">
+        <f>$B$8/(I18*(10^-24))</f>
+        <v>3.6764003882127736</v>
+      </c>
+      <c r="L18">
+        <v>-704.55693404688441</v>
+      </c>
+      <c r="M18">
+        <f>L18/L20</f>
+        <v>-23.485231134896146</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -14038,15 +15097,15 @@
         <v>1.69804231700895</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2460.375</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7688401158360012</v>
       </c>
     </row>
@@ -14064,16 +15123,22 @@
         <v>1.76227333333333</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.567499999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2497.4654606718746</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7128681641528765</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -14090,15 +15155,15 @@
         <v>-0.80159777777777697</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F22" si="3">$F$11*B21</f>
+        <f t="shared" ref="F21:F22" si="6">$F$11*B21</f>
         <v>13.635</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G22" si="4">F21^3</f>
+        <f t="shared" ref="G21:G22" si="7">F21^3</f>
         <v>2534.9268228749997</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H22" si="5">$B$8/G21/(1E-24)</f>
+        <f t="shared" ref="H21:H22" si="8">$B$8/G21/(1E-24)</f>
         <v>3.6579990855449052</v>
       </c>
     </row>
@@ -14106,652 +15171,505 @@
       <c r="B22">
         <v>1.0149999999999999</v>
       </c>
+      <c r="C22">
+        <v>-704.299571364445</v>
+      </c>
+      <c r="D22">
+        <v>24.715834888888899</v>
+      </c>
+      <c r="E22">
+        <v>-1.75290888888889</v>
+      </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.702499999999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2572.7609318906243</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6042058494668616</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J23">
-        <f>I23^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" t="e">
-        <f>$B$8/(I23*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23">
-        <f>L23/L25</f>
-        <v>0</v>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
         <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>1200</v>
+        <v>0.98</v>
+      </c>
+      <c r="F27">
+        <f>$F$11*B27</f>
+        <v>13.23</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="9">F27^3</f>
+        <v>2315.6852670000003</v>
+      </c>
+      <c r="H27">
+        <f>$B$8/G27/(1E-24)</f>
+        <v>4.0043265516876483</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H28" t="s">
-        <v>26</v>
+      <c r="B28">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F33" si="10">$F$11*B28</f>
+        <v>13.297499999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G34" si="11">F28^3</f>
+        <v>2351.3105743593746</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H34" si="12">$B$8/G28/(1E-24)</f>
+        <v>3.9436559768487442</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
+      <c r="B29">
+        <v>0.99</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>13.365</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="12"/>
+        <v>3.8842048851292241</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>0.88</v>
-      </c>
-      <c r="C30">
-        <v>-704.15527766444404</v>
-      </c>
-      <c r="D30">
-        <v>23.195839804002699</v>
-      </c>
-      <c r="E30">
-        <v>12.065858067632799</v>
+        <v>0.995</v>
       </c>
       <c r="F30">
-        <f>$F$10*B30</f>
-        <v>13.2</v>
+        <f t="shared" si="10"/>
+        <v>13.432499999999999</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="6">F30^3</f>
-        <v>2299.9679999999998</v>
+        <f t="shared" si="11"/>
+        <v>2423.6535955781246</v>
       </c>
       <c r="H30">
-        <f>$B$8/G30/(1E-24)</f>
-        <v>4.031690875699141</v>
+        <f t="shared" si="12"/>
+        <v>3.8259427902229275</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>0.88500000000000001</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>-707.93801843333301</v>
+        <v>-707.09132987999999</v>
       </c>
       <c r="D31">
-        <v>23.1328571111111</v>
+        <v>23.087502888888899</v>
       </c>
       <c r="E31">
-        <v>6.3244911111111097</v>
+        <v>0.90448444444444598</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F37" si="7">$F$10*B31</f>
-        <v>13.275</v>
+        <f t="shared" si="10"/>
+        <v>13.5</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G37" si="8">F31^3</f>
-        <v>2339.395171875</v>
+        <f t="shared" si="11"/>
+        <v>2460.375</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H37" si="9">$B$8/G31/(1E-24)</f>
-        <v>3.9637424713362921</v>
+        <f t="shared" si="12"/>
+        <v>3.7688401158360012</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>0.89</v>
-      </c>
-      <c r="C32">
-        <v>-707.436724048889</v>
-      </c>
-      <c r="D32">
-        <v>23.440001111111101</v>
-      </c>
-      <c r="E32">
-        <v>5.3531088888888796</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
-        <v>13.35</v>
+        <f t="shared" si="10"/>
+        <v>13.567499999999999</v>
       </c>
       <c r="G32">
-        <f t="shared" si="8"/>
-        <v>2379.2703750000001</v>
+        <f t="shared" si="11"/>
+        <v>2497.4654606718746</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
-        <v>3.8973124271343065</v>
+        <f t="shared" si="12"/>
+        <v>3.7128681641528765</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>0.89500000000000002</v>
+        <v>1.01</v>
       </c>
       <c r="C33">
-        <v>-707.72760733999996</v>
+        <v>-707.50244896888898</v>
       </c>
       <c r="D33">
-        <v>22.853167555555601</v>
+        <v>23.163449111111099</v>
       </c>
       <c r="E33">
-        <v>3.5688088888888898</v>
+        <v>-2.4867444444444402</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
-        <v>13.425000000000001</v>
+        <f t="shared" si="10"/>
+        <v>13.635</v>
       </c>
       <c r="G33">
-        <f t="shared" si="8"/>
-        <v>2419.5961406250008</v>
+        <f t="shared" si="11"/>
+        <v>2534.9268228749997</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
-        <v>3.8323585677421255</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>0.9</v>
-      </c>
-      <c r="C34">
-        <v>-706.65802437777802</v>
-      </c>
-      <c r="D34">
-        <v>23.2719751111112</v>
-      </c>
-      <c r="E34">
-        <v>2.21814666666666</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="8"/>
-        <v>2460.375</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="9"/>
-        <v>3.7688401158360012</v>
+        <f t="shared" si="12"/>
+        <v>3.6579990855449052</v>
+      </c>
+      <c r="J33">
+        <f>I33^(1/3)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" t="e">
+        <f>$B$8/(I33*(10^-24))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33">
+        <f>L33/L35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="C35">
-        <v>-705.51874519333398</v>
-      </c>
-      <c r="D35">
-        <v>23.182362000000001</v>
-      </c>
-      <c r="E35">
-        <v>1.9658177777777801</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>13.575000000000001</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>2501.6094843750002</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="9"/>
-        <v>3.7067176383514147</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>0.91</v>
-      </c>
-      <c r="C36">
-        <v>-705.91537566444401</v>
-      </c>
-      <c r="D36">
-        <v>23.277029333333299</v>
-      </c>
-      <c r="E36">
-        <v>0.72406222222222705</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="7"/>
-        <v>13.65</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="8"/>
-        <v>2543.3021250000002</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>3.6459529950654215</v>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
-        <v>13.725000000000001</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="8"/>
-        <v>2585.455453125001</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="9"/>
-        <v>3.586509289414427</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>0.92</v>
-      </c>
-      <c r="C38">
-        <v>-704.72260675777795</v>
-      </c>
-      <c r="D38">
-        <v>22.990194444444398</v>
-      </c>
-      <c r="E38">
-        <v>-3.10077111111111</v>
-      </c>
-      <c r="F38">
-        <f>$F$10*B38</f>
-        <v>13.8</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38:G41" si="10">F38^3</f>
-        <v>2628.0720000000006</v>
-      </c>
-      <c r="H38">
-        <f>$B$8/G38/(1E-24)</f>
-        <v>3.5283508214386816</v>
+      <c r="H38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>0.94</v>
-      </c>
-      <c r="C39">
-        <v>-704.126350946667</v>
-      </c>
-      <c r="D39">
-        <v>23.065804888888898</v>
-      </c>
-      <c r="E39">
-        <v>-3.71379555555556</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39:F41" si="11">$F$10*B39</f>
-        <v>14.1</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="10"/>
-        <v>2803.221</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39:H41" si="12">$B$8/G39/(1E-24)</f>
-        <v>3.3078947396584151</v>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C40">
-        <v>-702.68675454666595</v>
+        <v>-712.32771105333404</v>
       </c>
       <c r="D40">
-        <v>23.330576666666701</v>
+        <v>21.302874444444399</v>
       </c>
       <c r="E40">
-        <v>-3.9988800000000002</v>
+        <v>14.038931111111101</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
-        <v>14.399999999999999</v>
+        <f t="shared" ref="F40" si="13">$F$11*B40</f>
+        <v>13.094999999999999</v>
       </c>
       <c r="G40">
-        <f t="shared" si="10"/>
-        <v>2985.983999999999</v>
+        <f t="shared" ref="G40" si="14">F40^3</f>
+        <v>2245.5178323749997</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
-        <v>3.1054285622427997</v>
+        <f t="shared" ref="H40" si="15">$B$8/G40/(1E-24)</f>
+        <v>4.1294528443769041</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>1</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C41">
-        <v>-701.38569239333299</v>
+        <v>-712.24433594666698</v>
       </c>
       <c r="D41">
-        <v>23.201893999999999</v>
+        <v>21.1317673333333</v>
       </c>
       <c r="E41">
-        <v>-4.5790600000000001</v>
+        <v>8.6153600000000097</v>
       </c>
       <c r="F41">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f t="shared" ref="F41:F45" si="16">$F$11*B41</f>
+        <v>13.1625</v>
       </c>
       <c r="G41">
-        <f t="shared" si="10"/>
-        <v>3375</v>
+        <f t="shared" ref="G41:G45" si="17">F41^3</f>
+        <v>2280.4216347656252</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
-        <v>2.7474844444444453</v>
-      </c>
-      <c r="J41">
-        <f>I41^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" t="e">
-        <f>$B$8/(I41*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41">
-        <f>L41/L43</f>
-        <v>0</v>
+        <f t="shared" ref="H41:H45" si="18">$B$8/G41/(1E-24)</f>
+        <v>4.0662480387987676</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0.98</v>
+      </c>
+      <c r="C42">
+        <v>-711.219511457777</v>
+      </c>
+      <c r="D42">
+        <v>21.531811333333302</v>
+      </c>
+      <c r="E42">
+        <v>5.2820044444444401</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="16"/>
+        <v>13.23</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="17"/>
+        <v>2315.6852670000003</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="18"/>
+        <v>4.0043265516876483</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43">
-        <v>30</v>
+      <c r="B43">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C43">
+        <v>-711.70200454666701</v>
+      </c>
+      <c r="D43">
+        <v>21.083607111111199</v>
+      </c>
+      <c r="E43">
+        <v>2.1431177777777801</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="16"/>
+        <v>13.297499999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="17"/>
+        <v>2351.3105743593746</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="18"/>
+        <v>3.9436559768487442</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0.99</v>
+      </c>
+      <c r="C44">
+        <v>-710.94687039555595</v>
+      </c>
+      <c r="D44">
+        <v>21.300226444444402</v>
+      </c>
+      <c r="E44">
+        <v>2.1819288888888901</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="16"/>
+        <v>13.365</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="17"/>
+        <v>2387.2994021250001</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="18"/>
+        <v>3.8842048851292241</v>
+      </c>
+      <c r="I44">
+        <v>2416.5572494322632</v>
+      </c>
+      <c r="J44">
+        <f>I44^(1/3)</f>
+        <v>13.419377270210067</v>
+      </c>
+      <c r="K44">
+        <f>$B$8/(I44*(10^-24))</f>
+        <v>3.8371778703684787</v>
+      </c>
+      <c r="L44">
+        <v>-710.93563476025327</v>
+      </c>
+      <c r="M44">
+        <f>L44/L46</f>
+        <v>-23.697854492008442</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>1100</v>
+        <v>0.995</v>
+      </c>
+      <c r="C45">
+        <v>-711.08343560444496</v>
+      </c>
+      <c r="D45">
+        <v>21.187772666666699</v>
+      </c>
+      <c r="E45">
+        <v>-0.55344222222221895</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="16"/>
+        <v>13.432499999999999</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="17"/>
+        <v>2423.6535955781246</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="18"/>
+        <v>3.8259427902229275</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H46" t="s">
-        <v>26</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>-711.21858191111096</v>
+      </c>
+      <c r="D46">
+        <v>21.031019555555499</v>
+      </c>
+      <c r="E46">
+        <v>-0.18817555555555299</v>
+      </c>
+      <c r="F46">
+        <f>$F$11*B46</f>
+        <v>13.5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G47" si="19">F46^3</f>
+        <v>2460.375</v>
+      </c>
+      <c r="H46">
+        <f>$B$8/G46/(1E-24)</f>
+        <v>3.7688401158360012</v>
+      </c>
+      <c r="K46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" t="s">
-        <v>34</v>
-      </c>
-      <c r="M47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="C49">
-        <v>-712.24433594666698</v>
-      </c>
-      <c r="D49">
-        <v>21.1317673333333</v>
-      </c>
-      <c r="E49">
-        <v>8.6153600000000097</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ref="F49:F53" si="13">$F$11*B49</f>
-        <v>13.1625</v>
-      </c>
-      <c r="G49">
-        <f t="shared" ref="G49:G53" si="14">F49^3</f>
-        <v>2280.4216347656252</v>
-      </c>
-      <c r="H49">
-        <f t="shared" ref="H49:H53" si="15">$B$8/G49/(1E-24)</f>
-        <v>4.0662480387987676</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>0.98</v>
-      </c>
-      <c r="C50">
-        <v>-711.219511457777</v>
-      </c>
-      <c r="D50">
-        <v>21.531811333333302</v>
-      </c>
-      <c r="E50">
-        <v>5.2820044444444401</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="13"/>
-        <v>13.23</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="14"/>
-        <v>2315.6852670000003</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="15"/>
-        <v>4.0043265516876483</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="C51">
-        <v>-711.70200454666701</v>
-      </c>
-      <c r="D51">
-        <v>21.083607111111199</v>
-      </c>
-      <c r="E51">
-        <v>2.1431177777777801</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="13"/>
-        <v>13.297499999999999</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="14"/>
-        <v>2351.3105743593746</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="15"/>
-        <v>3.9436559768487442</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>0.99</v>
-      </c>
-      <c r="C52">
-        <v>-710.94687039555595</v>
-      </c>
-      <c r="D52">
-        <v>21.300226444444402</v>
-      </c>
-      <c r="E52">
-        <v>2.1819288888888901</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="13"/>
-        <v>13.365</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="14"/>
-        <v>2387.2994021250001</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="15"/>
-        <v>3.8842048851292241</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>0.995</v>
-      </c>
-      <c r="C53">
-        <v>-711.08343560444496</v>
-      </c>
-      <c r="D53">
-        <v>21.187772666666699</v>
-      </c>
-      <c r="E53">
-        <v>-0.55344222222221895</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="13"/>
-        <v>13.432499999999999</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="14"/>
-        <v>2423.6535955781246</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="15"/>
-        <v>3.8259427902229275</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>-711.21858191111096</v>
-      </c>
-      <c r="D54">
-        <v>21.031019555555499</v>
-      </c>
-      <c r="E54">
-        <v>-0.18817555555555299</v>
-      </c>
-      <c r="F54">
-        <f>$F$11*B54</f>
-        <v>13.5</v>
-      </c>
-      <c r="G54">
-        <f t="shared" ref="G54:G55" si="16">F54^3</f>
-        <v>2460.375</v>
-      </c>
-      <c r="H54">
-        <f>$B$8/G54/(1E-24)</f>
-        <v>3.7688401158360012</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55">
+      <c r="B47">
         <v>1.0049999999999999</v>
       </c>
-      <c r="F55">
-        <f>$F$11*B55</f>
+      <c r="C47">
+        <v>-709.21859318444399</v>
+      </c>
+      <c r="D47">
+        <v>21.217733555555601</v>
+      </c>
+      <c r="E47">
+        <v>-4.7398177777777803</v>
+      </c>
+      <c r="F47">
+        <f>$F$11*B47</f>
         <v>13.567499999999999</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="16"/>
+      <c r="G47">
+        <f t="shared" si="19"/>
         <v>2497.4654606718746</v>
       </c>
-      <c r="H55">
-        <f>$B$8/G55/(1E-24)</f>
+      <c r="H47">
+        <f>$B$8/G47/(1E-24)</f>
         <v>3.7128681641528765</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J58">
-        <f>I58^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" t="e">
-        <f>$B$8/(I58*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58">
-        <f>L58/L60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K60" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -14762,15 +15680,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
-  <dimension ref="B5:N33"/>
+  <dimension ref="B5:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -14789,8 +15707,23 @@
       <c r="N5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -14824,8 +15757,26 @@
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.42</v>
+      </c>
+      <c r="T6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1300</v>
       </c>
@@ -14859,8 +15810,29 @@
       <c r="M7">
         <v>2.856243793770803</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>3.6764003882127736</v>
+      </c>
+      <c r="P7">
+        <v>1300</v>
+      </c>
+      <c r="Q7">
+        <v>-4.3790349390114347</v>
+      </c>
+      <c r="R7">
+        <v>-7.4159406892657103</v>
+      </c>
+      <c r="S7">
+        <v>-13.137947780983323</v>
+      </c>
+      <c r="T7">
+        <v>-15.517988994171501</v>
+      </c>
+      <c r="U7">
+        <v>-23.485231134896146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1200</v>
       </c>
@@ -14891,8 +15863,29 @@
       <c r="L8">
         <v>2.6831495714253357</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>2.9132421169951779</v>
+      </c>
+      <c r="P8">
+        <v>1200</v>
+      </c>
+      <c r="Q8">
+        <v>-4.4233984902235042</v>
+      </c>
+      <c r="R8">
+        <v>-7.4543665619614057</v>
+      </c>
+      <c r="S8">
+        <v>-13.188794264610154</v>
+      </c>
+      <c r="T8">
+        <v>-15.580856143178577</v>
+      </c>
+      <c r="U8">
+        <v>-23.518156738818316</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1100</v>
       </c>
@@ -14926,13 +15919,37 @@
       <c r="M9">
         <v>2.9497771163247695</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>3.8371778703684787</v>
+      </c>
+      <c r="P9">
+        <v>1100</v>
+      </c>
+      <c r="Q9">
+        <v>-4.4693646787300301</v>
+      </c>
+      <c r="R9">
+        <v>-7.4999091677319001</v>
+      </c>
+      <c r="S9">
+        <v>-13.250283265825896</v>
+      </c>
+      <c r="T9">
+        <v>-15.644050883405571</v>
+      </c>
+      <c r="U9">
+        <v>-23.697854492008442</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -14948,8 +15965,31 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>1300</v>
+      </c>
+      <c r="Q12">
+        <f>Q7-(1-Q$6)*$Q7-(Q$6)*$U7</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:U12" si="0">R7-(1-R$6)*$Q7-(R$6)*$U7</f>
+        <v>-0.36203828283041561</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>-0.73431043970031062</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>-0.63054614742347503</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1300</v>
       </c>
@@ -14968,8 +16008,31 @@
       <c r="G13">
         <v>-7.4159406892657103</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>1200</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:U13" si="1">Q8-(1-Q$6)*$Q8-(Q$6)*$U8</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>-0.35770191693462738</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>-0.74559730997682827</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>-0.6553406162279245</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1200</v>
       </c>
@@ -14988,8 +16051,31 @@
       <c r="G14">
         <v>-7.4543665619614057</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>1100</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:U14" si="2">Q9-(1-Q$6)*$Q9-(Q$6)*$U9</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>-0.33855591514289207</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>-0.70495286551893344</v>
+      </c>
+      <c r="T14">
+        <f>T9-(1-T$6)*$Q9-(T$6)*$U9</f>
+        <v>-0.59901680737241314</v>
+      </c>
+      <c r="U14">
+        <f>U9-(1-U$6)*$Q9-(U$6)*$U9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1100</v>
       </c>
@@ -15048,7 +16134,7 @@
         <v>-735.72507573506607</v>
       </c>
       <c r="G19">
-        <v>-7.3572507573506609</v>
+        <v>-13.137947780983323</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -15068,7 +16154,7 @@
         <v>-738.57247881816863</v>
       </c>
       <c r="G20">
-        <v>-7.3857247881816868</v>
+        <v>-13.188794264610154</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -15088,7 +16174,7 @@
         <v>-742.01586288625015</v>
       </c>
       <c r="G21">
-        <v>-7.4201586288625014</v>
+        <v>-13.250283265825896</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -15130,13 +16216,28 @@
         <v>-698.30950473771759</v>
       </c>
       <c r="G25">
-        <v>-6.9830950473771756</v>
+        <v>-15.517988994171501</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1200</v>
       </c>
+      <c r="C26">
+        <v>3313.4561469117943</v>
+      </c>
+      <c r="D26">
+        <v>14.90826403254381</v>
+      </c>
+      <c r="E26">
+        <v>2.9132421169951779</v>
+      </c>
+      <c r="F26">
+        <v>-701.13852644303597</v>
+      </c>
+      <c r="G26">
+        <v>-15.580856143178577</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
@@ -15155,7 +16256,7 @@
         <v>-703.98228975325071</v>
       </c>
       <c r="G27">
-        <v>-7.039822897532507</v>
+        <v>-15.644050883405571</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -15184,15 +16285,50 @@
       <c r="B31">
         <v>1300</v>
       </c>
+      <c r="C31">
+        <v>2522.2388806535328</v>
+      </c>
+      <c r="D31">
+        <v>13.612213078742627</v>
+      </c>
+      <c r="E31">
+        <v>3.6764003882127736</v>
+      </c>
+      <c r="F31">
+        <v>-704.55693404688441</v>
+      </c>
+      <c r="G31">
+        <v>-23.485231134896146</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1100</v>
+      </c>
+      <c r="C33">
+        <v>2416.5572494322632</v>
+      </c>
+      <c r="D33">
+        <v>13.419377270210067</v>
+      </c>
+      <c r="E33">
+        <v>3.8371778703684787</v>
+      </c>
+      <c r="F33">
+        <v>-710.93563476025327</v>
+      </c>
+      <c r="G33">
+        <v>-23.697854492008442</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4857752-49BF-BD43-AE98-786F9FECF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6D01C-5264-2543-A492-E72EA9ED9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1040" windowWidth="25380" windowHeight="18540" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="46">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Eform</t>
-  </si>
-  <si>
-    <t>MY ZrF4 data is pretty noisy. probably need more simulations…</t>
   </si>
 </sst>
 </file>
@@ -2502,10 +2499,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$27:$G$35</c:f>
+              <c:f>ZrF4!$G$27:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2315.6852670000003</c:v>
                 </c:pt>
@@ -2532,12 +2529,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$27:$E$35</c:f>
+              <c:f>ZrF4!$E$27:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.6219977777777803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3334977777777799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.22586888888888</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.90448444444444598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.01864</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-2.4867444444444402</c:v>
@@ -2802,33 +2811,33 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$C$40:$C$47</c:f>
+              <c:f>ZrF4!$G$40:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-712.32771105333404</c:v>
+                  <c:v>2245.5178323749997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-712.24433594666698</c:v>
+                  <c:v>2280.4216347656252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-711.219511457777</c:v>
+                  <c:v>2315.6852670000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-711.70200454666701</c:v>
+                  <c:v>2351.3105743593746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-710.94687039555595</c:v>
+                  <c:v>2387.2994021250001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-711.08343560444496</c:v>
+                  <c:v>2423.6535955781246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-711.21858191111096</c:v>
+                  <c:v>2460.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-709.21859318444399</c:v>
+                  <c:v>2497.4654606718746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14785,8 +14794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15242,6 +15251,15 @@
       <c r="B27">
         <v>0.98</v>
       </c>
+      <c r="C27">
+        <v>-710.25096301333394</v>
+      </c>
+      <c r="D27">
+        <v>22.744300222222201</v>
+      </c>
+      <c r="E27">
+        <v>7.6219977777777803</v>
+      </c>
       <c r="F27">
         <f>$F$11*B27</f>
         <v>13.23</v>
@@ -15259,16 +15277,25 @@
       <c r="B28">
         <v>0.98499999999999999</v>
       </c>
+      <c r="C28">
+        <v>-709.34758202444505</v>
+      </c>
+      <c r="D28">
+        <v>22.971832444444399</v>
+      </c>
+      <c r="E28">
+        <v>3.3334977777777799</v>
+      </c>
       <c r="F28">
         <f t="shared" ref="F28:F33" si="10">$F$11*B28</f>
         <v>13.297499999999999</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G34" si="11">F28^3</f>
+        <f t="shared" ref="G28:G33" si="11">F28^3</f>
         <v>2351.3105743593746</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H34" si="12">$B$8/G28/(1E-24)</f>
+        <f t="shared" ref="H28:H33" si="12">$B$8/G28/(1E-24)</f>
         <v>3.9436559768487442</v>
       </c>
     </row>
@@ -15276,6 +15303,15 @@
       <c r="B29">
         <v>0.99</v>
       </c>
+      <c r="C29">
+        <v>-708.34932585111096</v>
+      </c>
+      <c r="D29">
+        <v>23.411276888888899</v>
+      </c>
+      <c r="E29">
+        <v>2.22586888888888</v>
+      </c>
       <c r="F29">
         <f t="shared" si="10"/>
         <v>13.365</v>
@@ -15335,6 +15371,15 @@
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1.0049999999999999</v>
+      </c>
+      <c r="C32">
+        <v>-708.15924559555594</v>
+      </c>
+      <c r="D32">
+        <v>22.900504000000002</v>
+      </c>
+      <c r="E32">
+        <v>-1.01864</v>
       </c>
       <c r="F32">
         <f t="shared" si="10"/>
@@ -15680,10 +15725,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
-  <dimension ref="B5:U35"/>
+  <dimension ref="B5:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16055,7 +16100,7 @@
         <v>1100</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:U14" si="2">Q9-(1-Q$6)*$Q9-(Q$6)*$U9</f>
+        <f t="shared" ref="Q14:S14" si="2">Q9-(1-Q$6)*$Q9-(Q$6)*$U9</f>
         <v>0</v>
       </c>
       <c r="R14">
@@ -16324,11 +16369,6 @@
       </c>
       <c r="G33">
         <v>-23.697854492008442</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6D01C-5264-2543-A492-E72EA9ED9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72218B1-7059-C94B-AABB-8028C9BACE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1040" windowWidth="25380" windowHeight="18540" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2800" yWindow="1040" windowWidth="25380" windowHeight="18540" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -786,6 +786,9 @@
                 <c:pt idx="3">
                   <c:v>2.9132421169951779</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7721571527072446</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2499,30 +2502,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$27:$G$33</c:f>
+              <c:f>ZrF4!$C$27:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2315.6852670000003</c:v>
+                  <c:v>-710.25096301333394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2351.3105743593746</c:v>
+                  <c:v>-709.34758202444505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2387.2994021250001</c:v>
+                  <c:v>-708.34932585111096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2423.6535955781246</c:v>
+                  <c:v>-708.56763322889003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2460.375</c:v>
+                  <c:v>-707.09132987999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2497.4654606718746</c:v>
+                  <c:v>-708.15924559555594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2534.9268228749997</c:v>
+                  <c:v>-707.50244896888898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,6 +2544,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.22586888888888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5317400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.90448444444444598</c:v>
@@ -2576,7 +2582,6 @@
         <c:axId val="2014724784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3948,6 +3953,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3.6764003882127736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7721571527072446</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8371778703684787</c:v>
@@ -10852,8 +10860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" activeCellId="3" sqref="I14:M14 I18:M18 I29:M29 I39:M39"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14794,8 +14802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I30" activeCellId="1" sqref="I18:M18 I30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14840,14 +14848,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E40:E46,G40:G46^{1,2})</f>
-        <v>3.6337295140100197E-4</v>
+        <f t="array" ref="J6:L6">LINEST(E27:E33,G27:G33^{1,2})</f>
+        <v>9.3604172420849605E-5</v>
       </c>
       <c r="K6">
-        <v>-1.7736790063336916</v>
+        <v>-0.49340810323601186</v>
       </c>
       <c r="L6">
-        <v>2164.1900532314471</v>
+        <v>647.26982594294668</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -14859,11 +14867,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>2464.5958454670308</v>
+        <v>2813.0076430447152</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>2416.5572494322632</v>
+        <v>2458.2114754537788</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -14896,14 +14904,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E40:E47,C40:C47^{1,2})</f>
-        <v>1.7496102262310476</v>
+        <f t="array" ref="J10:L10">LINEST(E27:E33,C27:C33^{1,2})</f>
+        <v>0.95667559090691001</v>
       </c>
       <c r="K10">
-        <v>2482.1116024410699</v>
+        <v>1353.345131289597</v>
       </c>
       <c r="L10">
-        <v>880317.00642839505</v>
+        <v>478621.28783499985</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -14918,11 +14926,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-707.7298286829689</v>
+        <v>-706.60944009691082</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-710.93563476025327</v>
+        <v>-708.02384223305012</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -15329,6 +15337,15 @@
       <c r="B30">
         <v>0.995</v>
       </c>
+      <c r="C30">
+        <v>-708.56763322889003</v>
+      </c>
+      <c r="D30">
+        <v>23.108333777777801</v>
+      </c>
+      <c r="E30">
+        <v>1.5317400000000001</v>
+      </c>
       <c r="F30">
         <f t="shared" si="10"/>
         <v>13.432499999999999</v>
@@ -15341,6 +15358,24 @@
         <f t="shared" si="12"/>
         <v>3.8259427902229275</v>
       </c>
+      <c r="I30">
+        <v>2458.2114754537788</v>
+      </c>
+      <c r="J30">
+        <f>I30^(1/3)</f>
+        <v>13.496041775913138</v>
+      </c>
+      <c r="K30">
+        <f>$B$8/(I30*(10^-24))</f>
+        <v>3.7721571527072446</v>
+      </c>
+      <c r="L30">
+        <v>-708.02384223305012</v>
+      </c>
+      <c r="M30">
+        <f>L30/L32</f>
+        <v>-23.600794741101669</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31">
@@ -15393,6 +15428,12 @@
         <f t="shared" si="12"/>
         <v>3.7128681641528765</v>
       </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -15418,26 +15459,6 @@
       <c r="H33">
         <f t="shared" si="12"/>
         <v>3.6579990855449052</v>
-      </c>
-      <c r="J33">
-        <f>I33^(1/3)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" t="e">
-        <f>$B$8/(I33*(10^-24))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33">
-        <f>L33/L35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
@@ -15727,8 +15748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15911,6 +15932,9 @@
       <c r="M8">
         <v>2.9132421169951779</v>
       </c>
+      <c r="N8">
+        <v>3.7721571527072446</v>
+      </c>
       <c r="P8">
         <v>1200</v>
       </c>
@@ -16349,6 +16373,21 @@
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1200</v>
+      </c>
+      <c r="C32">
+        <v>2458.2114754537788</v>
+      </c>
+      <c r="D32">
+        <v>13.496041775913138</v>
+      </c>
+      <c r="E32">
+        <v>3.7721571527072446</v>
+      </c>
+      <c r="F32">
+        <v>-708.02384223305012</v>
+      </c>
+      <c r="G32">
+        <v>-23.600794741101669</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72218B1-7059-C94B-AABB-8028C9BACE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C09A9-A3FC-6D49-B20C-A6D70D4F9911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1040" windowWidth="25380" windowHeight="18540" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2140" yWindow="500" windowWidth="25380" windowHeight="15820" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="46">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -11775,7 +11775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -12791,10 +12791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13691,7 +13691,7 @@
         <v>2.7775482069041675</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>1.01</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1.0149999999999999</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>2.6962593477337373</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>1.02</v>
       </c>
@@ -13773,6 +13773,102 @@
       <c r="H51">
         <f t="shared" si="18"/>
         <v>2.6568025244031075</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0.97</v>
+      </c>
+      <c r="F57">
+        <f>$F$10*B57</f>
+        <v>15.035</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ref="G57:G59" si="23">F57^3</f>
+        <v>3398.6801678750003</v>
+      </c>
+      <c r="H57">
+        <f>$B$8/G57/(1E-24)</f>
+        <v>3.0891897682047929</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0.98</v>
+      </c>
+      <c r="F58">
+        <f>$F$10*B58</f>
+        <v>15.19</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="23"/>
+        <v>3504.881359</v>
+      </c>
+      <c r="H58">
+        <f>$B$8/G58/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0.99</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="24">$F$10*B59</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="23"/>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59" si="25">$B$8/G59/(1E-24)</f>
+        <v>2.9057229712869672</v>
       </c>
     </row>
   </sheetData>
@@ -13785,8 +13881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AE58E-EE9D-A943-9493-3E9DE1B79BB1}">
   <dimension ref="B2:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I46" activeCellId="2" sqref="I19:M19 I33:M33 I46:M46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14802,8 +14898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I30" activeCellId="1" sqref="I18:M18 I30:M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15748,7 +15844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C09A9-A3FC-6D49-B20C-A6D70D4F9911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F15DA0B-F4C7-9447-8391-CBA2EECC94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="500" windowWidth="25380" windowHeight="15820" activeTab="5" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="46">
   <si>
     <t>KF-ZrF4</t>
   </si>
@@ -618,6 +618,769 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>summary!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$J$7:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7525527055969974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8043151656857856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8534134446766684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$K$7:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1372820970563007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1725903779491365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2201025806921408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$7:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6211362176344863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6831495714253357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7374781174791809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$M$7:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.856243793770803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9132421169951779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9497771163247695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.6764003882127736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7721571527072446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8371778703684787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5348-6242-9FE1-EC0773766C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1741735072"/>
+        <c:axId val="1711071728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1741735072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1711071728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1711071728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1741735072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>summary!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1026,6 +1789,307 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1741735072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$B$19:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$E$19:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.6211362176344863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6831495714253357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7374781174791809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8064027310632902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8549079131219095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8534206059510985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8659497928848854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6090-6540-A053-0F64A0CFEB07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1542654272"/>
+        <c:axId val="1543217664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1542654272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543217664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1543217664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542654272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2464,8 +3528,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2485,77 +3551,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$C$27:$C$33</c:f>
+              <c:f>'KF-42ZrF4'!$G$86:$G$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-710.25096301333394</c:v>
+                  <c:v>3192.7573281249997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-709.34758202444505</c:v>
+                  <c:v>3294.6462719999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-708.34932585111096</c:v>
+                  <c:v>3398.6801678750003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-708.56763322889003</c:v>
+                  <c:v>3504.881359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-707.09132987999999</c:v>
+                  <c:v>3613.2721886250006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-708.15924559555594</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-707.50244896888898</c:v>
+                  <c:v>3668.2957001406244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$27:$E$33</c:f>
+              <c:f>'KF-42ZrF4'!$E$86:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6219977777777803</c:v>
+                  <c:v>15.183960000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3334977777777799</c:v>
+                  <c:v>11.508380000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.22586888888888</c:v>
+                  <c:v>6.9991533333333296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5317400000000001</c:v>
+                  <c:v>3.7130200000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90448444444444598</c:v>
+                  <c:v>1.3913866666666701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.01864</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4867444444444402</c:v>
+                  <c:v>-0.22086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +3608,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B76-DE43-9274-53F0F23A6E86}"/>
+              <c16:uniqueId val="{00000000-3D60-4C4F-A0BD-EA9E3AAA833D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2575,13 +3620,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2014724784"/>
-        <c:axId val="2014720272"/>
+        <c:axId val="1426603360"/>
+        <c:axId val="1426392720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2014724784"/>
+        <c:axId val="1426603360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2636,12 +3682,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014720272"/>
+        <c:crossAx val="1426392720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2014720272"/>
+        <c:axId val="1426392720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +3744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014724784"/>
+        <c:crossAx val="1426603360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2816,66 +3862,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$40:$G$47</c:f>
+              <c:f>ZrF4!$C$27:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2245.5178323749997</c:v>
+                  <c:v>-710.25096301333394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2280.4216347656252</c:v>
+                  <c:v>-709.34758202444505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2315.6852670000003</c:v>
+                  <c:v>-708.34932585111096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2351.3105743593746</c:v>
+                  <c:v>-708.56763322889003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2387.2994021250001</c:v>
+                  <c:v>-707.09132987999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2423.6535955781246</c:v>
+                  <c:v>-708.15924559555594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2460.375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2497.4654606718746</c:v>
+                  <c:v>-707.50244896888898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$40:$E$47</c:f>
+              <c:f>ZrF4!$E$27:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.038931111111101</c:v>
+                  <c:v>7.6219977777777803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6153600000000097</c:v>
+                  <c:v>3.3334977777777799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2820044444444401</c:v>
+                  <c:v>2.22586888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1431177777777801</c:v>
+                  <c:v>1.5317400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1819288888888901</c:v>
+                  <c:v>0.90448444444444598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55344222222221895</c:v>
+                  <c:v>-1.01864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.18817555555555299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.7398177777777803</c:v>
+                  <c:v>-2.4867444444444402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,7 +3923,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA21-3645-90D1-32C01B38DD34}"/>
+              <c16:uniqueId val="{00000000-1B76-DE43-9274-53F0F23A6E86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3136,6 +4176,326 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>ZrF4!$G$40:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2245.5178323749997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2280.4216347656252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2315.6852670000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2351.3105743593746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2387.2994021250001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2423.6535955781246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2460.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2497.4654606718746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ZrF4!$E$40:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.038931111111101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6153600000000097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2820044444444401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1431177777777801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1819288888888901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.55344222222221895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.18817555555555299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7398177777777803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA21-3645-90D1-32C01B38DD34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2014724784"/>
+        <c:axId val="2014720272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2014724784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014720272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2014720272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014724784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
               <c:f>ZrF4!$G$15:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3395,769 +4755,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$I$7:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$J$7:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.7525527055969974</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8043151656857856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8534134446766684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5348-6242-9FE1-EC0773766C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$K$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$I$7:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$K$7:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.1372820970563007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1725903779491365</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2201025806921408</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5348-6242-9FE1-EC0773766C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.42</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$I$7:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$L$7:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.6211362176344863</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6831495714253357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7374781174791809</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5348-6242-9FE1-EC0773766C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$M$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.55</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$I$7:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$M$7:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.856243793770803</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9132421169951779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9497771163247695</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5348-6242-9FE1-EC0773766C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$I$7:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$N$7:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.6764003882127736</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7721571527072446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8371778703684787</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5348-6242-9FE1-EC0773766C1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1741735072"/>
-        <c:axId val="1711071728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1741735072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1711071728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1711071728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1741735072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4199,6 +4796,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5590,6 +6267,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9914,6 +11623,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C12C38-B14A-AB74-6B8E-F0C853C90F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10039,13 +11784,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -10105,6 +11850,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A6BE90-C682-EA0C-5B02-95E9A6D28A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11775,7 +13556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9E48F7-BB50-F94E-9787-8E42594C48D4}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
@@ -12791,10 +14572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
-  <dimension ref="B2:M59"/>
+  <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12839,14 +14620,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E15:E22,G15:G22^{1,2})</f>
-        <v>1.7246802111600993E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E86:E91,G86:G91^{1,2})</f>
+        <v>2.5574670072420916E-5</v>
       </c>
       <c r="K6">
-        <v>-0.15239983992531181</v>
+        <v>-0.20797184738354535</v>
       </c>
       <c r="L6">
-        <v>333.73046751087799</v>
+        <v>418.65955872961086</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -12858,11 +14639,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4830.8325379781254</v>
+        <v>4468.5298612953793</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4005.5789277045856</v>
+        <v>3663.4165839421285</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -12895,14 +14676,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E15:E22,C15:C22^{1,2})</f>
-        <v>1.1583689013888445</v>
+        <f t="array" ref="J10:L10">LINEST(E86:E91,C86:C91^{1,2})</f>
+        <v>-7.787746765424699</v>
       </c>
       <c r="K10">
-        <v>1701.9788003312319</v>
+        <v>-11747.948086190143</v>
       </c>
       <c r="L10">
-        <v>625173.37240701751</v>
+        <v>-4430486.2359858435</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -12911,11 +14692,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-733.56402404188555</v>
+        <v>-755.30328478608192</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-735.72507573506607</v>
+        <v>-753.21367654444964</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -13824,12 +15605,21 @@
       <c r="B57">
         <v>0.97</v>
       </c>
+      <c r="C57">
+        <v>-746.88829489777697</v>
+      </c>
+      <c r="D57">
+        <v>23.515265777777799</v>
+      </c>
+      <c r="E57">
+        <v>9.8436355555555597</v>
+      </c>
       <c r="F57">
         <f>$F$10*B57</f>
         <v>15.035</v>
       </c>
       <c r="G57">
-        <f t="shared" ref="G57:G59" si="23">F57^3</f>
+        <f t="shared" ref="G57" si="23">F57^3</f>
         <v>3398.6801678750003</v>
       </c>
       <c r="H57">
@@ -13841,12 +15631,21 @@
       <c r="B58">
         <v>0.98</v>
       </c>
+      <c r="C58">
+        <v>-746.30049722888998</v>
+      </c>
+      <c r="D58">
+        <v>23.402425333333301</v>
+      </c>
+      <c r="E58">
+        <v>5.1306444444444397</v>
+      </c>
       <c r="F58">
         <f>$F$10*B58</f>
         <v>15.19</v>
       </c>
       <c r="G58">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="G58:G60" si="24">F58^3</f>
         <v>3504.881359</v>
       </c>
       <c r="H58">
@@ -13858,17 +15657,829 @@
       <c r="B59">
         <v>0.99</v>
       </c>
+      <c r="C59">
+        <v>-745.515851946667</v>
+      </c>
+      <c r="D59">
+        <v>23.586255333333401</v>
+      </c>
+      <c r="E59">
+        <v>2.7041622222222199</v>
+      </c>
       <c r="F59">
-        <f t="shared" ref="F59" si="24">$F$10*B59</f>
+        <f>$F$10*B59</f>
         <v>15.345000000000001</v>
       </c>
       <c r="G59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3613.2721886250006</v>
       </c>
       <c r="H59">
-        <f t="shared" ref="H59" si="25">$B$8/G59/(1E-24)</f>
+        <f>$B$8/G59/(1E-24)</f>
         <v>2.9057229712869672</v>
+      </c>
+      <c r="I59">
+        <v>3741.1480126453807</v>
+      </c>
+      <c r="J59">
+        <f>I59^(1/3)</f>
+        <v>15.523928372637515</v>
+      </c>
+      <c r="K59">
+        <f>$B$8/(I59*(10^-24))</f>
+        <v>2.8064027310632902</v>
+      </c>
+      <c r="L59">
+        <v>-745.16395543400563</v>
+      </c>
+      <c r="M59">
+        <f>L59/L61</f>
+        <v>-13.306499204178673</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>-745.57003053555604</v>
+      </c>
+      <c r="D60">
+        <v>23.618557111111102</v>
+      </c>
+      <c r="E60">
+        <v>0.63763111111111104</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60" si="25">$F$10*B60</f>
+        <v>15.5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="24"/>
+        <v>3723.875</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60" si="26">$B$8/G60/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>1.01</v>
+      </c>
+      <c r="C61">
+        <v>-744.76171639111101</v>
+      </c>
+      <c r="D61">
+        <v>23.654202444444401</v>
+      </c>
+      <c r="E61">
+        <v>-1.33432666666667</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="27">$F$10*B61</f>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G61" si="28">F61^3</f>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61" si="29">$B$8/G61/(1E-24)</f>
+        <v>2.7365013654425008</v>
+      </c>
+      <c r="K61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0.96</v>
+      </c>
+      <c r="C66">
+        <v>-749.69561161555396</v>
+      </c>
+      <c r="D66">
+        <v>21.1499828888889</v>
+      </c>
+      <c r="E66">
+        <v>13.17694</v>
+      </c>
+      <c r="F66">
+        <f>$F$10*B66</f>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="30">F66^3</f>
+        <v>3294.6462719999995</v>
+      </c>
+      <c r="H66">
+        <f>$B$8/G66/(1E-24)</f>
+        <v>3.1867360357403496</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0.97</v>
+      </c>
+      <c r="C67">
+        <v>-748.73079096666595</v>
+      </c>
+      <c r="D67">
+        <v>21.198351333333299</v>
+      </c>
+      <c r="E67">
+        <v>9.1641955555555601</v>
+      </c>
+      <c r="F67">
+        <f>$F$10*B67</f>
+        <v>15.035</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G69" si="31">F67^3</f>
+        <v>3398.6801678750003</v>
+      </c>
+      <c r="H67">
+        <f>$B$8/G67/(1E-24)</f>
+        <v>3.0891897682047929</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0.98</v>
+      </c>
+      <c r="C68">
+        <v>-748.07817586444401</v>
+      </c>
+      <c r="D68">
+        <v>21.433197111111099</v>
+      </c>
+      <c r="E68">
+        <v>4.9298955555555501</v>
+      </c>
+      <c r="F68">
+        <f>$F$10*B68</f>
+        <v>15.19</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="31"/>
+        <v>3504.881359</v>
+      </c>
+      <c r="H68">
+        <f>$B$8/G68/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0.99</v>
+      </c>
+      <c r="C69">
+        <v>-748.07696325777704</v>
+      </c>
+      <c r="D69">
+        <v>21.281432444444398</v>
+      </c>
+      <c r="E69">
+        <v>1.8124111111111101</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69" si="32">$F$10*B69</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="31"/>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69" si="33">$B$8/G69/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+      <c r="I69">
+        <v>3677.5855192186946</v>
+      </c>
+      <c r="J69">
+        <f>I69^(1/3)</f>
+        <v>15.435507989947753</v>
+      </c>
+      <c r="K69">
+        <f>$B$8/(I69*(10^-24))</f>
+        <v>2.8549079131219095</v>
+      </c>
+      <c r="L69">
+        <v>-747.61373306583312</v>
+      </c>
+      <c r="M69">
+        <f>L69/L71</f>
+        <v>-13.350245233318448</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>-747.44900082888898</v>
+      </c>
+      <c r="D70">
+        <v>21.102662666666699</v>
+      </c>
+      <c r="E70">
+        <v>-1.1384355555555601</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:F71" si="34">$F$10*B70</f>
+        <v>15.5</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70:G71" si="35">F70^3</f>
+        <v>3723.875</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70:H71" si="36">$B$8/G70/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>1.01</v>
+      </c>
+      <c r="C71">
+        <v>-747.40745967777798</v>
+      </c>
+      <c r="D71">
+        <v>21.2093308888889</v>
+      </c>
+      <c r="E71">
+        <v>-3.1063711111111099</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="34"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="35"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="36"/>
+        <v>2.7365013654425008</v>
+      </c>
+      <c r="K71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0.96</v>
+      </c>
+      <c r="C76">
+        <v>-751.51750523555495</v>
+      </c>
+      <c r="D76">
+        <v>19.083106000000001</v>
+      </c>
+      <c r="E76">
+        <v>11.2027555555555</v>
+      </c>
+      <c r="F76">
+        <f>$F$10*B76</f>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76" si="37">F76^3</f>
+        <v>3294.6462719999995</v>
+      </c>
+      <c r="H76">
+        <f>$B$8/G76/(1E-24)</f>
+        <v>3.1867360357403496</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0.97</v>
+      </c>
+      <c r="C77">
+        <v>-751.82684092666705</v>
+      </c>
+      <c r="D77">
+        <v>18.851447333333301</v>
+      </c>
+      <c r="E77">
+        <v>9.0016577777777709</v>
+      </c>
+      <c r="F77">
+        <f>$F$10*B77</f>
+        <v>15.035</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G79" si="38">F77^3</f>
+        <v>3398.6801678750003</v>
+      </c>
+      <c r="H77">
+        <f>$B$8/G77/(1E-24)</f>
+        <v>3.0891897682047929</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0.98</v>
+      </c>
+      <c r="C78">
+        <v>-751.18254144666696</v>
+      </c>
+      <c r="D78">
+        <v>18.898326888888899</v>
+      </c>
+      <c r="E78">
+        <v>3.9069400000000001</v>
+      </c>
+      <c r="F78">
+        <f>$F$10*B78</f>
+        <v>15.19</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="38"/>
+        <v>3504.881359</v>
+      </c>
+      <c r="H78">
+        <f>$B$8/G78/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+      <c r="I78">
+        <v>3679.5024112824153</v>
+      </c>
+      <c r="J78">
+        <f>I78^(1/3)</f>
+        <v>15.438189374539279</v>
+      </c>
+      <c r="K78">
+        <f>$B$8/(I78*(10^-24))</f>
+        <v>2.8534206059510985</v>
+      </c>
+      <c r="L78">
+        <v>-750.61184068011528</v>
+      </c>
+      <c r="M78">
+        <f>L78/L80</f>
+        <v>-13.403782869287772</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0.99</v>
+      </c>
+      <c r="C79">
+        <v>-751.34321230444402</v>
+      </c>
+      <c r="D79">
+        <v>18.865387111111101</v>
+      </c>
+      <c r="E79">
+        <v>1.93274888888889</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79" si="39">$F$10*B79</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="38"/>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79" si="40">$B$8/G79/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>-750.34806934000005</v>
+      </c>
+      <c r="D80">
+        <v>18.868212</v>
+      </c>
+      <c r="E80">
+        <v>-1.0560066666666701</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:F81" si="41">$F$10*B80</f>
+        <v>15.5</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80:G81" si="42">F80^3</f>
+        <v>3723.875</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ref="H80:H81" si="43">$B$8/G80/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+      <c r="K80" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>1.01</v>
+      </c>
+      <c r="C81">
+        <v>-749.36660218222198</v>
+      </c>
+      <c r="D81">
+        <v>18.827842444444499</v>
+      </c>
+      <c r="E81">
+        <v>-3.1684955555555501</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="41"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="42"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="43"/>
+        <v>2.7365013654425008</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0.95</v>
+      </c>
+      <c r="C86">
+        <v>-753.80325331999995</v>
+      </c>
+      <c r="D86">
+        <v>16.753548666666699</v>
+      </c>
+      <c r="E86">
+        <v>15.183960000000001</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F87" si="44">$F$10*B86</f>
+        <v>14.725</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G87" si="45">F86^3</f>
+        <v>3192.7573281249997</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:H87" si="46">$B$8/G86/(1E-24)</f>
+        <v>3.2884328249794708</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0.96</v>
+      </c>
+      <c r="C87">
+        <v>-754.41573280666603</v>
+      </c>
+      <c r="D87">
+        <v>16.2436093333333</v>
+      </c>
+      <c r="E87">
+        <v>11.508380000000001</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="44"/>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="45"/>
+        <v>3294.6462719999995</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="46"/>
+        <v>3.1867360357403496</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0.97</v>
+      </c>
+      <c r="C88">
+        <v>-754.528655706667</v>
+      </c>
+      <c r="D88">
+        <v>16.44407</v>
+      </c>
+      <c r="E88">
+        <v>6.9991533333333296</v>
+      </c>
+      <c r="F88">
+        <f>$F$10*B88</f>
+        <v>15.035</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ref="G88:G91" si="47">F88^3</f>
+        <v>3398.6801678750003</v>
+      </c>
+      <c r="H88">
+        <f>$B$8/G88/(1E-24)</f>
+        <v>3.0891897682047929</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0.98</v>
+      </c>
+      <c r="C89">
+        <v>-753.77587617999905</v>
+      </c>
+      <c r="D89">
+        <v>16.690750666666698</v>
+      </c>
+      <c r="E89">
+        <v>3.7130200000000002</v>
+      </c>
+      <c r="F89">
+        <f>$F$10*B89</f>
+        <v>15.19</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="47"/>
+        <v>3504.881359</v>
+      </c>
+      <c r="H89">
+        <f>$B$8/G89/(1E-24)</f>
+        <v>2.9955844220061087</v>
+      </c>
+      <c r="I89">
+        <v>3663.4165839421285</v>
+      </c>
+      <c r="J89">
+        <f>I89^(1/3)</f>
+        <v>15.415659261379524</v>
+      </c>
+      <c r="K89">
+        <f>$B$8/(I89*(10^-24))</f>
+        <v>2.8659497928848854</v>
+      </c>
+      <c r="L89">
+        <v>-753.21367654444964</v>
+      </c>
+      <c r="M89">
+        <f>L89/L91</f>
+        <v>-13.45024422400803</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0.99</v>
+      </c>
+      <c r="C90">
+        <v>-754.06575140666598</v>
+      </c>
+      <c r="D90">
+        <v>16.433861333333301</v>
+      </c>
+      <c r="E90">
+        <v>1.3913866666666701</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:F91" si="48">$F$10*B90</f>
+        <v>15.345000000000001</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="47"/>
+        <v>3613.2721886250006</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90:H91" si="49">$B$8/G90/(1E-24)</f>
+        <v>2.9057229712869672</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0.995</v>
+      </c>
+      <c r="C91">
+        <v>-753.24784309333302</v>
+      </c>
+      <c r="D91">
+        <v>16.601486666666698</v>
+      </c>
+      <c r="E91">
+        <v>-0.22086</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="48"/>
+        <v>15.422499999999999</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="47"/>
+        <v>3668.2957001406244</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="49"/>
+        <v>2.862137858623969</v>
+      </c>
+      <c r="K91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>-753.24429627333302</v>
+      </c>
+      <c r="D92">
+        <v>16.5261453333333</v>
+      </c>
+      <c r="E92">
+        <v>-4.8733733333333298</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92:F93" si="50">$F$10*B92</f>
+        <v>15.5</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:G93" si="51">F92^3</f>
+        <v>3723.875</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ref="H92:H93" si="52">$B$8/G92/(1E-24)</f>
+        <v>2.8194200933167735</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>1.01</v>
+      </c>
+      <c r="C93">
+        <v>-752.30913772666702</v>
+      </c>
+      <c r="D93">
+        <v>16.503746</v>
+      </c>
+      <c r="E93">
+        <v>-5.4254933333333399</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="50"/>
+        <v>15.654999999999999</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="51"/>
+        <v>3836.7121363749993</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="52"/>
+        <v>2.7365013654425008</v>
       </c>
     </row>
   </sheetData>
@@ -14898,7 +17509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB8EE3-5B67-D145-9F96-8CAD71FDDC61}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -15842,10 +18453,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
-  <dimension ref="B5:U33"/>
+  <dimension ref="B5:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16342,167 +18953,247 @@
         <v>-13.250283265825896</v>
       </c>
     </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>3741.1480126453807</v>
+      </c>
+      <c r="D22">
+        <v>15.523928372637515</v>
+      </c>
+      <c r="E22">
+        <v>2.8064027310632902</v>
+      </c>
+      <c r="F22">
+        <v>-745.16395543400563</v>
+      </c>
+      <c r="G22">
+        <v>-13.306499204178673</v>
+      </c>
+    </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>43</v>
+      <c r="B23">
+        <v>900</v>
+      </c>
+      <c r="C23">
+        <v>3677.5855192186946</v>
+      </c>
+      <c r="D23">
+        <v>15.435507989947753</v>
+      </c>
+      <c r="E23">
+        <v>2.8549079131219095</v>
+      </c>
+      <c r="F23">
+        <v>-747.61373306583312</v>
+      </c>
+      <c r="G23">
+        <v>-13.350245233318448</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
+      <c r="B24">
+        <v>800</v>
+      </c>
+      <c r="C24">
+        <v>3679.5024112824153</v>
+      </c>
+      <c r="D24">
+        <v>15.438189374539279</v>
+      </c>
+      <c r="E24">
+        <v>2.8534206059510985</v>
+      </c>
+      <c r="F24">
+        <v>-750.61184068011528</v>
+      </c>
+      <c r="G24">
+        <v>-13.403782869287772</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
+        <v>700</v>
+      </c>
+      <c r="C25">
+        <v>3663.4165839421285</v>
+      </c>
+      <c r="D25">
+        <v>15.415659261379524</v>
+      </c>
+      <c r="E25">
+        <v>2.8659497928848854</v>
+      </c>
+      <c r="F25">
+        <v>-753.21367654444964</v>
+      </c>
+      <c r="G25">
+        <v>-13.45024422400803</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>1300</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>3379.578459322016</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>15.006779837824192</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>2.856243793770803</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>-698.30950473771759</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>-15.517988994171501</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>1200</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>3313.4561469117943</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>14.90826403254381</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>2.9132421169951779</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>-701.13852644303597</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>-15.580856143178577</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1100</v>
-      </c>
-      <c r="C27">
-        <v>3272.4167350063676</v>
-      </c>
-      <c r="D27">
-        <v>14.846458488803105</v>
-      </c>
-      <c r="E27">
-        <v>2.9497771163247695</v>
-      </c>
-      <c r="F27">
-        <v>-703.98228975325071</v>
-      </c>
-      <c r="G27">
-        <v>-15.644050883405571</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31">
+        <v>1100</v>
+      </c>
+      <c r="C31">
+        <v>3272.4167350063676</v>
+      </c>
+      <c r="D31">
+        <v>14.846458488803105</v>
+      </c>
+      <c r="E31">
+        <v>2.9497771163247695</v>
+      </c>
+      <c r="F31">
+        <v>-703.98228975325071</v>
+      </c>
+      <c r="G31">
+        <v>-15.644050883405571</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>1300</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <v>2522.2388806535328</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>13.612213078742627</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>3.6764003882127736</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>-704.55693404688441</v>
       </c>
-      <c r="G31">
+      <c r="G35">
         <v>-23.485231134896146</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>1200</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>2458.2114754537788</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>13.496041775913138</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>3.7721571527072446</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>-708.02384223305012</v>
       </c>
-      <c r="G32">
+      <c r="G36">
         <v>-23.600794741101669</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>1100</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>2416.5572494322632</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>13.419377270210067</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>3.8371778703684787</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>-710.93563476025327</v>
       </c>
-      <c r="G33">
+      <c r="G37">
         <v>-23.697854492008442</v>
       </c>
     </row>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F15DA0B-F4C7-9447-8391-CBA2EECC94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DEC45E-8A4F-FB43-8778-A45C14BD1450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -18455,8 +18455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DEC45E-8A4F-FB43-8778-A45C14BD1450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C701CE4F-DC9E-5A43-B484-2BB656211686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView minimized="1" xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="3" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -607,6 +607,327 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ZrF4!$G$15:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2315.6852670000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2351.3105743593746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2387.2994021250001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2423.6535955781246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2497.4654606718746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2534.9268228749997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2572.7609318906243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ZrF4!$E$15:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0149822222222102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.16085333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8853488888888901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8688066666666701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69804231700895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76227333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.80159777777777697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.75290888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3473-1549-8257-58747F69D0C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2014724784"/>
+        <c:axId val="2014720272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2014724784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014720272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2014720272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014724784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1356,7 +1677,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1844,7 +2165,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1891,6 +2212,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>summary!$B$19:$B$25</c:f>
@@ -1946,7 +2281,7 @@
                   <c:v>2.8534206059510985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8659497928848854</c:v>
+                  <c:v>2.8968067193389899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,6 +2308,493 @@
         <c:axId val="1542654272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543217664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1543217664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542654272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$P$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$Q$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$Q$12:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36203828283041561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.73431043970031062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.63054614742347503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF5E-7847-AA81-55134D5E7658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$Q$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$Q$13:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.35770191693462738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.74559730997682827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6553406162279245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF5E-7847-AA81-55134D5E7658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$Q$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$Q$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33855591514289207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.70495286551893344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.59901680737241314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF5E-7847-AA81-55134D5E7658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1542654272"/>
+        <c:axId val="1543217664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1542654272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3551,56 +4373,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'KF-42ZrF4'!$G$86:$G$91</c:f>
+              <c:f>'KF-42ZrF4'!$G$57:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3192.7573281249997</c:v>
+                  <c:v>3398.6801678750003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3294.6462719999995</c:v>
+                  <c:v>3504.881359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3398.6801678750003</c:v>
+                  <c:v>3613.2721886250006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3504.881359</c:v>
+                  <c:v>3723.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3613.2721886250006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3668.2957001406244</c:v>
+                  <c:v>3836.7121363749993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'KF-42ZrF4'!$E$86:$E$91</c:f>
+              <c:f>'KF-42ZrF4'!$E$57:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.183960000000001</c:v>
+                  <c:v>9.8436355555555597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.508380000000001</c:v>
+                  <c:v>5.1306444444444397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9991533333333296</c:v>
+                  <c:v>2.7041622222222199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7130200000000002</c:v>
+                  <c:v>0.63763111111111104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3913866666666701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.22086</c:v>
+                  <c:v>-1.33432666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,8 +4655,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3862,60 +4695,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$C$27:$C$33</c:f>
+              <c:f>'KF-42ZrF4'!$C$86:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-710.25096301333394</c:v>
+                  <c:v>-753.80325331999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-709.34758202444505</c:v>
+                  <c:v>-754.41573280666603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-708.34932585111096</c:v>
+                  <c:v>-754.528655706667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-708.56763322889003</c:v>
+                  <c:v>-753.77587617999905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-707.09132987999999</c:v>
+                  <c:v>-754.06575140666598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-708.15924559555594</c:v>
+                  <c:v>-753.24784309333302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-707.50244896888898</c:v>
+                  <c:v>-753.24429627333302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$27:$E$33</c:f>
+              <c:f>'KF-42ZrF4'!$E$86:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.6219977777777803</c:v>
+                  <c:v>15.183960000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3334977777777799</c:v>
+                  <c:v>11.508380000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.22586888888888</c:v>
+                  <c:v>6.9991533333333296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5317400000000001</c:v>
+                  <c:v>3.7130200000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90448444444444598</c:v>
+                  <c:v>1.3913866666666701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.01864</c:v>
+                  <c:v>-0.22086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4867444444444402</c:v>
+                  <c:v>-4.8733733333333298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,7 +4756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B76-DE43-9274-53F0F23A6E86}"/>
+              <c16:uniqueId val="{00000001-9149-7944-A3A1-EF302E7D2E47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3935,11 +4768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2014724784"/>
-        <c:axId val="2014720272"/>
+        <c:axId val="1426603360"/>
+        <c:axId val="1426392720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2014724784"/>
+        <c:axId val="1426603360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,12 +4829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014720272"/>
+        <c:crossAx val="1426392720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2014720272"/>
+        <c:axId val="1426392720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,7 +4891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014724784"/>
+        <c:crossAx val="1426603360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4176,66 +5009,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$40:$G$47</c:f>
+              <c:f>ZrF4!$C$27:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2245.5178323749997</c:v>
+                  <c:v>-710.25096301333394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2280.4216347656252</c:v>
+                  <c:v>-709.34758202444505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2315.6852670000003</c:v>
+                  <c:v>-708.34932585111096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2351.3105743593746</c:v>
+                  <c:v>-708.56763322889003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2387.2994021250001</c:v>
+                  <c:v>-707.09132987999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2423.6535955781246</c:v>
+                  <c:v>-708.15924559555594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2460.375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2497.4654606718746</c:v>
+                  <c:v>-707.50244896888898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$40:$E$47</c:f>
+              <c:f>ZrF4!$E$27:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.038931111111101</c:v>
+                  <c:v>7.6219977777777803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6153600000000097</c:v>
+                  <c:v>3.3334977777777799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2820044444444401</c:v>
+                  <c:v>2.22586888888888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1431177777777801</c:v>
+                  <c:v>1.5317400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1819288888888901</c:v>
+                  <c:v>0.90448444444444598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55344222222221895</c:v>
+                  <c:v>-1.01864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.18817555555555299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.7398177777777803</c:v>
+                  <c:v>-2.4867444444444402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4243,7 +5070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA21-3645-90D1-32C01B38DD34}"/>
+              <c16:uniqueId val="{00000000-1B76-DE43-9274-53F0F23A6E86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4496,66 +5323,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ZrF4!$G$15:$G$22</c:f>
+              <c:f>ZrF4!$G$40:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>2245.5178323749997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2280.4216347656252</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2315.6852670000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2351.3105743593746</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>2387.2994021250001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2423.6535955781246</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2460.375</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2497.4654606718746</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2534.9268228749997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2572.7609318906243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZrF4!$E$15:$E$22</c:f>
+              <c:f>ZrF4!$E$40:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.0149822222222102</c:v>
+                  <c:v>14.038931111111101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.16085333333334</c:v>
+                  <c:v>8.6153600000000097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8853488888888901</c:v>
+                  <c:v>5.2820044444444401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8688066666666701</c:v>
+                  <c:v>2.1431177777777801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.69804231700895</c:v>
+                  <c:v>2.1819288888888901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.76227333333333</c:v>
+                  <c:v>-0.55344222222221895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.80159777777777697</c:v>
+                  <c:v>-0.18817555555555299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.75290888888889</c:v>
+                  <c:v>-4.7398177777777803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4563,7 +5390,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3473-1549-8257-58747F69D0C6}"/>
+              <c16:uniqueId val="{00000000-EA21-3645-90D1-32C01B38DD34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4582,7 +5409,6 @@
         <c:axId val="2014724784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4876,6 +5702,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7299,6 +8205,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11659,6 +13597,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88687C5D-6A24-1246-9070-AD104DC3EE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11857,16 +13833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11886,6 +13862,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD49FD3-A02D-764C-B6F2-3AA19FE438B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14574,13 +16588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
   <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89:M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
@@ -14620,14 +16634,14 @@
         <v>22</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6:L6">LINEST(E86:E91,G86:G91^{1,2})</f>
-        <v>2.5574670072420916E-5</v>
+        <f t="array" ref="J6:L6">LINEST(E15:E22,G15:G22^{1,2})</f>
+        <v>1.7246802111600993E-5</v>
       </c>
       <c r="K6">
-        <v>-0.20797184738354535</v>
+        <v>-0.15239983992531181</v>
       </c>
       <c r="L6">
-        <v>418.65955872961086</v>
+        <v>333.73046751087799</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -14639,11 +16653,11 @@
       </c>
       <c r="K7">
         <f>(-K6+SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>4468.5298612953793</v>
+        <v>4830.8325379781254</v>
       </c>
       <c r="L7">
         <f>(-K6-SQRT(K6^2-4*J6*L6))/(2*J6)</f>
-        <v>3663.4165839421285</v>
+        <v>4005.5789277045856</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -14676,14 +16690,14 @@
         <v>22</v>
       </c>
       <c r="J10" cm="1">
-        <f t="array" ref="J10:L10">LINEST(E86:E91,C86:C91^{1,2})</f>
-        <v>-7.787746765424699</v>
+        <f t="array" ref="J10:L10">LINEST(E86:E92,C86:C92^{1,2})</f>
+        <v>-11.402446957458636</v>
       </c>
       <c r="K10">
-        <v>-11747.948086190143</v>
+        <v>-17200.053334790162</v>
       </c>
       <c r="L10">
-        <v>-4430486.2359858435</v>
+        <v>-6486358.4473712528</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -14692,11 +16706,11 @@
       </c>
       <c r="K11">
         <f>(-K10+SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-755.30328478608192</v>
+        <v>-755.1057679298093</v>
       </c>
       <c r="L11">
         <f>(-K10-SQRT(K10^2-4*J10*L10))/(2*J10)</f>
-        <v>-753.21367654444964</v>
+        <v>-753.34705793834007</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -15904,15 +17918,15 @@
         <v>2.9057229712869672</v>
       </c>
       <c r="I69">
-        <v>3677.5855192186946</v>
+        <v>3680.0265283378285</v>
       </c>
       <c r="J69">
         <f>I69^(1/3)</f>
-        <v>15.435507989947753</v>
+        <v>15.438922357181582</v>
       </c>
       <c r="K69">
         <f>$B$8/(I69*(10^-24))</f>
-        <v>2.8549079131219095</v>
+        <v>2.8530142158356115</v>
       </c>
       <c r="L69">
         <v>-747.61373306583312</v>
@@ -16103,15 +18117,15 @@
         <v>2.9955844220061087</v>
       </c>
       <c r="I78">
-        <v>3679.5024112824153</v>
+        <v>3682.6845331373579</v>
       </c>
       <c r="J78">
         <f>I78^(1/3)</f>
-        <v>15.438189374539279</v>
+        <v>15.44263853090898</v>
       </c>
       <c r="K78">
         <f>$B$8/(I78*(10^-24))</f>
-        <v>2.8534206059510985</v>
+        <v>2.8509550317239722</v>
       </c>
       <c r="L78">
         <v>-750.61184068011528</v>
@@ -16354,22 +18368,22 @@
         <v>2.9955844220061087</v>
       </c>
       <c r="I89">
-        <v>3663.4165839421285</v>
+        <v>3624.393691822062</v>
       </c>
       <c r="J89">
         <f>I89^(1/3)</f>
-        <v>15.415659261379524</v>
+        <v>15.360727634323323</v>
       </c>
       <c r="K89">
         <f>$B$8/(I89*(10^-24))</f>
-        <v>2.8659497928848854</v>
+        <v>2.8968067193389899</v>
       </c>
       <c r="L89">
-        <v>-753.21367654444964</v>
+        <v>-753.34705793834007</v>
       </c>
       <c r="M89">
         <f>L89/L91</f>
-        <v>-13.45024422400803</v>
+        <v>-13.452626034613216</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
@@ -18455,8 +20469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19018,19 +21032,19 @@
         <v>700</v>
       </c>
       <c r="C25">
-        <v>3663.4165839421285</v>
+        <v>3624.393691822062</v>
       </c>
       <c r="D25">
-        <v>15.415659261379524</v>
+        <v>15.360727634323323</v>
       </c>
       <c r="E25">
-        <v>2.8659497928848854</v>
+        <v>2.8968067193389899</v>
       </c>
       <c r="F25">
-        <v>-753.21367654444964</v>
+        <v>-753.34705793834007</v>
       </c>
       <c r="G25">
-        <v>-13.45024422400803</v>
+        <v>-13.452626034613216</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C701CE4F-DC9E-5A43-B484-2BB656211686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31702251-B85D-CC48-97BF-27A7CE179113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="3" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -16588,8 +16588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814205FE-423C-9343-A753-0BA870EDB24F}">
   <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89:M89"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20469,7 +20469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/SALT/KF_ZrF4.xlsx
+++ b/SALT/KF_ZrF4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31702251-B85D-CC48-97BF-27A7CE179113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F949CA5-A331-204F-A77C-3E88BA89E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="6" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
+    <workbookView xWindow="2660" yWindow="2000" windowWidth="25380" windowHeight="15820" activeTab="1" xr2:uid="{C6F70D6C-A91D-7042-801E-C8AF04A08BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14655,7 +14655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AD377-E366-D449-B80C-FF0A92CA22BC}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -20469,7 +20469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF6557-A26A-554F-B567-358C1860E243}">
   <dimension ref="B5:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
